--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10400" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="视图" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="视图布局" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">视图!$A$7:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">视图!$A$7:$H$8</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -152,7 +152,7 @@
     <t>fd_dashboard_card-8</t>
   </si>
   <si>
-    <t>ORGANIZATION</t>
+    <t>organization</t>
   </si>
   <si>
     <t>common</t>
@@ -379,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -420,6 +420,28 @@
       <color rgb="FF70AD47"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -430,7 +452,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,17 +514,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,39 +559,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,67 +573,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF70AD47"/>
       <name val="Calibri"/>
@@ -594,19 +594,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,25 +666,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,127 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +779,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -795,46 +806,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,11 +828,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,152 +864,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,7 +1513,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:H7"/>
+  <autoFilter ref="A7:H8"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10400" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="视图" sheetId="2" r:id="rId1"/>
@@ -379,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -423,7 +423,143 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,142 +574,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF70AD47"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -588,25 +588,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,157 +720,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,11 +784,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,8 +794,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,11 +839,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,32 +869,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,148 +883,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1524,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2074,8 +2074,8 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2156,11 +2156,11 @@
         <v>107</v>
       </c>
       <c r="G8" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H8" t="str">
-        <f>卡片!E8</f>
+        <f>卡片!$E$8</f>
         <v>fd_dashboard_card-8</v>
       </c>
       <c r="I8">
@@ -2181,11 +2181,11 @@
         <v>107</v>
       </c>
       <c r="G9" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H9" t="str">
-        <f>卡片!E10</f>
+        <f>卡片!$E$10</f>
         <v>fd_dashboard_card-10</v>
       </c>
       <c r="I9">
@@ -2206,11 +2206,11 @@
         <v>107</v>
       </c>
       <c r="G10" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H10" t="str">
-        <f>卡片!E11</f>
+        <f>卡片!$E$11</f>
         <v>fd_dashboard_card-11</v>
       </c>
       <c r="I10">
@@ -2231,11 +2231,11 @@
         <v>107</v>
       </c>
       <c r="G11" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H11" t="str">
-        <f>卡片!E15</f>
+        <f>卡片!$E$15</f>
         <v>fd_dashboard_card-15</v>
       </c>
       <c r="I11">
@@ -2256,11 +2256,11 @@
         <v>107</v>
       </c>
       <c r="G12" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H12" t="str">
-        <f>卡片!E16</f>
+        <f>卡片!$E$16</f>
         <v>fd_dashboard_card-16</v>
       </c>
       <c r="I12">
@@ -2281,11 +2281,11 @@
         <v>107</v>
       </c>
       <c r="G13" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H13" t="str">
-        <f>卡片!E18</f>
+        <f>卡片!$E$18</f>
         <v>fd_dashboard_card-18</v>
       </c>
       <c r="I13">
@@ -2306,11 +2306,11 @@
         <v>107</v>
       </c>
       <c r="G14" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H14" t="str">
-        <f>卡片!E17</f>
+        <f>卡片!$E$17</f>
         <v>fd_dashboard_card-17</v>
       </c>
       <c r="I14">
@@ -2331,11 +2331,11 @@
         <v>107</v>
       </c>
       <c r="G15" t="str">
-        <f>视图!E8</f>
+        <f>视图!$E$8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H15" t="str">
-        <f>卡片!E14</f>
+        <f>卡片!$E$14</f>
         <v>fd_dashboard_card-14</v>
       </c>
       <c r="I15">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>日期</t>
   </si>
@@ -365,6 +365,9 @@
     <t>#card_id</t>
   </si>
   <si>
+    <t>#w</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -381,8 +384,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -431,6 +434,112 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,83 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -530,36 +562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,181 +597,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,15 +790,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,6 +848,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -883,142 +886,142 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,7 +1436,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1524,8 +1527,8 @@
   <sheetPr/>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2074,14 +2077,14 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9.77777777777778"/>
-    <col min="4" max="4" width="15.9722222222222" customWidth="1"/>
+    <col min="4" max="4" width="19.5625" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="14.4652777777778" customWidth="1"/>
     <col min="7" max="7" width="14.1597222222222" customWidth="1"/>
@@ -2139,21 +2142,21 @@
         <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="5:12">
       <c r="E8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G8" t="str">
         <f>视图!$E$8</f>
@@ -2178,7 +2181,7 @@
     </row>
     <row r="9" spans="5:12">
       <c r="E9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="str">
         <f>视图!$E$8</f>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="10" spans="5:12">
       <c r="E10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G10" t="str">
         <f>视图!$E$8</f>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="11" spans="5:12">
       <c r="E11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" t="str">
         <f>视图!$E$8</f>
@@ -2253,7 +2256,7 @@
     </row>
     <row r="12" spans="5:12">
       <c r="E12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" t="str">
         <f>视图!$E$8</f>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="13" spans="5:12">
       <c r="E13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" t="str">
         <f>视图!$E$8</f>
@@ -2303,7 +2306,7 @@
     </row>
     <row r="14" spans="5:12">
       <c r="E14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G14" t="str">
         <f>视图!$E$8</f>
@@ -2328,7 +2331,7 @@
     </row>
     <row r="15" spans="5:12">
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" t="str">
         <f>视图!$E$8</f>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="视图" sheetId="2" r:id="rId1"/>
-    <sheet name="卡片" sheetId="3" r:id="rId2"/>
-    <sheet name="视图布局" sheetId="4" r:id="rId3"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="视图-卡片" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">视图!$A$7:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -22,7 +21,1850 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">注意这个文档不能 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！！
+发现冲突以后，先备份自己的改动，然后更新到最新版，然后再添加新的数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">正式的数据从第二个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">每页 从 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">D7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">单元格开始有效
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF4B183"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">同一个表的数据要连续,中间不能有空行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sheet 页的名字不要包含空格,中文等</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颜色示例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非强制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请给特殊单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列名添加颜色</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高数据可读性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动生成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2E75B6"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2E75B6"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一性检查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外键引用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理论上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表的前后顺序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页的顺序没有严格要求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但请尽量按照先插 后引用的顺序排列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少迭代次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>列名格式举例</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>ROLE_CODE</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>*USER_ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该列的值自动生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当数据库存在等价记录时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个值会被替换为数据库中已存在的值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自增长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或序列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主键列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当不作为外键引用时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为外键时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写可读的值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">目前 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是序列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他自增涨</t>
+    </r>
+  </si>
+  <si>
+    <t>#USER_NAME</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表中所有带有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的列组成一个唯一性校验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在执行插入之前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以有多列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅支持</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">字符串
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列涉及到公式时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会先确定公式的值</t>
+    </r>
+  </si>
+  <si>
+    <t>UNIT_PRICE(DECIMAL)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(TYPE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定这一列的类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认会自动检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:
+_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾为数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;
+_DATE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结尾为日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般不需要指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期格式仅支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:
+yyyy-MM-dd HH:mm:ss
+yyyy-MM-dd</t>
+    </r>
+  </si>
+  <si>
+    <t>ROLE_NAME:zh_CN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:LANG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定语言环境</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">TL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表数据不需要专门写</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外键引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于引用外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也可用于普通值
+目前不支持特别复杂的公式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动增长列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果被公式引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最好写一个人可以读懂的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强公式可读性</t>
+    </r>
+  </si>
+  <si>
+    <t>关于公式的说明</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般用于引用自动生成的外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">所有公式均为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Excel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持的标准公式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但不支持特别复杂的计算公式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比如范围计算</t>
+    </r>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用当前页 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">E9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+  </si>
+  <si>
+    <t>$E$9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用当前页 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">E9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOURCE!E23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RESOURCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">页的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">E23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOURCE!$E$23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RESOURCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">页的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">E23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>举例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">当 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">F10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">单元格引用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">时
+将 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">F10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的复制到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">F11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, F11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用的是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">将 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">F10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的复制到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">G11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, G11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">实际引用的是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上情况适用于拖拽填充</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复制公式单元格时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持公式不变</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相对引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝对引用各有用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接拖拽填充就可以避免大量重复工作</t>
+    </r>
+  </si>
   <si>
     <t>日期</t>
   </si>
@@ -30,9 +1872,6 @@
     <t>作者</t>
   </si>
   <si>
-    <t>说明</t>
-  </si>
-  <si>
     <t>表</t>
   </si>
   <si>
@@ -42,33 +1881,7 @@
     <t>#唯一性检查</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF70AD47"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外键引用</t>
-    </r>
+    <t>公式=外键引用</t>
   </si>
   <si>
     <t>hzero</t>
@@ -101,9 +1914,6 @@
     <t>项目管理</t>
   </si>
   <si>
-    <t>公式=外键引用</t>
-  </si>
-  <si>
     <t>卡片</t>
   </si>
   <si>
@@ -149,7 +1959,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>fd_dashboard_card-8</t>
+    <t>fd_dashboard_card-11</t>
   </si>
   <si>
     <t>organization</t>
@@ -164,7 +1974,7 @@
     <t>星标项目</t>
   </si>
   <si>
-    <t>fd_dashboard_card-9</t>
+    <t>fd_dashboard_card-12</t>
   </si>
   <si>
     <t>selfInfo</t>
@@ -179,7 +1989,7 @@
     <t>展示我的用户名、邮箱以及日期</t>
   </si>
   <si>
-    <t>fd_dashboard_card-10</t>
+    <t>fd_dashboard_card-13</t>
   </si>
   <si>
     <t>agile</t>
@@ -197,7 +2007,7 @@
     <t>展示当前迭代我待办的问题项，以便高效完成工作计划。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-11</t>
+    <t>fd_dashboard_card-14</t>
   </si>
   <si>
     <t>myStar</t>
@@ -212,7 +2022,7 @@
     <t>展示我关注的特性、问题项、需求，以便我能快速了解关注的工作内容和进展情况。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-12</t>
+    <t>fd_dashboard_card-15</t>
   </si>
   <si>
     <t>backlog</t>
@@ -230,7 +2040,7 @@
     <t>此模块显示该组织下待您审核的需求列表。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-13</t>
+    <t>fd_dashboard_card-16</t>
   </si>
   <si>
     <t>myDefect</t>
@@ -245,7 +2055,7 @@
     <t>展示当前迭代我提交的和待我修复的缺陷，以便我能及时处理风险漏洞。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-14</t>
+    <t>fd_dashboard_card-17</t>
   </si>
   <si>
     <t>devops</t>
@@ -263,7 +2073,7 @@
     <t>此模块将会显示待我审核的“流水线人工卡点任务”与“代码合并请求”。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-15</t>
+    <t>fd_dashboard_card-18</t>
   </si>
   <si>
     <t>serviceList</t>
@@ -278,7 +2088,7 @@
     <t>此模块将显示我近7天操作过的应用服务，以便我能从工作台快速进入对应的代码仓库。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-16</t>
+    <t>fd_dashboard_card-19</t>
   </si>
   <si>
     <t>quickLink</t>
@@ -293,7 +2103,7 @@
     <t>此模块将显示我所在项目共享的网址链接，同时支持创建个人的网址链接；以便从工作台快速进入目标地址。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-17</t>
+    <t>fd_dashboard_card-20</t>
   </si>
   <si>
     <t>doc</t>
@@ -308,7 +2118,7 @@
     <t>此模块将显示我所在项目更新的知识库文档动态，同时支持筛选出我操作过的文档。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-18</t>
+    <t>fd_dashboard_card-21</t>
   </si>
   <si>
     <t>envList</t>
@@ -323,7 +2133,7 @@
     <t>此模块将显示我近7天使用过的环境，以便我能从工作台快速进入对应的环境管理资源。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-19</t>
+    <t>fd_dashboard_card-22</t>
   </si>
   <si>
     <t>selfCode</t>
@@ -338,7 +2148,7 @@
     <t>用于展示我近7天的代码提交记录</t>
   </si>
   <si>
-    <t>fd_dashboard_card-20</t>
+    <t>fd_dashboard_card-23</t>
   </si>
   <si>
     <t>myReport</t>
@@ -374,7 +2184,28 @@
     <t>y</t>
   </si>
   <si>
-    <t>*</t>
+    <t>fd_dashboard_layout-26</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-27</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-28</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-29</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-30</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-31</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-32</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-33</t>
   </si>
 </sst>
 </file>
@@ -382,12 +2213,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -419,17 +2250,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF70AD47"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -440,9 +2295,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,9 +2348,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,7 +2370,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -485,38 +2378,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,10 +2393,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,44 +2431,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF70AD47"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,7 +2490,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFDEEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,25 +2562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +2592,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +2640,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,126 +2694,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -785,11 +2708,104 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,9 +2827,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +2866,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -847,204 +2898,227 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1433,91 +3507,243 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.8472222222222" customWidth="1"/>
-    <col min="3" max="3" width="15.8680555555556" customWidth="1"/>
-    <col min="4" max="4" width="14.9097222222222" customWidth="1"/>
-    <col min="5" max="5" width="23.9166666666667" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.5069444444444" customWidth="1"/>
-    <col min="7" max="7" width="20.9513888888889" customWidth="1"/>
-    <col min="8" max="8" width="14.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3541666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.3541666666667" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.3541666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" ht="17" spans="3:7">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>44389</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="5" ht="17" spans="1:3">
+      <c r="A5" s="9"/>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" ht="51" spans="3:6">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="5:8">
-      <c r="E8" s="6" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
-        <v>1</v>
+    </row>
+    <row r="10" ht="51" spans="3:5">
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="68" spans="3:5">
+      <c r="C11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="3:5">
+      <c r="C12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" ht="34" spans="3:5">
+      <c r="C15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="3:5">
+      <c r="C19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="17" spans="3:4">
+      <c r="C20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="3:4">
+      <c r="C21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="3:4">
+      <c r="C22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="3:4">
+      <c r="C23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" ht="51" spans="3:3">
+      <c r="C27" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:H8"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1525,285 +3751,223 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="9.77777777777778"/>
-    <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="35.75" customWidth="1"/>
-    <col min="6" max="6" width="17.1597222222222" customWidth="1"/>
-    <col min="7" max="7" width="18.3958333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.3958333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.1527777777778" customWidth="1"/>
+    <col min="1" max="1" width="19.9097222222222" customWidth="1"/>
+    <col min="4" max="4" width="14.4652777777778" customWidth="1"/>
+    <col min="5" max="5" width="30.3541666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.3541666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.5208333333333" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="14.6388888888889" customWidth="1"/>
+    <col min="10" max="10" width="23.7847222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>44389</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="5:13">
+        <v>55</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="5:13">
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11">
         <v>9</v>
       </c>
-      <c r="K8">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="M11">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9">
+    <row r="12" ht="15" customHeight="1" spans="5:17">
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="P9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="5:17">
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="5:17">
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="P11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="5:17">
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="5:17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="5:17">
       <c r="E13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1815,30 +3979,32 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="5:17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="5:17">
       <c r="E14" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -1850,103 +4016,109 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="5:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="5:17">
       <c r="E15" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="5:17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="5:17">
       <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="5:17">
       <c r="E17" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -1955,30 +4127,32 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="Q17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="5:17">
       <c r="E18" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -1992,63 +4166,67 @@
       <c r="M18">
         <v>2</v>
       </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="Q18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="5:17">
       <c r="E19" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
       <c r="P19" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="Q19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="5:17">
       <c r="E20" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2062,295 +4240,358 @@
       <c r="M20">
         <v>4</v>
       </c>
+      <c r="N20"/>
+      <c r="O20"/>
       <c r="P20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <cols>
-    <col min="1" max="1" width="9.77777777777778"/>
-    <col min="4" max="4" width="19.5625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="14.4652777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.1597222222222" customWidth="1"/>
-    <col min="8" max="8" width="28.2361111111111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="5:17">
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="5:17">
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="5:16">
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H26" t="str">
+        <f>E11</f>
+        <v>fd_dashboard_card-11</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12">
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H27" t="str">
+        <f>E13</f>
+        <v>fd_dashboard_card-13</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="28" spans="5:12">
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H28" t="str">
+        <f>E14</f>
+        <v>fd_dashboard_card-14</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12">
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H29" t="str">
+        <f>E18</f>
+        <v>fd_dashboard_card-18</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12">
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H30" t="str">
+        <f>E19</f>
+        <v>fd_dashboard_card-19</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12">
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H31" t="str">
+        <f>E21</f>
+        <v>fd_dashboard_card-21</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12">
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H32" t="str">
+        <f>E20</f>
+        <v>fd_dashboard_card-20</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2">
-        <v>44389</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="5:12">
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="str">
-        <f>视图!$E$8</f>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" t="str">
+        <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
-      <c r="H8" t="str">
-        <f>卡片!$E$8</f>
-        <v>fd_dashboard_card-8</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12">
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" t="str">
-        <f>视图!$E$8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H9" t="str">
-        <f>卡片!$E$10</f>
-        <v>fd_dashboard_card-10</v>
-      </c>
-      <c r="I9">
+      <c r="H33" t="str">
+        <f>E17</f>
+        <v>fd_dashboard_card-17</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12">
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" t="str">
-        <f>视图!$E$8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H10" t="str">
-        <f>卡片!$E$11</f>
-        <v>fd_dashboard_card-11</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="5:12">
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="str">
-        <f>视图!$E$8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H11" t="str">
-        <f>卡片!$E$15</f>
-        <v>fd_dashboard_card-15</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="5:12">
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" t="str">
-        <f>视图!$E$8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H12" t="str">
-        <f>卡片!$E$16</f>
-        <v>fd_dashboard_card-16</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:12">
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" t="str">
-        <f>视图!$E$8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H13" t="str">
-        <f>卡片!$E$18</f>
-        <v>fd_dashboard_card-18</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12">
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" t="str">
-        <f>视图!$E$8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H14" t="str">
-        <f>卡片!$E$17</f>
-        <v>fd_dashboard_card-17</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12">
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="str">
-        <f>视图!$E$8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H15" t="str">
-        <f>卡片!$E$14</f>
-        <v>fd_dashboard_card-14</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
+      <c r="L33">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10400" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <r>
       <rPr>
@@ -2155,6 +2155,54 @@
   </si>
   <si>
     <t>我报告的</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-24</t>
+  </si>
+  <si>
+    <t>resource-management</t>
+  </si>
+  <si>
+    <t>resourceOverview</t>
+  </si>
+  <si>
+    <t>资源概览</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMTAwLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0ZGRkZGRiIgeD0iMCIgeT0iMCIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMUZDMkJCIiB4PSIxOSIgeT0iMTEiIHdpZHRoPSIyNCIgaGVpZ2h0PSIyMCIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMzdCMUVDIiB4PSI0OC41IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9Ijc4IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9IjE5IiB5PSIzNiIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiNGRDcyOUMiIHg9IjQ4LjUiIHk9IjM2IiB3aWR0aD0iMjQiIGhlaWdodD0iMjAiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>此模块将显示主机、集群、环境的数量概览</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-25</t>
+  </si>
+  <si>
+    <t>resourceMonitoring</t>
+  </si>
+  <si>
+    <t>资源池监控</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMjAzLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTAiIHdpZHRoPSI4MyIgaGVpZ2h0PSIxMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjI3IiB3aWR0aD0iODMiIGhlaWdodD0iMTIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSI0NCIgd2lkdGg9IjgzIiBoZWlnaHQ9IjEyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+  </si>
+  <si>
+    <t>此模块将显示主机、集群的运行情况</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-26</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtNTEyLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0MTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjIxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSIzMSIgd2lkdGg9Ijg0IiBoZWlnaHQ9IjUiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iNDEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjUxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>系统公告</t>
   </si>
   <si>
     <t>视图布局</t>
@@ -2213,10 +2261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2294,13 +2342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2309,10 +2350,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2325,30 +2366,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2361,55 +2395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2424,6 +2411,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -2431,8 +2434,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2520,7 +2568,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2532,37 +2640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2574,7 +2664,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,115 +2736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,41 +2849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2870,16 +2883,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2898,152 +2917,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3054,13 +3102,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3515,10 +3563,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3541666666667" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.3541666666667" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
     <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
     <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
@@ -3697,7 +3745,7 @@
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3705,7 +3753,7 @@
       <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3751,10 +3799,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3763,10 +3811,10 @@
     <col min="4" max="4" width="14.4652777777778" customWidth="1"/>
     <col min="5" max="5" width="30.3541666666667" customWidth="1"/>
     <col min="6" max="6" width="14.3541666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.5208333333333" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="7" max="8" width="37.7222222222222" customWidth="1"/>
     <col min="9" max="9" width="14.6388888888889" customWidth="1"/>
     <col min="10" max="10" width="23.7847222222222" customWidth="1"/>
+    <col min="16" max="16" width="11.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3944,8 +3992,6 @@
       <c r="M12">
         <v>2</v>
       </c>
-      <c r="N12"/>
-      <c r="O12"/>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3981,8 +4027,6 @@
       <c r="M13">
         <v>3</v>
       </c>
-      <c r="N13"/>
-      <c r="O13"/>
       <c r="P13" t="s">
         <v>89</v>
       </c>
@@ -4018,8 +4062,6 @@
       <c r="M14">
         <v>4</v>
       </c>
-      <c r="N14"/>
-      <c r="O14"/>
       <c r="P14" t="s">
         <v>94</v>
       </c>
@@ -4055,8 +4097,6 @@
       <c r="M15">
         <v>5</v>
       </c>
-      <c r="N15"/>
-      <c r="O15"/>
       <c r="P15" t="s">
         <v>100</v>
       </c>
@@ -4092,8 +4132,6 @@
       <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16"/>
-      <c r="O16"/>
       <c r="P16" t="s">
         <v>105</v>
       </c>
@@ -4129,8 +4167,6 @@
       <c r="M17">
         <v>3</v>
       </c>
-      <c r="N17"/>
-      <c r="O17"/>
       <c r="P17" t="s">
         <v>111</v>
       </c>
@@ -4166,8 +4202,6 @@
       <c r="M18">
         <v>2</v>
       </c>
-      <c r="N18"/>
-      <c r="O18"/>
       <c r="P18" t="s">
         <v>116</v>
       </c>
@@ -4203,8 +4237,6 @@
       <c r="M19">
         <v>3</v>
       </c>
-      <c r="N19"/>
-      <c r="O19"/>
       <c r="P19" t="s">
         <v>121</v>
       </c>
@@ -4240,8 +4272,6 @@
       <c r="M20">
         <v>4</v>
       </c>
-      <c r="N20"/>
-      <c r="O20"/>
       <c r="P20" t="s">
         <v>126</v>
       </c>
@@ -4277,8 +4307,6 @@
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="N21"/>
-      <c r="O21"/>
       <c r="P21" t="s">
         <v>131</v>
       </c>
@@ -4314,8 +4342,6 @@
       <c r="M22">
         <v>2</v>
       </c>
-      <c r="N22"/>
-      <c r="O22"/>
       <c r="P22" t="s">
         <v>136</v>
       </c>
@@ -4351,247 +4377,350 @@
       <c r="M23">
         <v>4</v>
       </c>
-      <c r="N23"/>
-      <c r="O23"/>
       <c r="P23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2">
+    <row r="24" ht="15" customHeight="1" spans="5:17">
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="5:17">
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="5:17">
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
         <v>44389</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" t="s">
-        <v>147</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J28" t="s">
         <v>68</v>
       </c>
-      <c r="K25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12">
-      <c r="E26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H26" t="str">
-        <f>E11</f>
-        <v>fd_dashboard_card-11</v>
-      </c>
-      <c r="I26">
-        <v>9</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12">
-      <c r="E27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H27" t="str">
-        <f>E13</f>
-        <v>fd_dashboard_card-13</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12">
-      <c r="E28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H28" t="str">
-        <f>E14</f>
-        <v>fd_dashboard_card-14</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>6</v>
+      <c r="K28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="5:12">
       <c r="E29" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G29" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H29" t="str">
-        <f>E18</f>
-        <v>fd_dashboard_card-18</v>
+        <f>E11</f>
+        <v>fd_dashboard_card-11</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:12">
       <c r="E30" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G30" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H30" t="str">
-        <f>E19</f>
-        <v>fd_dashboard_card-19</v>
+        <f>E13</f>
+        <v>fd_dashboard_card-13</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="5:12">
       <c r="E31" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G31" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H31" t="str">
-        <f>E21</f>
-        <v>fd_dashboard_card-21</v>
+        <f>E14</f>
+        <v>fd_dashboard_card-14</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="5:12">
       <c r="E32" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G32" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H32" t="str">
-        <f>E20</f>
-        <v>fd_dashboard_card-20</v>
+        <f>E18</f>
+        <v>fd_dashboard_card-18</v>
       </c>
       <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
         <v>4</v>
       </c>
-      <c r="J32">
-        <v>5</v>
-      </c>
       <c r="K32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G33" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H33" t="str">
+        <f>E19</f>
+        <v>fd_dashboard_card-19</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H34" t="str">
+        <f>E21</f>
+        <v>fd_dashboard_card-21</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="E35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H35" t="str">
+        <f>E20</f>
+        <v>fd_dashboard_card-20</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12">
+      <c r="E36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H36" t="str">
         <f>E17</f>
         <v>fd_dashboard_card-17</v>
       </c>
-      <c r="I33">
+      <c r="I36">
         <v>4</v>
       </c>
-      <c r="J33">
+      <c r="J36">
         <v>4</v>
       </c>
-      <c r="K33">
+      <c r="K36">
         <v>5</v>
       </c>
-      <c r="L33">
+      <c r="L36">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10380" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2160,7 +2160,7 @@
     <t>fd_dashboard_card-24</t>
   </si>
   <si>
-    <t>resource-management</t>
+    <t>resourceManagement</t>
   </si>
   <si>
     <t>resourceOverview</t>
@@ -2262,9 +2262,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2342,6 +2342,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2350,17 +2357,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2372,24 +2372,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2410,17 +2411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2428,29 +2420,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2472,13 +2457,28 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2568,7 +2568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,13 +2598,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,37 +2670,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2652,7 +2706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2664,43 +2718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,37 +2736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2850,16 +2850,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2875,30 +2884,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2920,6 +2905,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2929,11 +2923,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2950,148 +2950,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3801,8 +3801,8 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10380" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <r>
       <rPr>
@@ -1914,6 +1914,12 @@
     <t>项目管理</t>
   </si>
   <si>
+    <t>fd_dashboard-9</t>
+  </si>
+  <si>
+    <t>资源管理</t>
+  </si>
+  <si>
     <t>卡片</t>
   </si>
   <si>
@@ -2223,9 +2229,6 @@
     <t>#card_id</t>
   </si>
   <si>
-    <t>#w</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -2254,6 +2257,15 @@
   </si>
   <si>
     <t>fd_dashboard_layout-33</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-34</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-35</t>
+  </si>
+  <si>
+    <t>fd_dashboard_layout-36</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2336,6 +2348,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2357,6 +2376,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2364,9 +2391,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2382,9 +2439,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2403,54 +2460,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2471,6 +2482,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2480,7 +2492,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2574,7 +2586,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,7 +2634,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2598,7 +2682,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,139 +2748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,6 +2861,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2860,15 +2899,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2903,26 +2933,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2940,9 +2950,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2950,148 +2962,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3799,10 +3811,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3882,176 +3894,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
+    <row r="9" customFormat="1" spans="5:8">
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2">
         <v>44389</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="K10" t="s">
+      <c r="I11" t="s">
         <v>68</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J11" t="s">
         <v>69</v>
       </c>
-      <c r="M10" t="s">
+      <c r="K11" t="s">
         <v>70</v>
       </c>
-      <c r="N10" t="s">
+      <c r="L11" t="s">
         <v>71</v>
       </c>
-      <c r="O10" t="s">
+      <c r="M11" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s">
+      <c r="N11" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="O11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="5:13">
-      <c r="E11" t="s">
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="Q11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="5:13">
+      <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G12" t="s">
         <v>79</v>
       </c>
-      <c r="J11">
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12">
         <v>9</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="5:17">
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
-      <c r="P12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="5:17">
       <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="Q13" t="s">
         <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="5:17">
       <c r="E14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -4060,103 +4051,103 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="5:17">
       <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
         <v>96</v>
       </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="Q15" t="s">
         <v>97</v>
-      </c>
-      <c r="H15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15">
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>9</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="P15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="5:17">
       <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
         <v>102</v>
       </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="Q16" t="s">
         <v>103</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="5:17">
       <c r="E17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -4165,170 +4156,170 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="5:17">
       <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
         <v>113</v>
       </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="Q18" t="s">
         <v>114</v>
-      </c>
-      <c r="I18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="P18" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="5:17">
       <c r="E19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="5:17">
       <c r="E20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="5:17">
       <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
         <v>128</v>
       </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="Q21" t="s">
         <v>129</v>
-      </c>
-      <c r="I21" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="P21" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="5:17">
       <c r="E22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4343,210 +4334,220 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="5:17">
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
         <v>136</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="I23" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="5:16">
-      <c r="E23" t="s">
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
         <v>138</v>
       </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="Q23" t="s">
         <v>139</v>
       </c>
-      <c r="I23" t="s">
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="5:16">
+      <c r="E24" t="s">
         <v>140</v>
       </c>
-      <c r="J23">
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>4</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>4</v>
       </c>
-      <c r="P23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="5:17">
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>146</v>
+      <c r="P24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="5:17">
       <c r="E25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J25">
         <v>7</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>7</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="5:17">
       <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="Q26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="6" t="s">
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="5:17">
+      <c r="E27" t="s">
         <v>154</v>
       </c>
-      <c r="J26">
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>4</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>5</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>4</v>
       </c>
-      <c r="P26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2">
+      <c r="P27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
         <v>44389</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="C29" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H28" t="s">
+      <c r="F29" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G29" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H29" t="s">
         <v>164</v>
       </c>
-      <c r="L28" t="s">
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="5:12">
-      <c r="E29" t="s">
+      <c r="L29" t="s">
         <v>166</v>
-      </c>
-      <c r="G29" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H29" t="str">
-        <f>E11</f>
-        <v>fd_dashboard_card-11</v>
-      </c>
-      <c r="I29">
-        <v>9</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:12">
@@ -4558,20 +4559,20 @@
         <v>fd_dashboard-8</v>
       </c>
       <c r="H30" t="str">
-        <f>E13</f>
-        <v>fd_dashboard_card-13</v>
+        <f>E12</f>
+        <v>fd_dashboard_card-11</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:12">
@@ -4584,19 +4585,19 @@
       </c>
       <c r="H31" t="str">
         <f>E14</f>
-        <v>fd_dashboard_card-14</v>
+        <v>fd_dashboard_card-13</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="5:12">
@@ -4608,20 +4609,20 @@
         <v>fd_dashboard-8</v>
       </c>
       <c r="H32" t="str">
-        <f>E18</f>
-        <v>fd_dashboard_card-18</v>
+        <f>E15</f>
+        <v>fd_dashboard_card-14</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
         <v>4</v>
       </c>
-      <c r="K32">
-        <v>9</v>
-      </c>
       <c r="L32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="5:12">
@@ -4634,7 +4635,7 @@
       </c>
       <c r="H33" t="str">
         <f>E19</f>
-        <v>fd_dashboard_card-19</v>
+        <v>fd_dashboard_card-18</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -4646,7 +4647,7 @@
         <v>9</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="5:12">
@@ -4658,20 +4659,20 @@
         <v>fd_dashboard-8</v>
       </c>
       <c r="H34" t="str">
-        <f>E21</f>
-        <v>fd_dashboard_card-21</v>
+        <f>E20</f>
+        <v>fd_dashboard_card-19</v>
       </c>
       <c r="I34">
         <v>3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34">
         <v>9</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="5:12">
@@ -4683,20 +4684,20 @@
         <v>fd_dashboard-8</v>
       </c>
       <c r="H35" t="str">
-        <f>E20</f>
-        <v>fd_dashboard_card-20</v>
+        <f t="shared" ref="H35:H39" si="0">E22</f>
+        <v>fd_dashboard_card-21</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="5:12">
@@ -4708,20 +4709,121 @@
         <v>fd_dashboard-8</v>
       </c>
       <c r="H36" t="str">
-        <f>E17</f>
-        <v>fd_dashboard_card-17</v>
+        <f>E21</f>
+        <v>fd_dashboard_card-20</v>
       </c>
       <c r="I36">
         <v>4</v>
       </c>
       <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="E37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" ref="G37:G39" si="1">E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H37" t="str">
+        <f>E18</f>
+        <v>fd_dashboard_card-17</v>
+      </c>
+      <c r="I37">
         <v>4</v>
       </c>
-      <c r="K36">
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
         <v>5</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" t="str">
+        <f>E9</f>
+        <v>fd_dashboard-9</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>fd_dashboard_card-24</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="5:12">
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" t="str">
+        <f>E9</f>
+        <v>fd_dashboard-9</v>
+      </c>
+      <c r="H39" t="str">
+        <f>E26</f>
+        <v>fd_dashboard_card-25</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="5:12">
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" t="str">
+        <f>E9</f>
+        <v>fd_dashboard-9</v>
+      </c>
+      <c r="H40" t="str">
+        <f>E27</f>
+        <v>fd_dashboard_card-26</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
   <si>
     <r>
       <rPr>
@@ -2161,6 +2161,9 @@
   </si>
   <si>
     <t>我报告的</t>
+  </si>
+  <si>
+    <t>展示当前迭代中报告人是我的问题项。</t>
   </si>
   <si>
     <t>fd_dashboard_card-24</t>
@@ -2273,10 +2276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2354,32 +2357,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2400,7 +2389,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2414,24 +2449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2439,7 +2458,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2447,21 +2466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2476,23 +2488,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2574,7 +2577,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2586,13 +2661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2604,7 +2673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,25 +2685,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2646,25 +2739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2676,85 +2757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2888,17 +2891,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2918,17 +2921,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2948,13 +2947,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2962,145 +2965,145 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3813,8 +3816,8 @@
   <sheetPr/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3826,7 +3829,8 @@
     <col min="7" max="8" width="37.7222222222222" customWidth="1"/>
     <col min="9" max="9" width="14.6388888888889" customWidth="1"/>
     <col min="10" max="10" width="23.7847222222222" customWidth="1"/>
-    <col min="16" max="16" width="11.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="22.6805555555556" customWidth="1"/>
+    <col min="17" max="17" width="37.3819444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4375,7 +4379,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="5:16">
+    <row r="24" ht="15" customHeight="1" spans="5:17">
       <c r="E24" t="s">
         <v>140</v>
       </c>
@@ -4406,22 +4410,25 @@
       <c r="P24" t="s">
         <v>91</v>
       </c>
+      <c r="Q24" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="5:17">
       <c r="E25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J25">
         <v>7</v>
@@ -4436,27 +4443,27 @@
         <v>1</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="5:17">
       <c r="E26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
         <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>7</v>
@@ -4471,15 +4478,15 @@
         <v>5</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="5:17">
       <c r="E27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
@@ -4488,10 +4495,10 @@
         <v>79</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -4506,10 +4513,10 @@
         <v>4</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4520,22 +4527,22 @@
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I29" t="s">
         <v>69</v>
@@ -4544,15 +4551,15 @@
         <v>70</v>
       </c>
       <c r="K29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="5:12">
       <c r="E30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G30" t="str">
         <f>E8</f>
@@ -4577,7 +4584,7 @@
     </row>
     <row r="31" spans="5:12">
       <c r="E31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G31" t="str">
         <f>E8</f>
@@ -4602,7 +4609,7 @@
     </row>
     <row r="32" spans="5:12">
       <c r="E32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G32" t="str">
         <f>E8</f>
@@ -4627,7 +4634,7 @@
     </row>
     <row r="33" spans="5:12">
       <c r="E33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G33" t="str">
         <f>E8</f>
@@ -4652,7 +4659,7 @@
     </row>
     <row r="34" spans="5:12">
       <c r="E34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
@@ -4677,14 +4684,14 @@
     </row>
     <row r="35" spans="5:12">
       <c r="E35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H39" si="0">E22</f>
+        <f t="shared" ref="H35:H40" si="0">E22</f>
         <v>fd_dashboard_card-21</v>
       </c>
       <c r="I35">
@@ -4702,7 +4709,7 @@
     </row>
     <row r="36" spans="5:12">
       <c r="E36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
@@ -4727,7 +4734,7 @@
     </row>
     <row r="37" spans="5:12">
       <c r="E37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" ref="G37:G39" si="1">E8</f>
@@ -4752,10 +4759,10 @@
     </row>
     <row r="38" spans="5:12">
       <c r="E38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G38" t="str">
-        <f>E9</f>
+        <f t="shared" si="1"/>
         <v>fd_dashboard-9</v>
       </c>
       <c r="H38" t="str">
@@ -4777,15 +4784,14 @@
     </row>
     <row r="39" customFormat="1" spans="5:12">
       <c r="E39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39"/>
+        <v>177</v>
+      </c>
       <c r="G39" t="str">
         <f>E9</f>
         <v>fd_dashboard-9</v>
       </c>
       <c r="H39" t="str">
-        <f>E26</f>
+        <f t="shared" si="0"/>
         <v>fd_dashboard_card-25</v>
       </c>
       <c r="I39">
@@ -4803,14 +4809,14 @@
     </row>
     <row r="40" customFormat="1" spans="5:12">
       <c r="E40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G40" t="str">
         <f>E9</f>
         <v>fd_dashboard-9</v>
       </c>
       <c r="H40" t="str">
-        <f>E27</f>
+        <f t="shared" si="0"/>
         <v>fd_dashboard_card-26</v>
       </c>
       <c r="I40">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <r>
       <rPr>
@@ -1980,6 +1980,12 @@
     <t>星标项目</t>
   </si>
   <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjdweCIgdmlld0JveD0iMCAwIDEyMCA2NyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7mmJ/moIfpobnnm648L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtNjE0LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg3MDAuMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTY4LjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA1MTQuNTAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLmmJ/moIfpobnnm64iIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBzdHJva2U9IiM1MzY1RUEiIGZpbGw9IiNGNUY2RkEiIHg9IjE2IiB5PSIyMCIgd2lkdGg9IjI2IiBoZWlnaHQ9IjI2IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGNpcmNsZSBpZD0i5qSt5ZyG5b2iIiBmaWxsPSIjNjg4N0U4IiBjeD0iMjMuNzUiIGN5PSIyOCIgcj0iMyI+PC9jaXJjbGU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTIiIGZpbGw9IiM2ODg3RTgiIHg9IjIwLjc1IiB5PSIzNSIgd2lkdGg9IjE2LjUiIGhlaWdodD0iNyIgcng9IjMuNSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iNDciIHk9IjIwIiB3aWR0aD0iMjYiIGhlaWdodD0iMjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8Y2lyY2xlIGlkPSLmpK3lnIblvaIiIGZpbGw9IiMxRkMyQkIiIGN4PSI1NC43NSIgY3k9IjI4IiByPSIzIj48L2NpcmNsZT4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4xMiIgZmlsbD0iIzY4ODdFOCIgeD0iNTEuNzUiIHk9IjM1IiB3aWR0aD0iMTYuNSIgaGVpZ2h0PSI3IiByeD0iMy41Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSI3OCIgeT0iMjAiIHdpZHRoPSIyNiIgaGVpZ2h0PSIyNiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGwtb3BhY2l0eT0iMC4xMiIgZmlsbD0iIzY4ODdFOCIgeD0iODIuNzUiIHk9IjM1IiB3aWR0aD0iMTYuNSIgaGVpZ2h0PSI3IiByeD0iMy41Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8Y2lyY2xlIGlkPSLmpK3lnIblvaIiIGZpbGw9IiNGQUFEMTQiIGN4PSI4NS43NSIgY3k9IjI4IiByPSIzIj48L2NpcmNsZT4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>用于展示出我所有的星标项目，并支持在工作台中筛选出某个星标项目下与我相关的待办等内容。</t>
+  </si>
+  <si>
     <t>fd_dashboard_card-12</t>
   </si>
   <si>
@@ -2212,6 +2218,30 @@
   </si>
   <si>
     <t>系统公告</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-27</t>
+  </si>
+  <si>
+    <t>myExecution</t>
+  </si>
+  <si>
+    <t>我执行的用例</t>
+  </si>
+  <si>
+    <t>此模块展示当前进行的的测试计划中指派给我的用例。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-28</t>
+  </si>
+  <si>
+    <t>myhandler</t>
+  </si>
+  <si>
+    <t>我经手的</t>
+  </si>
+  <si>
+    <t>展示当前迭代中我经手的问题项。</t>
   </si>
   <si>
     <t>视图布局</t>
@@ -2277,8 +2307,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2351,7 +2381,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,70 +2433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,13 +2456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2465,15 +2465,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2487,8 +2501,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2577,19 +2607,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2601,31 +2643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2643,7 +2679,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,31 +2715,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2691,7 +2757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2703,61 +2775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,33 +2894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2902,6 +2905,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2923,11 +2941,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2947,17 +2963,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2965,148 +2995,148 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3814,10 +3844,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3829,7 +3859,7 @@
     <col min="7" max="8" width="37.7222222222222" customWidth="1"/>
     <col min="9" max="9" width="14.6388888888889" customWidth="1"/>
     <col min="10" max="10" width="23.7847222222222" customWidth="1"/>
-    <col min="16" max="16" width="22.6805555555556" customWidth="1"/>
+    <col min="16" max="16" width="38.6527777777778" customWidth="1"/>
     <col min="17" max="17" width="37.3819444444444" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3965,7 +3995,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="5:13">
+    <row r="12" ht="15" customHeight="1" spans="5:17">
       <c r="E12" t="s">
         <v>77</v>
       </c>
@@ -3993,10 +4023,16 @@
       <c r="M12">
         <v>2</v>
       </c>
+      <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="5:17">
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
         <v>78</v>
@@ -4005,10 +4041,10 @@
         <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -4023,27 +4059,27 @@
         <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="5:17">
       <c r="E14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4058,27 +4094,27 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="5:17">
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -4093,27 +4129,27 @@
         <v>4</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="5:17">
       <c r="E16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J16">
         <v>9</v>
@@ -4128,27 +4164,27 @@
         <v>5</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="5:17">
       <c r="E17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4163,27 +4199,27 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="5:17">
       <c r="E18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
         <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -4198,27 +4234,27 @@
         <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="5:17">
       <c r="E19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -4233,15 +4269,15 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="5:17">
       <c r="E20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
         <v>78</v>
@@ -4250,10 +4286,10 @@
         <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4268,15 +4304,15 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="5:17">
       <c r="E21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
         <v>78</v>
@@ -4285,10 +4321,10 @@
         <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -4303,27 +4339,27 @@
         <v>4</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="5:17">
       <c r="E22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
         <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4338,27 +4374,27 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="5:17">
       <c r="E23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
         <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4373,27 +4409,27 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="5:17">
       <c r="E24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
         <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -4408,27 +4444,27 @@
         <v>4</v>
       </c>
       <c r="P24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="5:17">
       <c r="E25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
         <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J25">
         <v>7</v>
@@ -4443,27 +4479,27 @@
         <v>1</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="5:17">
       <c r="E26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
         <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J26">
         <v>7</v>
@@ -4478,15 +4514,15 @@
         <v>5</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="5:17">
       <c r="E27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
@@ -4495,10 +4531,10 @@
         <v>79</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -4513,322 +4549,392 @@
         <v>4</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="5:17">
+      <c r="E28" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="5:17">
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
         <v>44389</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" t="s">
         <v>69</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J31" t="s">
         <v>70</v>
       </c>
-      <c r="K29" t="s">
-        <v>166</v>
-      </c>
-      <c r="L29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12">
-      <c r="E30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H30" t="str">
-        <f>E12</f>
-        <v>fd_dashboard_card-11</v>
-      </c>
-      <c r="I30">
-        <v>9</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12">
-      <c r="E31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G31" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H31" t="str">
-        <f>E14</f>
-        <v>fd_dashboard_card-13</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
+      <c r="K31" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="5:12">
       <c r="E32" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G32" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H32" t="str">
-        <f>E15</f>
-        <v>fd_dashboard_card-14</v>
+        <f>E12</f>
+        <v>fd_dashboard_card-11</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G33" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H33" t="str">
-        <f>E19</f>
-        <v>fd_dashboard_card-18</v>
+        <f>E14</f>
+        <v>fd_dashboard_card-13</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
       <c r="K33">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="5:12">
       <c r="E34" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H34" t="str">
-        <f>E20</f>
-        <v>fd_dashboard_card-19</v>
+        <f>E15</f>
+        <v>fd_dashboard_card-14</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
         <v>4</v>
       </c>
-      <c r="K34">
-        <v>9</v>
-      </c>
       <c r="L34">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="5:12">
       <c r="E35" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H40" si="0">E22</f>
-        <v>fd_dashboard_card-21</v>
+        <f>E19</f>
+        <v>fd_dashboard_card-18</v>
       </c>
       <c r="I35">
         <v>3</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35">
         <v>9</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="5:12">
       <c r="E36" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H36" t="str">
+        <f>E20</f>
+        <v>fd_dashboard_card-19</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="E37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" ref="H37:H42" si="0">E22</f>
+        <v>fd_dashboard_card-21</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H38" t="str">
         <f>E21</f>
         <v>fd_dashboard_card-20</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>5</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="L38">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="5:12">
-      <c r="E37" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" ref="G37:G39" si="1">E8</f>
+    <row r="39" spans="5:12">
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:G41" si="1">E8</f>
         <v>fd_dashboard-8</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H39" t="str">
         <f>E18</f>
         <v>fd_dashboard_card-17</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <v>4</v>
       </c>
-      <c r="J37">
+      <c r="J39">
         <v>4</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="L39">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="5:12">
-      <c r="E38" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" t="str">
+    <row r="40" spans="5:12">
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="1"/>
         <v>fd_dashboard-9</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>fd_dashboard_card-24</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>7</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>1</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="L40">
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="5:12">
-      <c r="E39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" t="str">
+    <row r="41" customFormat="1" spans="5:12">
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" t="str">
         <f>E9</f>
         <v>fd_dashboard-9</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>fd_dashboard_card-25</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>7</v>
       </c>
-      <c r="K39">
+      <c r="K41">
         <v>0</v>
       </c>
-      <c r="L39">
+      <c r="L41">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="5:12">
-      <c r="E40" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" t="str">
+    <row r="42" customFormat="1" spans="5:12">
+      <c r="E42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" t="str">
         <f>E9</f>
         <v>fd_dashboard-9</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>fd_dashboard_card-26</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <v>5</v>
       </c>
-      <c r="J40">
+      <c r="J42">
         <v>4</v>
       </c>
-      <c r="K40">
+      <c r="K42">
         <v>7</v>
       </c>
-      <c r="L40">
+      <c r="L42">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64978CD-6C38-9B40-AB41-94593A173D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,23 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
   <si>
     <r>
       <rPr>
@@ -2299,19 +2316,27 @@
   </si>
   <si>
     <t>fd_dashboard_layout-36</t>
+  </si>
+  <si>
+    <t>fd_dashboard-10</t>
+  </si>
+  <si>
+    <t>fd_dashboard-11</t>
+  </si>
+  <si>
+    <t>甘特图</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2322,25 +2347,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2378,157 +2403,6 @@
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2573,8 +2447,27 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2605,194 +2498,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2893,254 +2600,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3155,15 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3177,9 +2633,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3189,9 +2642,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3212,59 +2662,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3337,6 +2756,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3594,276 +3016,273 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.3541666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="11" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="12" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="17" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="20" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="23" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="25" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="16" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:Q42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.9097222222222" customWidth="1"/>
-    <col min="4" max="4" width="14.4652777777778" customWidth="1"/>
-    <col min="5" max="5" width="30.3541666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.3541666666667" customWidth="1"/>
-    <col min="7" max="8" width="37.7222222222222" customWidth="1"/>
-    <col min="9" max="9" width="14.6388888888889" customWidth="1"/>
-    <col min="10" max="10" width="23.7847222222222" customWidth="1"/>
-    <col min="16" max="16" width="38.6527777777778" customWidth="1"/>
-    <col min="17" max="17" width="37.3819444444444" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="38.7109375" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3877,7 +3296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:17">
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
@@ -3888,7 +3307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>44389</v>
       </c>
@@ -3914,7 +3333,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="1:17">
       <c r="E8" t="s">
         <v>57</v>
       </c>
@@ -3928,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="5:8">
+    <row r="9" spans="1:17">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -3942,237 +3361,195 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:17">
+      <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="2">
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2">
         <v>44389</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>67</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I13" t="s">
         <v>68</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J13" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K13" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L13" t="s">
         <v>71</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M13" t="s">
         <v>72</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O13" t="s">
         <v>74</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P13" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="5:17">
-      <c r="E12" t="s">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="E14" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="5:17">
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="P13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="5:17">
-      <c r="E14" t="s">
-        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="5:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="E15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="5:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="E16" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="5:17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" ht="15" customHeight="1">
       <c r="E17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
         <v>78</v>
@@ -4181,13 +3558,13 @@
         <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -4199,97 +3576,97 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="Q17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="5:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" ht="15" customHeight="1">
       <c r="E18" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
         <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Q18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="5:17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" ht="15" customHeight="1">
       <c r="E19" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Q19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="5:17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" ht="15" customHeight="1">
       <c r="E20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
         <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4298,313 +3675,313 @@
         <v>4</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20">
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Q20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="5:17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" ht="15" customHeight="1">
       <c r="E21" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
         <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
       <c r="L21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="5:17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" ht="15" customHeight="1">
       <c r="E22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
         <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22">
         <v>3</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="5:17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" ht="15" customHeight="1">
       <c r="E23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Q23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="5:17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" ht="15" customHeight="1">
       <c r="E24" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
         <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
       <c r="L24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="Q24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="5:17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" ht="15" customHeight="1">
       <c r="E25" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
         <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>149</v>
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" t="s">
+        <v>139</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="5:17">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" ht="15" customHeight="1">
       <c r="E26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
         <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>154</v>
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" t="s">
+        <v>144</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="5:17">
+        <v>4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" ht="15" customHeight="1">
       <c r="E27" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>79</v>
+      <c r="G27" t="s">
+        <v>147</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="5:17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" ht="15" customHeight="1">
       <c r="E28" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>90</v>
+      <c r="G28" t="s">
+        <v>147</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="5:17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" ht="15" customHeight="1">
       <c r="E29" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
         <v>78</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -4613,333 +3990,403 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="P29" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" ht="15" customHeight="1">
+      <c r="E30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" ht="15" customHeight="1">
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="P31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q31" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2">
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
         <v>44389</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H33" t="s">
         <v>175</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I33" t="s">
         <v>69</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J33" t="s">
         <v>70</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K33" t="s">
         <v>176</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="5:12">
-      <c r="E32" t="s">
+    <row r="34" spans="1:12">
+      <c r="E34" t="s">
         <v>178</v>
-      </c>
-      <c r="G32" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H32" t="str">
-        <f>E12</f>
-        <v>fd_dashboard_card-11</v>
-      </c>
-      <c r="I32">
-        <v>9</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12">
-      <c r="E33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" t="str">
-        <f>E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H33" t="str">
-        <f>E14</f>
-        <v>fd_dashboard_card-13</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12">
-      <c r="E34" t="s">
-        <v>180</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H34" t="str">
-        <f>E15</f>
-        <v>fd_dashboard_card-14</v>
+        <f>E14</f>
+        <v>fd_dashboard_card-11</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="E35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H35" t="str">
-        <f>E19</f>
-        <v>fd_dashboard_card-18</v>
+        <f>E16</f>
+        <v>fd_dashboard_card-13</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>4</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="E36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H36" t="str">
-        <f>E20</f>
-        <v>fd_dashboard_card-19</v>
+        <f>E17</f>
+        <v>fd_dashboard_card-14</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
         <v>4</v>
       </c>
-      <c r="K36">
-        <v>9</v>
-      </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="E37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G37" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ref="H37:H42" si="0">E22</f>
-        <v>fd_dashboard_card-21</v>
+        <f>E21</f>
+        <v>fd_dashboard_card-18</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37">
         <v>9</v>
       </c>
       <c r="L37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="E38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G38" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H38" t="str">
-        <f>E21</f>
+        <f>E22</f>
+        <v>fd_dashboard_card-19</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="E39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" ref="H39:H44" si="0">E24</f>
+        <v>fd_dashboard_card-21</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H40" t="str">
+        <f>E23</f>
         <v>fd_dashboard_card-20</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>4</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="L40">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="5:12">
-      <c r="E39" t="s">
+    <row r="41" spans="1:12">
+      <c r="E41" t="s">
         <v>185</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" ref="G39:G41" si="1">E8</f>
+      <c r="G41" t="str">
+        <f t="shared" ref="G41:G42" si="1">E8</f>
         <v>fd_dashboard-8</v>
       </c>
-      <c r="H39" t="str">
-        <f>E18</f>
+      <c r="H41" t="str">
+        <f>E20</f>
         <v>fd_dashboard_card-17</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>4</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>4</v>
       </c>
-      <c r="K39">
+      <c r="K41">
         <v>5</v>
       </c>
-      <c r="L39">
+      <c r="L41">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="5:12">
-      <c r="E40" t="s">
+    <row r="42" spans="1:12">
+      <c r="E42" t="s">
         <v>186</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="1"/>
         <v>fd_dashboard-9</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>fd_dashboard_card-24</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <v>7</v>
       </c>
-      <c r="J40">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="K42">
         <v>0</v>
       </c>
-      <c r="L40">
+      <c r="L42">
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="5:12">
-      <c r="E41" t="s">
+    <row r="43" spans="1:12">
+      <c r="E43" t="s">
         <v>187</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G43" t="str">
         <f>E9</f>
         <v>fd_dashboard-9</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>fd_dashboard_card-25</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>7</v>
       </c>
-      <c r="J41">
+      <c r="J43">
         <v>7</v>
       </c>
-      <c r="K41">
+      <c r="K43">
         <v>0</v>
       </c>
-      <c r="L41">
+      <c r="L43">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="5:12">
-      <c r="E42" t="s">
+    <row r="44" spans="1:12">
+      <c r="E44" t="s">
         <v>188</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G44" t="str">
         <f>E9</f>
         <v>fd_dashboard-9</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>fd_dashboard_card-26</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <v>5</v>
       </c>
-      <c r="J42">
+      <c r="J44">
         <v>4</v>
       </c>
-      <c r="K42">
+      <c r="K44">
         <v>7</v>
       </c>
-      <c r="L42">
+      <c r="L44">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64978CD-6C38-9B40-AB41-94593A173D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,13 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="195">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -63,6 +63,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -75,6 +76,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -93,6 +95,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -111,6 +114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -129,6 +133,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -160,6 +165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -178,6 +184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -196,6 +203,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -217,6 +225,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -237,6 +246,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -257,6 +267,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,6 +288,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -297,6 +309,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -308,6 +321,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -326,6 +340,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -337,6 +352,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -355,6 +371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -373,6 +390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -391,6 +409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -409,6 +428,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -456,6 +476,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -474,6 +495,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -492,6 +514,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -510,6 +533,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -521,6 +545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -539,6 +564,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -557,6 +583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -576,6 +603,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -594,6 +622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -613,6 +642,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -631,6 +661,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -642,6 +673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -660,6 +692,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -678,6 +711,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -701,6 +735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -719,6 +754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -737,6 +773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -755,6 +792,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -773,6 +811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -784,6 +823,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -802,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -812,6 +853,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -832,6 +874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -842,6 +885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -860,6 +904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -878,6 +923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -901,6 +947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -919,6 +966,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -938,6 +986,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -957,6 +1006,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -976,6 +1026,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -996,6 +1047,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1015,6 +1067,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1049,6 +1102,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1069,6 +1123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1080,6 +1135,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1098,6 +1154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1118,6 +1175,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1136,6 +1194,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1148,6 +1207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1166,6 +1226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1184,6 +1245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1202,6 +1264,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1216,6 +1279,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1234,6 +1298,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1252,6 +1317,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1270,6 +1336,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1288,6 +1355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1303,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1312,6 +1381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1330,6 +1400,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1345,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1354,6 +1426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1372,6 +1445,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1386,6 +1460,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1404,6 +1479,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1422,6 +1498,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1441,6 +1518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1464,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1482,6 +1561,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1500,6 +1580,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1519,6 +1600,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1539,6 +1621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1549,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1558,6 +1642,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1569,6 +1654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1587,6 +1673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1605,6 +1692,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1623,6 +1711,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1642,6 +1731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1660,6 +1750,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1678,6 +1769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1697,6 +1789,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1715,6 +1808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1733,6 +1827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1751,6 +1846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1770,6 +1866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1781,6 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1791,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1800,6 +1899,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1811,6 +1911,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1829,6 +1930,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1840,6 +1942,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1858,6 +1961,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1877,6 +1981,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1914,9 +2019,6 @@
   </si>
   <si>
     <t>#dashboard_type</t>
-  </si>
-  <si>
-    <t>#dashboard_name</t>
   </si>
   <si>
     <t>default_flag</t>
@@ -2329,14 +2431,26 @@
   </si>
   <si>
     <t>工时</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard_name:zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard_name:en_US</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dashboard_name</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2433,12 +2547,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2451,6 +2567,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2462,6 +2579,28 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2605,7 +2744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2662,11 +2801,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2677,11 +2818,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3021,36 +3161,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
@@ -3059,21 +3199,21 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +3250,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="57">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
@@ -3124,7 +3264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
@@ -3135,7 +3275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
@@ -3146,7 +3286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
+    <row r="12" spans="1:8">
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3167,7 +3307,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="38">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
@@ -3184,11 +3324,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="19" t="s">
@@ -3226,21 +3366,21 @@
       <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
@@ -3262,24 +3402,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="38.7109375" customWidth="1"/>
-    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.4140625" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="8" width="37.75" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
+    <col min="16" max="16" width="38.75" customWidth="1"/>
+    <col min="17" max="17" width="37.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3327,66 +3467,96 @@
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>56</v>
+      <c r="J7" s="33" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8">
         <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9">
         <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="E10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10">
+        <v>57</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10">
         <v>0</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="E11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11">
         <v>0</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3397,66 +3567,66 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>68</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>69</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>70</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>71</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>72</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>73</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>74</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>80</v>
-      </c>
-      <c r="I14" t="s">
-        <v>81</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -3471,27 +3641,27 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" t="s">
         <v>82</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>85</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -3506,27 +3676,27 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" t="s">
         <v>87</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>90</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3541,27 +3711,27 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="5:17" ht="15" customHeight="1">
       <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
         <v>95</v>
       </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>96</v>
-      </c>
-      <c r="I17" t="s">
-        <v>97</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3576,27 +3746,27 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" t="s">
         <v>98</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="5:17" ht="15" customHeight="1">
       <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>101</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>102</v>
-      </c>
-      <c r="I18" t="s">
-        <v>103</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -3611,27 +3781,27 @@
         <v>5</v>
       </c>
       <c r="P18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" t="s">
         <v>104</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="5:17" ht="15" customHeight="1">
       <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>107</v>
-      </c>
-      <c r="I19" t="s">
-        <v>108</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3646,27 +3816,27 @@
         <v>4</v>
       </c>
       <c r="P19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" t="s">
         <v>109</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="5:17" ht="15" customHeight="1">
       <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3681,27 +3851,27 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20" t="s">
         <v>115</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="5:17" ht="15" customHeight="1">
       <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" t="s">
         <v>117</v>
       </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>118</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -3716,27 +3886,27 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" t="s">
         <v>120</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="5:17" ht="15" customHeight="1">
       <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
         <v>122</v>
       </c>
-      <c r="F22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>123</v>
-      </c>
-      <c r="I22" t="s">
-        <v>124</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3751,27 +3921,27 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" t="s">
         <v>125</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="5:17" ht="15" customHeight="1">
       <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
         <v>127</v>
       </c>
-      <c r="F23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>128</v>
-      </c>
-      <c r="I23" t="s">
-        <v>129</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -3786,27 +3956,27 @@
         <v>4</v>
       </c>
       <c r="P23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" t="s">
         <v>130</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="5:17" ht="15" customHeight="1">
       <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" t="s">
         <v>132</v>
       </c>
-      <c r="F24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>133</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3821,27 +3991,27 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" t="s">
         <v>135</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="5:17" ht="15" customHeight="1">
       <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
         <v>137</v>
       </c>
-      <c r="F25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>138</v>
-      </c>
-      <c r="I25" t="s">
-        <v>139</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3856,27 +4026,27 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" t="s">
         <v>140</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="5:17" ht="15" customHeight="1">
       <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
         <v>142</v>
       </c>
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>143</v>
-      </c>
-      <c r="I26" t="s">
-        <v>144</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3891,27 +4061,27 @@
         <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="5:17" ht="15" customHeight="1">
       <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
         <v>146</v>
       </c>
-      <c r="F27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="J27">
         <v>7</v>
@@ -3926,27 +4096,27 @@
         <v>1</v>
       </c>
       <c r="P27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="5:17" ht="15" customHeight="1">
       <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="J28">
         <v>7</v>
@@ -3961,27 +4131,27 @@
         <v>5</v>
       </c>
       <c r="P28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q28" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="5:17" ht="15" customHeight="1">
       <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -3996,27 +4166,27 @@
         <v>4</v>
       </c>
       <c r="P29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="5:17" ht="15" customHeight="1">
       <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="J30">
         <v>4</v>
@@ -4031,27 +4201,27 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="5:17" ht="15" customHeight="1">
       <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -4066,10 +4236,10 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4080,39 +4250,39 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" t="s">
         <v>174</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
         <v>175</v>
       </c>
-      <c r="I33" t="s">
-        <v>69</v>
-      </c>
-      <c r="J33" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>176</v>
-      </c>
-      <c r="L33" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="E34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
@@ -4137,7 +4307,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="E35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
@@ -4162,7 +4332,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
@@ -4187,7 +4357,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G37" t="str">
         <f>E8</f>
@@ -4212,7 +4382,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="E38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G38" t="str">
         <f>E8</f>
@@ -4237,7 +4407,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="E39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G39" t="str">
         <f>E8</f>
@@ -4262,7 +4432,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="E40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G40" t="str">
         <f>E8</f>
@@ -4287,7 +4457,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="E41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" ref="G41:G42" si="1">E8</f>
@@ -4312,7 +4482,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="E42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -4337,7 +4507,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="E43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G43" t="str">
         <f>E9</f>
@@ -4362,7 +4532,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="E44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G44" t="str">
         <f>E9</f>
@@ -4388,5 +4558,6 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -2443,6 +2443,26 @@
   </si>
   <si>
     <t>#dashboard_name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gantt</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Tracking</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource management</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3405,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3486,11 +3506,11 @@
       <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
+      <c r="G8" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>196</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3509,8 +3529,8 @@
       <c r="G9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
-        <v>60</v>
+      <c r="H9" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3529,8 +3549,8 @@
       <c r="G10" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>190</v>
+      <c r="H10" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3549,11 +3569,11 @@
       <c r="G11" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>191</v>
+      <c r="H11" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>191</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="203">
   <si>
     <r>
       <rPr>
@@ -2030,9 +2030,6 @@
     <t>INTERNAL</t>
   </si>
   <si>
-    <t>项目管理</t>
-  </si>
-  <si>
     <t>fd_dashboard-9</t>
   </si>
   <si>
@@ -2442,10 +2439,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>#dashboard_name</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>项目管理</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2454,15 +2447,71 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>Time Tracking</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource management</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dashboard_code</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>roject</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>esource</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>Gantt</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Time Tracking</t>
+    <t>gantt</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Resource management</t>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ime</t>
+    </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3425,8 +3474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3487,16 +3536,16 @@
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>193</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3507,76 +3556,76 @@
         <v>57</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>58</v>
+      <c r="J8" s="33" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>60</v>
+      <c r="J9" s="33" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="E10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>190</v>
+      <c r="J10" s="33" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="E11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="32" t="s">
-        <v>191</v>
+      <c r="J11" s="33" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3587,66 +3636,66 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>66</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>67</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>69</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>70</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>71</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>72</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>73</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>78</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -3661,27 +3710,27 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" t="s">
         <v>81</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
         <v>83</v>
       </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>85</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -3696,27 +3745,27 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" t="s">
         <v>86</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
         <v>88</v>
       </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>90</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3731,27 +3780,27 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="5:17" ht="15" customHeight="1">
       <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
         <v>94</v>
       </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>95</v>
-      </c>
-      <c r="I17" t="s">
-        <v>96</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3766,27 +3815,27 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" t="s">
         <v>97</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="5:17" ht="15" customHeight="1">
       <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>101</v>
-      </c>
-      <c r="I18" t="s">
-        <v>102</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -3801,27 +3850,27 @@
         <v>5</v>
       </c>
       <c r="P18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" t="s">
         <v>103</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="5:17" ht="15" customHeight="1">
       <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
         <v>105</v>
       </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3836,27 +3885,27 @@
         <v>4</v>
       </c>
       <c r="P19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s">
         <v>108</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="5:17" ht="15" customHeight="1">
       <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>111</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>112</v>
-      </c>
-      <c r="I20" t="s">
-        <v>113</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3871,27 +3920,27 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" t="s">
         <v>114</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="5:17" ht="15" customHeight="1">
       <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
         <v>116</v>
       </c>
-      <c r="F21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>117</v>
-      </c>
-      <c r="I21" t="s">
-        <v>118</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -3906,27 +3955,27 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" t="s">
         <v>119</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="5:17" ht="15" customHeight="1">
       <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
         <v>121</v>
       </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>122</v>
-      </c>
-      <c r="I22" t="s">
-        <v>123</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3941,27 +3990,27 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22" t="s">
         <v>124</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="5:17" ht="15" customHeight="1">
       <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
         <v>126</v>
       </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>127</v>
-      </c>
-      <c r="I23" t="s">
-        <v>128</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -3976,27 +4025,27 @@
         <v>4</v>
       </c>
       <c r="P23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" t="s">
         <v>129</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="5:17" ht="15" customHeight="1">
       <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
         <v>131</v>
       </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>132</v>
-      </c>
-      <c r="I24" t="s">
-        <v>133</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4011,27 +4060,27 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" t="s">
         <v>134</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="5:17" ht="15" customHeight="1">
       <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
         <v>136</v>
       </c>
-      <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>137</v>
-      </c>
-      <c r="I25" t="s">
-        <v>138</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4046,27 +4095,27 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" t="s">
         <v>139</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="5:17" ht="15" customHeight="1">
       <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
         <v>141</v>
       </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>142</v>
-      </c>
-      <c r="I26" t="s">
-        <v>143</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -4081,27 +4130,27 @@
         <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="5:17" ht="15" customHeight="1">
       <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
         <v>145</v>
       </c>
-      <c r="F27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="J27">
         <v>7</v>
@@ -4116,27 +4165,27 @@
         <v>1</v>
       </c>
       <c r="P27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="28" spans="5:17" ht="15" customHeight="1">
       <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="J28">
         <v>7</v>
@@ -4151,27 +4200,27 @@
         <v>5</v>
       </c>
       <c r="P28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="5:17" ht="15" customHeight="1">
       <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -4186,27 +4235,27 @@
         <v>4</v>
       </c>
       <c r="P29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="5:17" ht="15" customHeight="1">
       <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="J30">
         <v>4</v>
@@ -4221,27 +4270,27 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="5:17" ht="15" customHeight="1">
       <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F31" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -4256,10 +4305,10 @@
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4270,39 +4319,39 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" t="s">
         <v>173</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" t="s">
         <v>174</v>
       </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>175</v>
-      </c>
-      <c r="L33" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
@@ -4327,7 +4376,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="E35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
@@ -4352,7 +4401,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="E36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
@@ -4377,7 +4426,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="E37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G37" t="str">
         <f>E8</f>
@@ -4402,7 +4451,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" t="str">
         <f>E8</f>
@@ -4427,7 +4476,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="E39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" t="str">
         <f>E8</f>
@@ -4452,7 +4501,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="E40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" t="str">
         <f>E8</f>
@@ -4477,7 +4526,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="E41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" ref="G41:G42" si="1">E8</f>
@@ -4502,7 +4551,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="E42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -4527,7 +4576,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="E43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" t="str">
         <f>E9</f>
@@ -4552,7 +4601,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="E44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" t="str">
         <f>E9</f>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2B024E-957D-BC4D-B100-085DFAD94A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,6 +55,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -86,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -105,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -124,6 +128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -175,6 +180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -194,6 +200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -213,6 +220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -236,6 +244,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -257,6 +266,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -279,6 +289,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -300,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -331,6 +343,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -362,6 +375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -381,6 +395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -400,6 +415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -419,6 +435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -438,6 +455,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -467,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -486,6 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -505,6 +525,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -524,6 +545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -555,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -574,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -593,6 +617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -613,6 +638,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -632,6 +658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -652,6 +679,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -683,6 +711,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -702,6 +731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -726,6 +756,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -745,6 +776,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -764,6 +796,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -783,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -802,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -833,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -864,6 +900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -895,6 +932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -914,6 +952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -938,6 +977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -957,6 +997,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -976,6 +1017,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -996,6 +1038,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1016,6 +1059,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1036,6 +1080,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1057,6 +1102,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1077,6 +1123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1093,6 +1140,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1114,6 +1162,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1145,6 +1194,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1164,6 +1214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1185,6 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1217,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1236,6 +1289,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1255,6 +1309,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1289,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1308,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1327,6 +1384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1346,6 +1404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1391,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1436,6 +1496,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1470,6 +1531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1489,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1508,6 +1571,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1528,6 +1592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1552,6 +1617,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1571,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1590,6 +1657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1610,6 +1678,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1664,6 +1733,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1683,6 +1753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1702,6 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1722,6 +1794,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1741,6 +1814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1760,6 +1834,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1779,6 +1854,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1799,6 +1875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1818,6 +1895,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1837,6 +1915,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1856,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1921,6 +2001,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1952,6 +2033,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1971,6 +2053,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2518,8 +2601,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2554,6 +2637,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2561,36 +2645,42 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2610,6 +2700,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2630,6 +2721,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2648,28 +2740,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2890,7 +2960,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3230,27 +3300,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -3278,7 +3348,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="19">
       <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
@@ -3319,7 +3389,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="57">
       <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
@@ -3333,7 +3403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="57">
       <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="76">
       <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
@@ -3355,7 +3425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="19">
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
@@ -3376,7 +3446,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="38">
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
@@ -3449,7 +3519,7 @@
       </c>
       <c r="E26" s="34"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="57">
       <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
@@ -3471,24 +3541,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" customWidth="1"/>
-    <col min="5" max="5" width="30.25" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="8" width="37.75" customWidth="1"/>
-    <col min="9" max="9" width="14.58203125" customWidth="1"/>
-    <col min="10" max="10" width="23.75" customWidth="1"/>
-    <col min="16" max="16" width="38.75" customWidth="1"/>
-    <col min="17" max="17" width="37.4140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="38.7109375" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3602,7 +3672,7 @@
         <v>200</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>201</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2B024E-957D-BC4D-B100-085DFAD94A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144C887-40B4-274B-8CE4-9B67A7BCF5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2212,9 +2212,6 @@
     <t>待办事项</t>
   </si>
   <si>
-    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIiB3aWR0aD0iMTI4IiBoZWlnaHQ9Ijc0IiB2aWV3Qm94PSIwIDAgMTI4IDc0Ij4KICA8ZGVmcz4KICAgIDxyZWN0IGlkPSLku6Plip7kuovpobktYiIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgeD0iMCIgeT0iMCIgcng9IjQiLz4KICAgIDxmaWx0ZXIgaWQ9IuS7o+WKnuS6i+mhuS1hIiB3aWR0aD0iMTEwLjglIiBoZWlnaHQ9IjExOS43JSIgeD0iLTUuNCUiIHk9Ii04LjMlIiBmaWx0ZXJVbml0cz0ib2JqZWN0Qm91bmRpbmdCb3giPgogICAgICA8ZmVPZmZzZXQgZHk9IjEiIGluPSJTb3VyY2VBbHBoYSIgcmVzdWx0PSJzaGFkb3dPZmZzZXRPdXRlcjEiLz4KICAgICAgPGZlR2F1c3NpYW5CbHVyIGluPSJzaGFkb3dPZmZzZXRPdXRlcjEiIHJlc3VsdD0ic2hhZG93Qmx1ck91dGVyMSIgc3RkRGV2aWF0aW9uPSIyIi8+CiAgICAgIDxmZUNvbG9yTWF0cml4IGluPSJzaGFkb3dCbHVyT3V0ZXIxIiB2YWx1ZXM9IjAgMCAwIDAgMC4wNTQ5MDE5NjA4ICAgMCAwIDAgMCAwLjExMzcyNTQ5ICAgMCAwIDAgMCAwLjUwMTk2MDc4NCAgMCAwIDAgMC4xNiAwIi8+CiAgICA8L2ZpbHRlcj4KICA8L2RlZnM+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg0IDMpIj4KICAgIDx1c2UgZmlsbD0iIzAwMCIgZmlsdGVyPSJ1cmwoI+S7o+WKnuS6i+mhuS1hKSIgeGxpbms6aHJlZj0iI+S7o+WKnuS6i+mhuS1iIi8+CiAgICA8dXNlIGZpbGw9IiNGRkYiIHhsaW5rOmhyZWY9IiPku6Plip7kuovpobktYiIvPgogICAgPHJlY3Qgd2lkdGg9Ijg0IiBoZWlnaHQ9IjYiIHg9IjE4IiB5PSIxMCIgZmlsbD0iIzBFMUQ4MCIgZmlsbC1vcGFjaXR5PSIuMTYiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iNjAiIGhlaWdodD0iNyIgeD0iMTgiIHk9IjIzIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4wNiIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSI2OCIgaGVpZ2h0PSI3IiB4PSIxOCIgeT0iMzYiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA2IiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjQwIiBoZWlnaHQ9IjciIHg9IjE4IiB5PSI0OSIgZmlsbD0iIzBFMUQ4MCIgZmlsbC1vcGFjaXR5PSIuMDYiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iMTIiIGhlaWdodD0iNyIgeD0iOTAiIHk9IjIzIiBmaWxsPSIjRkFBRDE0IiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjEyIiBoZWlnaHQ9IjciIHg9IjkwIiB5PSIzNiIgZmlsbD0iIzREOTBGRSIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSIxMiIgaGVpZ2h0PSI3IiB4PSI5MCIgeT0iNDkiIGZpbGw9IiMxRkMyQkIiIHJ4PSIyIi8+CiAgPC9nPgo8L3N2Zz4K</t>
-  </si>
-  <si>
     <t>展示当前迭代我待办的问题项，以便高效完成工作计划。</t>
   </si>
   <si>
@@ -2595,6 +2592,10 @@
       </rPr>
       <t>ime</t>
     </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIiB3aWR0aD0iMTI4IiBoZWlnaHQ9Ijc0IiB2aWV3Qm94PSIwIDAgMTI4IDc0Ij4KICA8ZGVmcz4KICAgIDxyZWN0IGlkPSLku6Plip7kuovpobktYiIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgeD0iMCIgeT0iMCIgcng9IjQiLz4KICAgIDxmaWx0ZXIgaWQ9IuS7o+WKnuS6i+mhuS1hIiB3aWR0aD0iMTEwLjglIiBoZWlnaHQ9IjExOS43JSIgeD0iLTUuNCUiIHk9Ii04LjMlIiBmaWx0ZXJVbml0cz0ib2JqZWN0Qm91bmRpbmdCb3giPgogICAgICA8ZmVPZmZzZXQgZHk9IjEiIGluPSJTb3VyY2VBbHBoYSIgcmVzdWx0PSJzaGFkb3dPZmZzZXRPdXRlcjEiLz4KICAgICAgPGZlR2F1c3NpYW5CbHVyIGluPSJzaGFkb3dPZmZzZXRPdXRlcjEiIHJlc3VsdD0ic2hhZG93Qmx1ck91dGVyMSIgc3RkRGV2aWF0aW9uPSIyIi8+CiAgICAgIDxmZUNvbG9yTWF0cml4IGluPSJzaGFkb3dCbHVyT3V0ZXIxIiB2YWx1ZXM9IjAgMCAwIDAgMC4wNTQ5MDE5NjA4ICAgMCAwIDAgMCAwLjExMzcyNTQ5ICAgMCAwIDAgMCAwLjUwMTk2MDc4NCAgMCAwIDAgMC4xNiAwIi8+CiAgICA8L2ZpbHRlcj4KICA8L2RlZnM+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg0IDMpIj4KICAgIDx1c2UgZmlsbD0iI0ZGRiIgeGxpbms6aHJlZj0iI+S7o+WKnuS6i+mhuS1iIi8+CiAgICA8cmVjdCB3aWR0aD0iODQiIGhlaWdodD0iNiIgeD0iMTgiIHk9IjEwIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xNiIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSI2MCIgaGVpZ2h0PSI3IiB4PSIxOCIgeT0iMjMiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA2IiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjY4IiBoZWlnaHQ9IjciIHg9IjE4IiB5PSIzNiIgZmlsbD0iIzBFMUQ4MCIgZmlsbC1vcGFjaXR5PSIuMDYiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iNDAiIGhlaWdodD0iNyIgeD0iMTgiIHk9IjQ5IiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4wNiIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSIxMiIgaGVpZ2h0PSI3IiB4PSI5MCIgeT0iMjMiIGZpbGw9IiNGQUFEMTQiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iMTIiIGhlaWdodD0iNyIgeD0iOTAiIHk9IjM2IiBmaWxsPSIjNEQ5MEZFIiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjEyIiBoZWlnaHQ9IjciIHg9IjkwIiB5PSI0OSIgZmlsbD0iIzFGQzJCQiIgcng9IjIiLz4KICA8L2c+Cjwvc3ZnPgo=</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -3544,8 +3545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3606,16 +3607,16 @@
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3626,16 +3627,16 @@
         <v>57</v>
       </c>
       <c r="G8" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>193</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>194</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3649,53 +3650,53 @@
         <v>59</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="E10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="E11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3849,16 +3850,16 @@
       <c r="M16">
         <v>3</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" t="s">
         <v>91</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="5:17" ht="15" customHeight="1">
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
@@ -3867,10 +3868,10 @@
         <v>88</v>
       </c>
       <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
         <v>94</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3885,27 +3886,27 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" t="s">
         <v>96</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="5:17" ht="15" customHeight="1">
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
       </c>
       <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
         <v>99</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>100</v>
-      </c>
-      <c r="I18" t="s">
-        <v>101</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -3920,15 +3921,15 @@
         <v>5</v>
       </c>
       <c r="P18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" t="s">
         <v>102</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="5:17" ht="15" customHeight="1">
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
         <v>76</v>
@@ -3937,10 +3938,10 @@
         <v>88</v>
       </c>
       <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
         <v>105</v>
-      </c>
-      <c r="I19" t="s">
-        <v>106</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3955,27 +3956,27 @@
         <v>4</v>
       </c>
       <c r="P19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" t="s">
         <v>107</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="5:17" ht="15" customHeight="1">
       <c r="E20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
         <v>76</v>
       </c>
       <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
         <v>110</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>111</v>
-      </c>
-      <c r="I20" t="s">
-        <v>112</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3990,27 +3991,27 @@
         <v>3</v>
       </c>
       <c r="P20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="5:17" ht="15" customHeight="1">
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
         <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
         <v>116</v>
-      </c>
-      <c r="I21" t="s">
-        <v>117</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4025,15 +4026,15 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" t="s">
         <v>118</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="5:17" ht="15" customHeight="1">
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
         <v>76</v>
@@ -4042,10 +4043,10 @@
         <v>77</v>
       </c>
       <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
         <v>121</v>
-      </c>
-      <c r="I22" t="s">
-        <v>122</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4060,15 +4061,15 @@
         <v>3</v>
       </c>
       <c r="P22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" t="s">
         <v>123</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="5:17" ht="15" customHeight="1">
       <c r="E23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -4077,10 +4078,10 @@
         <v>77</v>
       </c>
       <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="s">
         <v>126</v>
-      </c>
-      <c r="I23" t="s">
-        <v>127</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -4095,27 +4096,27 @@
         <v>4</v>
       </c>
       <c r="P23" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" t="s">
         <v>128</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="5:17" ht="15" customHeight="1">
       <c r="E24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
         <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" t="s">
         <v>131</v>
-      </c>
-      <c r="I24" t="s">
-        <v>132</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4130,27 +4131,27 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q24" t="s">
         <v>133</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="5:17" ht="15" customHeight="1">
       <c r="E25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" t="s">
         <v>136</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4165,15 +4166,15 @@
         <v>2</v>
       </c>
       <c r="P25" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" t="s">
         <v>138</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="5:17" ht="15" customHeight="1">
       <c r="E26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -4182,10 +4183,10 @@
         <v>88</v>
       </c>
       <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
         <v>141</v>
-      </c>
-      <c r="I26" t="s">
-        <v>142</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -4199,28 +4200,28 @@
       <c r="M26">
         <v>4</v>
       </c>
-      <c r="P26" t="s">
-        <v>91</v>
+      <c r="P26" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="Q26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="5:17" ht="15" customHeight="1">
       <c r="E27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
         <v>76</v>
       </c>
       <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="J27">
         <v>7</v>
@@ -4235,27 +4236,27 @@
         <v>1</v>
       </c>
       <c r="P27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="5:17" ht="15" customHeight="1">
       <c r="E28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
         <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="J28">
         <v>7</v>
@@ -4270,15 +4271,15 @@
         <v>5</v>
       </c>
       <c r="P28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="5:17" ht="15" customHeight="1">
       <c r="E29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
@@ -4287,10 +4288,10 @@
         <v>77</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -4305,15 +4306,15 @@
         <v>4</v>
       </c>
       <c r="P29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="5:17" ht="15" customHeight="1">
       <c r="E30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
         <v>76</v>
@@ -4322,10 +4323,10 @@
         <v>88</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="J30">
         <v>4</v>
@@ -4340,15 +4341,15 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="5:17" ht="15" customHeight="1">
       <c r="E31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
         <v>76</v>
@@ -4357,10 +4358,10 @@
         <v>88</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -4374,11 +4375,11 @@
       <c r="M31">
         <v>4</v>
       </c>
-      <c r="P31" s="6" t="s">
-        <v>91</v>
+      <c r="P31" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4389,22 +4390,22 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" t="s">
         <v>172</v>
-      </c>
-      <c r="H33" t="s">
-        <v>173</v>
       </c>
       <c r="I33" t="s">
         <v>67</v>
@@ -4413,15 +4414,15 @@
         <v>68</v>
       </c>
       <c r="K33" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" t="s">
         <v>174</v>
-      </c>
-      <c r="L33" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="E34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
@@ -4446,7 +4447,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="E35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
@@ -4471,7 +4472,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="E36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
@@ -4496,7 +4497,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="E37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G37" t="str">
         <f>E8</f>
@@ -4521,7 +4522,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="E38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G38" t="str">
         <f>E8</f>
@@ -4546,7 +4547,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="E39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G39" t="str">
         <f>E8</f>
@@ -4571,7 +4572,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="E40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" t="str">
         <f>E8</f>
@@ -4596,7 +4597,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="E41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" ref="G41:G42" si="1">E8</f>
@@ -4621,7 +4622,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="E42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -4646,7 +4647,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="E43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G43" t="str">
         <f>E9</f>
@@ -4671,7 +4672,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="E44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G44" t="str">
         <f>E9</f>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11920" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21731" windowHeight="10020" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="184">
   <si>
     <r>
       <rPr>
@@ -2034,199 +2034,184 @@
     <t>展示我关注的特性、问题项、需求，以便我能快速了解关注的工作内容和进展情况。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-15</t>
-  </si>
-  <si>
-    <t>backlog</t>
-  </si>
-  <si>
-    <t>backlogApprove</t>
-  </si>
-  <si>
-    <t>需求待审核</t>
+    <t>fd_dashboard_card-16</t>
+  </si>
+  <si>
+    <t>myDefect</t>
+  </si>
+  <si>
+    <t>我的缺陷</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAIUUlEQVR4Xu2dS2wVVRjH/9MXVFqFArVERfAREl4LE19RQoKGwEYTXbphwUICEYIrV8aVK3kYCC5YsHGpiW4gREkIGl+JC14J8QGiBixQ0BYL7e29ZgglFSgzZ85M5zt3fuwazvnm+37f+WWmnXPujXTbv0ajsUTSekmrJc2X1HX7GH6GAASmjMCQpLOSDkraG0XRiYlXjsZ/aDQaHZK2SdogqWXK0uNCEIBAWgJ1SXskbY2iaCSedEPgm/Lul7QqbSTGQQACpRE4JGltLPG4wLskbSwtHS4MAQi4EtgdRdGm6ObvvEd5bHblx3gIlEogfpxeHgu8XdKWUlPh4hCAQBYCO2KB479qLc4ymzkQgECpBE7GAg/yqqjUJnBxCGQlMBQL3Mg6m3kQgEC5BBC4XP5cHQJeBBDYCx+TIVAuAQQulz9Xh4AXAQT2wsdkCJRLAIHL5c/VIeBFAIG98DEZAuUSQOBy+XN1CHgRQGAvfEyGQLkEELhc/lwdAl4EENgLH5MhUC4BBC6XP1eHgBcBkwLXanVduHRV/w6PqlYb8yqQyRDwIdDW1qr7Ots1d/YMtbXZ+6QpcwLH8p4+O6B6nTMWPguPufkSaGmJtHB+jzmJzQl87q9B/TN4LV/6RINADgTu756ueQ925xApvxDmBP7lzACPzfn1l0g5Eogfpx9f0JNjRP9Q5gQ+9fMF/6qIAIGCCCx6Ym5BkbOFReBs3JhVUQIInNB47sAVNSOQshEYgQNZqqR5NwIInLAu+CMW4lglwB+xUnSG10gpIDGkFAK8RkqBnY0cKSAxZMoJsJHDATlbKR1gMbRQAmylLBQvwSFQbQLm3gNXux1UDwE3AgjsxovREDBFAIFNtYNkIOBGAIHdeDEaAqYIILCpdpAMBNwIILAbL0ZDwBQBBDbVDpKBgBsBBHbjxWgImCKAwKbaQTIQcCOAwG68GA0BUwQQ2FQ7SAYCbgQQ2I0XoyFgigACm2oHyUDAjYBNgWt1aWBQGr4ujdXdKmK0LQKtLVLnNKmnW5qqbzYYPqex4++pcfFrNYbPe/GIOvsUzXlBrUvflTrnecUqYrI9gWN5/7yIuEV0u8yYscgPzSle4uFzqn25Uo2Ry7lWG3XMUttLh81JbE/g/r+loeFc4RPMCIGuTqn3gUKTGfvhTdV//6SQa7Q88rpan/6okNhZg9oT+Ld+7r5Zu2l9XnwXfrS30Cxr+5d5PzZPlmD8ON229lih+bsGtyfwr36/s7gCYPwUE3isr9ALjn5a7DcntL9m65tDELjQ5UTwOwggcK6LAoFzxUmwRAIInIjIZQACu9BirD8BBPZnOCECAueKk2CJBBA4EZHLAAR2ocVYfwII7M/Q9B2Y10i5NthUMF4j5d4Oe3dgNnLk3mQzAdnIkXsr7AnMVsrcm2wiIFspC2mDPYHjMjnMUEizSwnKYYZCsdsUuNCSCQ6B5iGAwM3TSyqpIAEErmDTKbl5CCBw8/SSSipIAIEr2HRKbh4CCNw8vaSSChJA4Ao2nZKbhwACN08vqaSCBBC4gk2n5OYhgMDN00sqqSABBK5g0ym5eQggcPP0kkoqSMCmwBxmqOBSnKTkDIchLg1J+76Sjv0hDVxteLHsmRFp2cPSuhel2V1eoQqZbE9gjhMW0ujgg6Y8jhjL+9bH0uA1P3Fv59U9PdKHb9iT2J7AHOgP3rXCCkjxgQAfHJAOn8pX3vF6Vi6K9PaawqrLFNiewHykTqZGVmJSio/kWbfX/7F5Mpbx4/S+9bZI2xOYb2awtUKsZZPwoXiv7Czm7juO4fPNkSkiCGyqHSSTSACB/4cIgRNXDANMEUBgBDa1IEnGjQACI7DbimG0KQIIjMCmFiTJuBFAYOMC8xrJbUFXaTSvke7otr0/YrGRo0pKutXKRo4ABGYrpduirspotlLetdP27sBxmhxmqIqWyXVymOGejGwKnNxWRkAAApIQmGUAgYAJIHDAzSN1CCAwawACARNA4ICbR+oQQGDWAAQCJoDAATeP1CGAwKwBCARMAIEDbh6pQwCBWQMQCJgAAgfcPFKHAAKzBiAQMAGbAnOYIf2SyrDZP33wMEeeH7mu90//pG+uXFb/yHWvIno7pun5mbP0zsIn1dcxzStWEZPtCcxxwmx9TnncLlvwcGbF8q758VtdGR3NNemZ7e068NRz5iS2JzAH+rMvvBQH3rMHD2Pm5lPH9Vn/+UKSfbW3TzsXLS0kdtag9gTmI3Wy9lJK8ZEz2YOHMfOZ7454PzZPVmn8OP39sytMgbAnMN/M4LdAEj70zS+4/dkLjnxRaJJnVrxcaHzX4AjsSsz6eAQutEMInISXO3ASoXv/PwL78UuYjcBJeBE4iRAC34MAj9B+y8d/NgL7MeQO7MePO7AnPwT2A4jAfvwQ2JMfr5GyA+Q1kniNlH355DOTjRzZObKRQ2zkyL588pnJVspsHNlKeYMbWymzLZ98Z3GYIT1PDjPcwYrDDOmXDyMhAIESCdjbiVUiDC4NgdAIIHBoHSNfCEwggMAsBwgETACBA24eqUMAgVkDEAiYAAIH3DxShwACswYgEDABBA64eaQOAQRmDUAgYAIIHHDzSB0CCMwagEDABGKBByV1BVwDqUOgqgSGYoFPSFpcVQLUDYGACZyMBd4uaUvARZA6BKpKYEcs8BJJRyW1VJUCdUMgQAJ1ScujOPFGo7FL0sYAiyBlCFSVwO4oijaNC9whab+kVVWlQd0QCIjAIUlroygauSHwzbtwLPE2SRt4nA6olaRaJQLxY/MeSVtjeePCbwk8QeT4d+L1klZLms8rpiqtD2o1SGBI0llJByXtjaIofmt0699/a1AJ3Qj25TEAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>展示当前迭代我提交的和待我修复的缺陷，以便我能及时处理风险漏洞。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-17</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>todoThings</t>
+  </si>
+  <si>
+    <t>待审核</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAG1UlEQVR4Xu3dQWtVRxjG8Wdur6m1sUJUSjehpUJBIZtuXLsQ/B5uRBfiB1EXihu/h+DCdTfdBBQKlpZspKgBm6u219t7ykgiQQjzTs45M+/J+WcXeM+Z9/xmHnKTO3MT9NlX0zQXJF2VdFnSuqTVz2v4HgEEignMJG1JeizpYQjh6f6Rw943TdOsSLot6ZqkSbH2GAgBBKwCS0kPJN0KIczjRR8DvBveR5IuWe9EHQIIVBN4IulKDPFegO9Jul6tHQZGAIFcgfshhBth93feTV425/pRj0BVgfhyeiMG+I6km1VbYXAEEDiMwN0Y4PhXrfOHuZprEECgqsCzGOAd3iqqOgkMjsBhBWYxwM1hr+Y6BBCoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQSIMCt+LgYgboCBLiuP6Mj0EqAALfi42IE6goQ4Lr+jI5AKwEC3IqPixGoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQScBngxWKpl6/f6t37D1os/mv1gN4unk6/0Imvjuns6a81nfLJRd7mZ2j9uAtwDO8fW9taLo/2GYvJJOiH9TVCPLTEOOvXXYBf/LWjv3f+ccbUTzvfnDyu77492c/NuesoBNwF+Pc/t4/cy+aDVlJ8Of3j92ujWGg8ZD8C7gL82/OX/Typ07v+dO6s085oawgCBLjyLBHgyhMw8OEJcOUJJMCVJ2DgwxPgyhNIgCtPwMCHdxdg/og18BVF+0UF3AWYt5GKzj+DDVzAXYDZyDHwFUX7RQXcBTg+PVspi64BBhuwgMsAD9iT1hEoKkCAi3IzGALdChDgbj25GwJFBQhwUW4GQ6BbAQLcrSd3Q6CoAAEuys1gCHQrQIC79eRuCBQVIMBFuRkMgW4FCHC3ntwNgaICBLgoN4Mh0K0AAe7Wk7shUFSAABflZjAEuhXwGeDlXHq3pWb+Rmo+dPvE3A2BHIFwTGHllHRiXZqs5FxZpNZfgJdzNW82peWiCACDIGASmEwVTm24C7G/AM+eq/n3lcmUIgRKCoQvz0ir50oOmRzLXYCb7V952ZycNgqqCMSX02s/Vxn6oEH9Bfj1L66AaAaB/QLh9EVXIATY1XTQjHcBApyYoYafwN7X8Kj7I8AEeNQBGPrDE2ACPPQ1POr+CTABHnUAhv7wBJgAD30Nj7p/AkyARx2AoT88AU4FmI0cQ1/jR7d/NnIY5patlAYkSmoIsJXSos5hBosSNaUFOMyQIc5xwgwsSnsV4Dhhr7zcHIFRC7jbCz3q2eDhEcgUIMCZYJQj4EmAAHuaDXpBIFOAAGeCUY6AJwEC7Gk26AWBTAECnAlGOQKeBAiwp9mgFwQyBQhwJhjlCHgSIMCeZoNeEMgU8BlgtlJmTiPlvQmwlTKTlsMMmWCUFxHgMIORmeOERijKSgtwnNAgzn9mMCBRUkeAA/1pdz4XOm1ERT0BPlInYU+A6y1ORk4LEGACnF4lVLgVIMAE2O3ipLG0AAEmwOlVQoVbAQJMgN0uThpLCxBgApxeJVS4FSDABNjt4qSxtAABTgWY/8yQXkVU1BFgI4fBna2UBiRKagiwldKizmEGixI1pQU4zJAhznHCDCxKexXgOGGvvNwcgVEL+DzQP+op4eERsAsQYLsVlQi4EyDA7qaEhhCwCxBguxWVCLgTIMDupoSGELALEGC7FZUIuBMgwO6mhIYQsAsQYLsVlQi4EyDA7qaEhhCwC/gMMFsp7TNIZb8CbKXM9OUwQyYY5UUEOMxgZOY4oRGKstICHCc0iPOfGQxIlNQR4EB/2p0Pdk8bUVFPgI/USdgT4HqLk5HTAgSYAKdXCRVuBQgwAXa7OGksLUCACXB6lVDhVoAAE2C3i5PG0gIEmACnVwkVbgUIMAF2uzhpLC1AgFMB5j8zpFcRFXUE2MhhcGcrpQGJkhoCbKW0qHOYwaJETWkBDjNkiHOcMAOL0l4FOE7YKy83R2DUAj4P9I96Snh4BOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAgTYbkUlAu4ECLC7KaEhBOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAjHAO5JW7ZdQiQACTgRmMcBPJZ130hBtIICAXeBZDPAdSTft11CJAAJOBO7GAF+QtClp4qQp2kAAgbTAUtJGiHVN09yTdD19DRUIIOBE4H4I4cZegFckPZJ0yUlztIEAAgcLPJF0JYQw/xjg3Z/CMcS3JV3j5TRrBwGXAvFl8wNJt2J4Y4efArwvyPF34quSLkta5y0mlxNJU+MRmEnakvRY0sMQQnzX6NPX/y6PW84BwAvPAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>此模块将会显示待我审核的“流水线人工卡点任务”与“代码合并请求”。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-18</t>
+  </si>
+  <si>
+    <t>serviceList</t>
+  </si>
+  <si>
+    <t>应用服务（最近使用）</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJQ0lEQVR4Xu2dT2tcVRiHf3cmmZAmsSMpaSwasFALrbgQqu3ChS5ENwp+hOKmWFBcVXAp2FW1UOlG+hEEu1Fc6MJFq4IL0YIWKkSpaWhw2iQNmWQyckorbUnm33vvPWfOeWbVwn3POb/nPQ89vTNzJ9Mjr3a7fVjS25JelTQnafLRa/g7BCBQGoEVSfOSvpH0eZZlvz04c3b/L+12uybpjKQTkiqlLY+JIACBXglsSTov6f0sy5qu6K7A9+T9StIrvY7EdRCAgDcC30p63Ul8X+Bzkt7xthwmhgAE+iXwWZZlJ7N7/+f9hWNzv/y4HgJeCbjj9HNO4E8kved1KUwOAQgMQuBTJ7C7q3VokGpqIAABrwSuOIGXeavIaxOYHAKDElhxArcHraYOAhDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAggsAkfxRDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAgEKfBCc10f/3lVlxr/3g13rP64Pnj6gGZrYz2FbbW21Gisab3Zkvszr3AIVKsVjdWqqtfH5f7My0YgOIGdvK/9fFmNjY2HktVHR/X180e7SuyEXbixrK0tvqNh2xrFVlcqmWb3TiGxEXNwAr/7+6/6cnFh21hvzszq7MFnO0ZeWlrVnbWH5TcyorwgArvGRzU9PVHQ6GkMG5zAL/zwvRab69vSn6mN6ccXX+rYmev/3ObYPCR71x2h9z3x2JCsNsxlRifwX383wiTNqrYl8NSTdcgYCAQnsPUIjcCG3eChFIFt0IMT2HoTC4FtG6LsagS2EQ9OYBfH8jYSAts2RNnVCGwjHqTAlkgIbKFXfm0ZAjeWt/TFdyv6Y76pWyutjiF3T1b1zFxNb708qfpU+O9TI3D5e5YZHyBQtMBO3o8uLGl1rb8P9EyMV/Th8engJUZgdPJKoGiBL1y8rZ+urA2U8cihcR1/I+y3uRB4oNZSlBeBogU+de5m12PzTlnccfr0yT15RS1kHAQuBCuD9kqgaIFPnL7R61K2ve78qb2m+qKLEbhowozfkQAC2zYIAtv4UW0kgMA2gAhs40e1kQAC2wAisI0f1UYCCGwDiMA2flQbCSCwDSAC2/hRbSSAwDaACGzjR7WRAALbAEYnMF/ot22IMqvL+EI/H+Qos6M5zMUjdXKAWNIQZTxSh49SltTMvKbhoXZ5kSx2nLIeaseXGYrtYyGj81jZQrDmMqiPx8rydcJcWscgEIBA3gSiu4mVNyDGg0DIBBA45O6wNgh0IYDAbBEIDDEBBB7i5rF0CCAwewACQ0wgSIE3N6XFmy2t3tnSZueHCA4x+jSXPlKVJnZVNLOnqpGRNBnkmTo4gZ281+Y31Wrx64J5Njq0sarVTPvnRpDY2JjgBL6+0NKt5f4eAWpkQLknArunKto3W/U0exzTBifw1WsbHJvj2FtdU7jj9IH9o12v44KdCSAwu8MbAQS2ow9OYI7Q9qYOywgcoe2dCk5gbmLZmzoMI3ATK58uBSewi8XbSPk0N8RReBsp364EKXC+ERkNAvESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIIDACTSZiPESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIBCkwAvNdX3851Vdavx7twXH6o/rg6cPaLY21lNL+HnRnjB5ucjHz4t6CVrSpMEJ7OR97efLamxsPISgPjqqr58/2lVifuC7pJ1jnKasH/g2LjP48uAEfvf3X/Xl4sK24N6cmdXZg892hLq0tKo7aw/LH3wXEl3grvFRTU9PJJo+n9jBCfzCD99rsbm+bbqZ2ph+fPGljsmv/3Nb7l9hXuETcMfpfU88Fv5CA15hdAL/9XcjYNws7VECTz1ZB4qBQHACW4/QCGzYDR5KEdgGPTiBrTexENi2IcquLkPgxvKWvvhuRX/MN3VrpfPPXe6erOqZuZreenlS9alK2Tj6ni84gV0Cy9tICNz3HvBaULTATt6PLixpda2/+yIT4xV9eHw6eImDFNiyoxDYQq/82qIFvnDxtn66sjZQsCOHxnX8jbBvsiHwQK2lKC8CRQt86tzNrsfmnbK44/Tpk3vyilrIOAhcCFYG7ZVA0QKfOH2j16Vse935U3tN9UUXI3DRhBm/IwEEtm0QBLbxo9pIAIFtABHYxo9qIwEEtgFEYBs/qo0EENgGEIFt/Kg2EkBgG0AEtvGj2kgAgW0AEdjGj2ojAQS2AURgGz+qjQSKFpgPchgbVHY5H6Usm7htvqIF5qOUtv6UXs0X+ktHPvCEZXyhny8zDNweP4U8UscP90FmLeuROnydcJDueKrhoXaewPc5LQ+16xPYDpdHdxPL5eSxsvlsjiJG4bGy+VKNUuB8ETEaBMIlgMDh9oaVQaArAQTuiogLIBAuAQQOtzesDAJdCSBwV0RcAIFwCSBwuL1hZRDoSiBIgTc3pcWbLa3e2dJm58f4dg3IBWERGKlKE7sqmtlT1chIWGsbxtUEJ7CT99r8plqt9jDyZM09EqhWM+2fG0HiHnntdFlwAl9faOnWcn8P4TYyoNwTgd1TFe2brXqaPY5pgxP46rUNjs1x7K2uKdxx+sD+0a7XccHOBBCY3eGNAALb0QcnMEdoe1OHZQSO0PZOBScwN7HsTR2GEbiJlU+XghPYxeJtpHyaG+IovI2Ub1eCFDjfiIwGgXgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABBE6gyUSMlwACx9tbkiVAAIETaDIR4yWAwPH2lmQJEEDgBJpMxHgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABJ/CypMkEshIRArERWHEC/ybpUGzJyAOBBAhccQJ/Ium9BMISEQKxEfjUCXxY0i+SKrGlIw8EIibgnvz4XOYCttvtc5LeiTgs0SAQG4HPsiw7eV/gmqSvJL0SW0ryQCBCAt9Kej3LsuZdge/9K+wkPiPpBMfpCFtOpBgIuGPzeUnvO3ldoP8FfkBk93/ityW9KmmOt5hi6DsZhpjAiqR5Sd9I+jzLMveu0f+v/wDfTq3dZ9XgHwAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>此模块将显示我近7天操作过的应用服务，以便我能从工作台快速进入对应的代码仓库。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-19</t>
+  </si>
+  <si>
+    <t>quickLink</t>
+  </si>
+  <si>
+    <t>快速链接</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAH9klEQVR4Xu2dz2oUSxSHfzUTnfzTxKBR4eIDKPgQLgTfw43oQnwQdaG48T0EFz6EoA8gF9RRcqOZJCZmpi8VongDl67Tf6a6q74GF4FT3X2+U5/d09N1xunUVhTFDUl3Jd2WdE3S6ukY/oYABOZGYCLpg6TXkl465979eWT364+iKM5KeizpnqTB3E6PA0EAAqEEZpJeSHrknDv0g44FPpH3laRboXsiDgIQiEbgjaQ7XuJfAj+TdD/a6XBgCEDASuC5c+6BO/nM+5bbZis/4iEQlYC/nb7pBX4i6WHUU+HgEIBAFQJPvcD+qdb1KqMZAwEIRCXw3gu8w1dFUYvAwSFQlcDEC1xUHc04CEAgLgEEjsufo0OgFgEEroWPwRCISwCB4/Ln6BCoRQCBa+FjMATiEkDguPw5OgRqEUDgWvgYDIG4BBA4Ln+ODoFaBBC4Fj4GQyAuAQSOy5+jQ6AWAQSuhY/BEIhLAIHj8ufoEKhFoFcCz2aFfhwcHf87OprJ/+23wcBpYWGgxdHC8T//d5PbdCp925np4LDQdMqr402y7fq+hkOn0VmntXMDDYfdO9teCOxF3ZkcaG//ZxDB5aUzOrc6akRkL+/nL0c6+b8i6PgEpUfAXxMuX1ronMSdF/jg4Ej/fPvh+3aZZoVzThfWFjUaLZjGnQ7e2p5pb983P2DLncDy0kAb693q99hpgXf3DvV956DWvDl/bqSVZd9ws9r2cTzltrkauuRG+dvpq5vduo/urMD+yru1vd/IJNhYX6p8Jf7741Ej58BO0iDw19V6d3RNU+ikwP4z7/jrrvm2+f/g+NvpzYsrlT4TI3DTU67f+0PggPp9+/4j+IFVwO6OQ/yDrbXzi6Hhv+MQ2Iws6QEIXFJef/X9/MX/mkTz2+VLq+arMAI3X4c+7xGBS6rnvyryV+A2Nn8F9ldiy4bAFlrpxyJwSY39gyv/AKuNzX+l5B9oWTYEttBKPxaBS2rsH15Np+187zocDo4fZlk2BLbQSj8WgUtq/Gk8aezp8+lD+afRVzZtv5aKwOlLackQgRHYMl+I7RgBBOYWumNTktOxEEBgHmJZ5guxHSOAwCUF4Wukjs1YTuc/BBC4ZELwIgfGdJkAAgdUh1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgIdLInliUBYiGQMwEEzrn65N57Agjc+xKSQM4EEDjn6pN77wkgcO9LSAI5E0DgnKtP7r0ngMC9LyEJ5EwAgXOuPrn3ngAC976EJJAzgV4JzKuUOU/VOLnzKmUD3FnM0ABEdlGLAIsZKuJjOWFFcAxrnADLCY1IWdBvBEZ4qwRY0G/AS0sdAyxC50aAljoBqGlqFwCJkCgEEDgAO21lAyAREoUAApdgp7F7lHnJQQMJIHAJKH5aJXAmERaFAAKXYN/a3pd/gNXGNhotaGN9ybRrfh/YhCv5YAQuKfH4666m01krE2E4HGjz4opp3whswpV8MAKXlPjTeKKiKFqZCM45XdlcNe0bgU24kg9GYAROfpKnnCACcwud8vxOPjcE5iFW8pM85QQRmK+RUp7fyeeGwCUl5kWO5B3odYIIHFA+XqUMgERIFAIIHICdxQwBkAiJQgCBA7GznDAQFGFzJYDABtws6DfAIrR1Aizor4CYljoVoDGkFQK01KmIlaZ2FcExrDECNLVrACVtZRuAyC5MBGgra8JFMAQgYCHQq8bulsSIhUAOBBA4hyqTY7IEEDjZ0pJYDgQQOIcqk2OyBBA42dKSWA4EEDiHKpNjsgQQONnSklgOBBA4hyqTY7IEEDjZ0pJYDgR6JTCvUuYwJbuVI69SNlAPFjM0AJFd1CLAYoaK+FhOWBEcwxonwHJCI1IW9BuBEd4qARb0G/DSUscAi9C5EaClTgBqmtoFQCIkCgEEDsBOW9kASIREIYDAJdhp7B5lXnLQQAIIXAJqb/+n/BW4jW3t/KKWl86Yds3Pi5pwJR+MwCUl3trel3+A1cY2Gi1oY33JtGsENuFKPhiBS0o8/rqr6XTWykQYDgfavLhi2jcCm3AlH4zAJSX+NJ6oKIpWJoJzTlc2V037RmATruSDERiBk5/kKSeIwNxCpzy/k88NgXmIlfwkTzlBBOZrpJTnd/K5IXBJiXmRI3kHep0gAgeUj1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgI9KqxuyUxYiGQAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAQTOocrkmCwBBE62tCSWAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAS/wjiRbt/McyJAjBLpPYOIFfifpevfPlTOEAAROEXjvBX4i6SFoIACB3hF46gW+IemtpEHvTp8ThkC+BPwvAN50Pv+iKJ5Jup8vCzKHQO8IPHfOPfgl8FlJryTd6l0anDAE8iPwRtId59zhscAnV2Ev8WNJ97idzm9GkHEvCPjb5heSHnl5/Rn/FvgPkf1n4ruSbku6xldMvSgsJ5kugYmkD5JeS3rpnPPfGv3e/gX5X4nsitfWfwAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>此模块将显示我所在项目共享的网址链接，同时支持创建个人的网址链接；以便从工作台快速进入目标地址。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-20</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAI20lEQVR4Xu2dQW4UVxRFX9ndwQgnS2ABILEIBkjsgwmCAWIhCQOiTNgHEgMWgQQLYAnBCEO3XdFHOEJEcP/zLbpepU9PDNKtvr/Oe4c2GLeH+OYxjuPNiLgXEXci4npEHH+b4fcQgMDOCJxExNuIeBERz4ZheP1183Dxm3Ecf4mI3yPifkQc7Ox4FEEAAr0EziPir4h4PAzDp3bRZ4G/yPs8Im73PhM5CEBgNgIvI+Juk/hC4KcR8WC241AMAQhkCfw5DMPD4cvfeV/xaXOWH3kIzEqgfTp9qwn8R0Q8mvUolEMAApch8KQJ3P5V68ZlruYaCEBgVgJvmsDv+FLRrEOgHAKXJXDSBB4vezXXQQAC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYsAAlv4uBgC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYtASYHbf88+/XgW2+15e7cQ6wb/bxcPwxCr1UEcXTmM9uspHvD+PsWfwXuKmV08RzmB2zKdvN8grphyW6zja2tbYnj36TQV7762/lQ5gT+cbmOzOeu/gz1OrteHcfVoZRGAdz++KXj3t/Ulywn87uQTr759s/v86vvrcXsz0cs/4N3Pbgre/W19yXIC//3uY9/JSX0m8NuvVywS8M7hc3nn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65Np8sJzA+c1kO7SEzxA6fhvVve/W19yXICfzjdxmZz1nf6PU+t14dx9WhlUYB3P74pePe39SXLCTyOY5y830T7yOP7BNqr7/G1dbSPzgPeffSm4t3X1p8qJ3A7eluq049nsd2eI/I3s2yLtFodxNGVQ1vei6eG94//oJyad7+eOllSYH1sEhCAQCOAwOwBBBZMAIEXPDyODgEEZgcgsGACCLzg4XF0CCAwOwCBBRNA4AUPj6NDAIHZAQgsmAACL3h4HB0CCMwOQGDBBBB4wcPj6BBAYHYAAgsmUFJg/nP99zeKb2bYrW0/g/eUd1BOYL69rW+8U317G7x3y7uvrT9VTmC+wbx/eFN8gzm8d8u7v60vWU5g3uKlb3AtxVvq9LOaIjkF7ynO8fVzlBOYN1nLjdh9kzV475Z3rk2nEVgzKp1A4N2Ox+U99WkReGqiO34+d6F4Bc4NzOWda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nS4nMD/gWw/tIjHFD5yG925597f1JcsJ/OF0G5vNWd/p9zy1Xh/G1aOVRQHe/fim4N3f1pcsJ/A4jnHyfhPtI4/vE2ivvsfX1tE+Og9499GbindfW3+qnMDt6G2pTj+exXZ7jsjfzLIt0mp1EEdXDm15L54a3j/+g3Jq3v166mRJgfWxSUAAAo0AArMHEFgwAQRe8PA4OgQQmB2AwIIJIPCCh8fRIYDA7AAEFkwAgRc8PI4OAQRmByCwYAIIvODhcXQIIDA7AIEFE0DgBQ+Po0MAgdkBCCyYQBP4XUQcL/geODoE9pXASRP4dUTc2FcC3DcEFkzgTRP4j4h4tOCb4OgQ2FcCT5rANyPiVUQc7CsF7hsCCyRwHhG3Pr+dwziOTyPiwQJvgiNDYF8J/DkMw8MLgX+JiOcRcXtfaXDfEFgQgZcRcXcYhk//vqHSOI5N4t8j4j6fTi9olBx1nwi0T5v/iojHTd524/95R7Qvfye+FxF3IuI6X2Lap/3gXgsSOImItxHxIiKeDcPQvmr07+MffSSx3RPnCD8AAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>此模块将显示我所在项目更新的知识库文档动态，同时支持筛选出我操作过的文档。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-21</t>
+  </si>
+  <si>
+    <t>envList</t>
+  </si>
+  <si>
+    <t>环境（最近使用）</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJMElEQVR4Xu2dT29UVRiHf3emM4UW7GBNrQRIJCEmYly4UFmwcWFwxZdgQzTRuOMTsFNMNGz8Eq4kLNyw8M+CBVETQ4IJEKwNlSn9A53pzDUHKaE4YXp5z73n9NxnVm1y3/Oe93nPk57eyT030zOfPM+PSzoj6UNJRyTte/YafocABCojsCrppqTLkr7Nsuy3pzNnW7/ked6W9IWks5IalU2PRBCAwE4JDCVdlPR5lmU9F/RI4Mfyfi/pg52OxHUQgEAwAj9I+shJvCXw15I+DjYdEkMAAkUJfJNl2SfZ4/95r7FtLsqP6yEQlIDbTr/tBP5S0mdBp0JyCEDgRQhccAK7u1pvvkg0MRCAQFACvzuBV/iqKGgTSA6BFyWw6gTOXzSaOAhAICwBBA7Ln+wQMBFAYBM+giEQlgACh+VPdgiYCCCwCR/BEAhLAIHD8ic7BEwEENiEj2AIhCWAwGH5kx0CJgIIbMJHMATCEkDgsPzJDgETAQQ24SMYAmEJIHBY/mSHgIlAlAIv9DZ0/s/r+rF771FxJzoHdO71Y5pvT+6o2MFgqG73gTZ6A7mf+cRDoNlsaLLdVKezV+7nMj7DYa619Z76/aE7bcaUIssytVoNTU+11Wg8OYHKNKbP4OgEdvKeuvqTuv3+tjo7rZYuvfP+WImdsAt/r8g1kU+8BJwM86/u9y6x63t3+aFZ3GfJOZE7M3uikzg6gT/941d9t7gwcuWdnpvXV2+89dxVubS0pvUH2+WPdxnXe2ZTe1uanZ32CmFldUO93sDrmFuDtdtN7d+3s11gKRMYMWh0Ar/78xUt9jZG1j/XntQv7518Lps7f91n21zV6jHmcVvog6+9ZBxle/g/9x54/+u7lcH9FX75wF6v87UOlpzAt253rUyIr5DA4UMdr9mW/ln3Ot6zg82+PFXq+EUHj05g6xYagYsugbDXI7CNf3QCW29iIbBtQVQdjcA24tEJ7MqxfI2EwLYFUXU0AtuIRymwpSQEttCrPhaBbcwR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBtABLbxI9pIAIFtABHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbwOQE5oF+24KoMrqMB/p5HrjKDpaQiyN1SoBa0pBlHKmDwCU1q6phOdSuKtK2PGUdaofAtr5EEc2xslG0YeQkyj5WFoHj7T0zg8BYAgg8FhEXQCBeAggcb2+YGQTGEkDgsYi4AALxEkDgeHvDzCAwlgACj0XEBRCIlwACR9CbzU1p8e5Aa+tDbZbzmpsIqqznFCaa0vRUQ3OvNDUx4Z8BAvtnWmhEJ++Nm5saDHi7YCFwu+ziZjPT0SMT3iVG4MAL4c7CQMsrvNM3cBsqST+zv6GD802vuRDYK87ig12/0WfbXBzbroxw2+ljR1te547AXnEWHwyBizPbrRFlCMzrRQOvBrbQgRtQYfoyttC84LvCBo5KxU2swA2oKH1ZN7GGw1zd5YfeX/LtXu7dmdkj9xRVTJ8oH+jna6SYlojfuZT9NZKbrZN4bb2nfn9oFtmJ22o1ND3Vjk5eV2uUAvtdMowGgXQJIHC6vaWyGhBA4Bo0mRLTJYDA6faWympAAIFr0GRKTJcAAqfbWyqrAQEErkGTKTFdAgicbm+prAYEELgGTabEdAkgcLq9pbIaEEDgGjSZEtMlgMDp9pbKakAAgWvQZEpMlwACp9tbKqsBAQSuQZMpMV0CCJxub6msBgSiFHiht6Hzf17Xj917j1pwonNA514/pvn25I5awutFd4QpyEVlv17UFcUD/UFa+19SJ++pqz+p2+9vm0Wn1dKld94fKzEv+A7YvAKpy3rBN0fqFGhCGZd++sev+m5xYeTQp+fm9dUbbz037dLSmtYfbJe/jHkypp3A1N6WZmen7QM9NQKH2nnFWXywd3++osXexsjAufakfnnv5HMHvfPXfbm/wnziJ+C20wdfe8nrRDlW1ivO4oNZBb51u1s8KRHBCBw+1PGam4PdveIsPph1C43AxZmHjEBgG/3o7kJbb2IhsG1BVB2NwDbi0QnsyrF8jYTAtgVRdTQC24hHKbClJAS20Ks+FoFtzBHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbQAS28SPaSACBbQAR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBvA5ATmgX7bgqgyuowH+nkeuMoOlpCLI3VKgFrSkGUcqYPAJTWrqmE51K4q0rY8ZR1qh8C2vkQRzbGyUbRh5CTKPlYWgePtPTODwFgCCDwWERdAIF4CCBxvb5gZBMYSQOCxiLgAAvESQOB4e8PMIDCWAAKPRcQFEIiXAAJH0JvNTWnx7kBr60NtDiKYEFPwRmCiKU1PNTT3SlMTE96GfTIQAvtnWmhEJ++Nm5saDPJCcVy8uwg0m5mOHpnwLjECB14HdxYGWl7h5WSB21BJ+pn9DR2cb3rNhcBecRYf7PqNPtvm4th2ZYTbTh872vI6dwT2irP4YAhcnNlujShDYF4vGng1sIUO3IAK05exheYF3xU2cFQqbmIFbkBF6cu6iTUc5uouP1Se+70JmmWZOjN75J6iiukT5QP9fI0U0xLxO5eyv0Zys3USr6331O8PzSI7cVuthqan2tHJ62qNUmC/S4bRIJAuAQROt7dUVgMCCFyDJlNiugQQON3eUlkNCCBwDZpMiekSQOB0e0tlNSCAwDVoMiWmSwCB0+0tldWAAALXoMmUmC4BBE63t1RWAwIIXIMmU2K6BBA43d5SWQ0IOIFXJO2rQa2UCIHUCKw6gX+T9GZqlVEPBGpA4Hcn8JeSPqtBsZQIgdQIXHACH5d0TVIjteqoBwIJE3AnP7796HiBPM+/lvRxwsVSGgRSI/BNlmWfbAnclvS9pA9Sq5J6IJAggR8kfZRlWe/JAT95njuJv5B0lu10gi2npBQIuG3zRUmfO3ldQf87oevx/8RnJH0o6QhfMaXQd2rYxQRWJd2UdFnSt1mWuW+Nnnz+BSgzMezwUYl+AAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>此模块将显示我近7天使用过的环境，以便我能从工作台快速进入对应的环境管理资源。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-22</t>
+  </si>
+  <si>
+    <t>selfCode</t>
+  </si>
+  <si>
+    <t>代码提交记录</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHZpZXdCb3g9IjAgMCAxMjAgNjYiPgogIDxnIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICA8cmVjdCB3aWR0aD0iMTIwIiBoZWlnaHQ9IjY2IiBmaWxsPSIjRkZGIiByeD0iNCIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTggMTApIj4KICAgICAgPHJlY3Qgd2lkdGg9IjU0IiBoZWlnaHQ9IjEwIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgcng9IjIiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iMTQiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cGF0aCBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgZD0iTTIsMjggTDUyLDI4IEM1My4xMDQ1Njk1LDI4IDU0LDI4Ljg5NTQzMDUgNTQsMzAgTDU0LDM2IEM1NCwzNy4xMDQ1Njk1IDUzLjEwNDU2OTUsMzggNTIsMzggTDI2LDM4IEwyNiwzOCBMMiwzOCBDMC44OTU0MzA1LDM4IDEuMzUyNzA3NWUtMTYsMzcuMTA0NTY5NSAwLDM2IEwwLDMwIEMtMS4zNTI3MDc1ZS0xNiwyOC44OTU0MzA1IDAuODk1NDMwNSwyOCAyLDI4IFoiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iNDIiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iMTQiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iNDIiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgPC9nPgogIDwvZz4KPC9zdmc+Cg==</t>
+  </si>
+  <si>
+    <t>用于展示我近7天的代码提交记录</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-23</t>
+  </si>
+  <si>
+    <t>myReport</t>
+  </si>
+  <si>
+    <t>我报告的</t>
+  </si>
+  <si>
+    <t>展示当前迭代中报告人是我的问题项。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-24</t>
+  </si>
+  <si>
+    <t>resourceManagement</t>
+  </si>
+  <si>
+    <t>resourceOverview</t>
+  </si>
+  <si>
+    <t>资源概览</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMTAwLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0ZGRkZGRiIgeD0iMCIgeT0iMCIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMUZDMkJCIiB4PSIxOSIgeT0iMTEiIHdpZHRoPSIyNCIgaGVpZ2h0PSIyMCIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMzdCMUVDIiB4PSI0OC41IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9Ijc4IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9IjE5IiB5PSIzNiIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiNGRDcyOUMiIHg9IjQ4LjUiIHk9IjM2IiB3aWR0aD0iMjQiIGhlaWdodD0iMjAiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>此模块将显示主机、集群、环境的数量概览</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-25</t>
+  </si>
+  <si>
+    <t>resourceMonitoring</t>
+  </si>
+  <si>
+    <t>资源池监控</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMjAzLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTAiIHdpZHRoPSI4MyIgaGVpZ2h0PSIxMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjI3IiB3aWR0aD0iODMiIGhlaWdodD0iMTIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSI0NCIgd2lkdGg9IjgzIiBoZWlnaHQ9IjEyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+  </si>
+  <si>
+    <t>此模块将显示主机、集群的运行情况</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-26</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtNTEyLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0MTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjIxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSIzMSIgd2lkdGg9Ijg0IiBoZWlnaHQ9IjUiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iNDEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjUxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-27</t>
+  </si>
+  <si>
+    <t>myExecution</t>
+  </si>
+  <si>
+    <t>我执行的用例</t>
   </si>
   <si>
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAIX0lEQVR4Xu2dS2gVVxjH/xPvzUNvjLFo04Wi2CBqScFFHws3UkQ37a677tyIltpCKaUbN6WUglqquHHXXXftRpHixkUfC6GhKpKKooumSo1JruZxY245vuorZs6cmTvf3PlllcA533zn930/ZpI55ybSU1/NZnOLpN2SdkhaK6n29Bh+hgAEWkagLumqpFOSjkdRdO7xK0cPf2g2m52SDkraI6mjZelxIQhAIC6BeUnHJH0SRdGsm3RP4AfynpC0PW4kxkEAArkROC1pl5P4ocBHJO3NLR0uDAEI+BI4GkXRvujB77zDPDb78mM8BHIl4B6nh5zAhyTtzzUVLg4BCCQhcNgJ7P6qtTnJbOZAAAK5EjjvBJ7kVVGuReDiEEhKoO4EbiadzTwIQCBfAgicL3+uDoEgAggchI/JEMiXAALny5+rQyCIAAIH4WMyBPIlgMD58ufqEAgigMBB+JgMgXwJIHC+/Lk6BIIIIHAQPiZDIF8CCJwvf64OgSACCByEj8kQyJcAAufLn6tDIIiASYHn5uZ149/bujPV0Nzc3aAFMhkCIQQqlSVa2lPVqpeWqVKx90lT5gR28l6+elPz85yxCGk85qZLoKMj0vq1K81JbE7gv/+Z1MTkdLr0iQaBFAgs7+3WKy/3phApvRDmBL505SaPzenVl0gpEnCP0xvWrUwxYngocwJf/OtG+KqIAIGMCGx8dVVGkZOFReBk3JhVUgIIvEjhuQOX1IyCLBuBEbggrUqazyOAwIv0BX/EQhyrBPgjVozK8BopBiSG5EKA10gxsLORIwYkhrScABs5PJCzldIDFkMzJcBWykzxEhwC5SZg7j1wucvB6iHgRwCB/XgxGgKmCCCwqXKQDAT8CCCwHy9GQ8AUAQQ2VQ6SgYAfAQT248VoCJgigMCmykEyEPAjgMB+vBgNAVMEENhUOUgGAn4EENiPF6MhYIoAApsqB8lAwI8AAvvxYjQETBFAYFPlIBkI+BEwKXCzKU1P3/+vDHzAu19BrY1252jdkbzu7qqiqDXZNRoNjY6Oql6vy30f8lWtVlWr1TQwMCD3vbUvcwI7eev1acS11imB+TiRa7XuzCV2wo6MjGhubi4w4yenVyoVDQ4OmpPYnMBTUw3NzqYLP9VKEiwxgc7Oinp6sr2LXbt2TWNjY4lzfNHE/v5+rVmzJpPYSYOaE3hykrtv0mJan+fuwr293ZmmeeHCheDH5oUSdI/QmzZtyjR/3+DmBB4fn/JdA+MLRKCvryfTbIeHhzONPzQ0lGl83+AI7EuM8UEEEDgI3zOTEThdnkRbhAACp9siCJwuT6IhcEt7AIFbipuLcQdOtwcQOF2eROMO3NIeMCcwr5FaWv+WXozXSOnjNicwGznSL7KViGzkSL8S5gRmK2X6RbYQka2U2VTBnMBumRxmyKbYeUTlMEO21E0KnO2SiQ6B9iGAwO1TS1ZSQgIIXMKis+T2IYDA7VNLVlJCAghcwqKz5PYhgMDtU0tWUkICCFzCorPk9iGAwO1TS1ZSQgIIXMKis+T2IYDA7VNLVlJCAghcwqKz5PYhgMDtU0tWUkICJgXmMEMJO3GBJSc6DDExrsbJnzR/+ZKaE+NBMKPlfepYv0HVne9Ky/uCYmUx2ZzAHCfMoszFjxn7OOLEuGa++0bNO7dTXXS0dJm6PvzUnMTmBOZAf6p911bB4nwgQOOH73X3j7OZrHvJ61tVff+DTGInDWpOYD5SJ2kp239enI/kmfn6QPBj80Ik3eN012cHTIE2JzD/mcFUf5hLZrFPtZz+4uNMc+7+8lCm8X2DI7AvMcbnSgCBn8SPwLm2Ixf3JYDACOzbM4w3RACBEdhQO5KKLwEERmDfnmG8IQIIbFxgXiMZssVYKrxGerYg5v6IxUYOY9YYSoeNHAUQmK2UhowxlApbKZ9fDHN3YJcmhxkMmZNzKhxmeHEBTAqcc89weQgUhgACF6ZUJAqBAvwOTJEgAIH4BLgDx2fFSAiYI4DA5kpCQhCITwCB47NiJATMEUBgcyUhIQjEJ4DA8VkxEgLmCCCwuZKQEATiE0Dg+KwYCQFzBBDYXElICALxCSBwfFaMhIA5AiYF5jBD/D5JtNk/fvhCjhydndFXl0f0y60xXZ+dCVrD6s4uvb2iX5+vH9RAZ1dQrCwmmxOY44TJyhz7uF2y8IWZ5eTdefZX3Wo0Us15RbWqk1vfMiexOYE50J+87+IceE8evRgzP7r4p368PppJsu+tHtC3G1/LJHbSoOYE5iN1kpZSivORM8mjF2PmG7+dCX5sXmil7nH69ze3mQJhTmD+M0NYfyz2oW9h0e3PXnfm50yTvLLtnUzj+wZHYF9ixscjMALn2qLcgcPwIzACh3VQ4GwEDgOIwAgc1kGBsxE4DCACI3BYBwXORuAwgAiMwGEdFDib10jJAfIaSeI1UvL+SWUmGzmSY2Qjh8RGjuT9k8pMtlImw8hWyvvc2EqZrH9SncVhhvg4OczwLCsOM8TvH0ZCAAI5EjC3EytHFlwaAoUjgMCFKxkJQ+B/AghMN0CgwAQQuMDFI3UIIDA9AIECE0DgAheP1CGAwPQABApMAIELXDxShwAC0wMQKDABBC5w8UgdAghMD0CgwAScwJOSagVeA6lDoKwE6k7gc5I2l5UA64ZAgQmcdwIfkrS/wIsgdQiUlcBhJ/AWScOSOspKgXVDoIAE5iUNRS7xZrN5RNLeAi6ClCFQVgJHoyja91DgTkknJG0vKw3WDYECETgtaVcURbP3BH5wF3YSH5S0h8fpApWSVMtEwD02H5P0iZPXLfyRwI+J7H4n3i1ph6S1vGIqU3+wVoME6pKuSjol6XgURe6t0aOv/wDzt1/d8ks7gQAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
-    <t>此模块显示该组织下待您审核的需求列表。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-16</t>
-  </si>
-  <si>
-    <t>myDefect</t>
-  </si>
-  <si>
-    <t>我的缺陷</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAIUUlEQVR4Xu2dS2wVVRjH/9MXVFqFArVERfAREl4LE19RQoKGwEYTXbphwUICEYIrV8aVK3kYCC5YsHGpiW4gREkIGl+JC14J8QGiBixQ0BYL7e29ZgglFSgzZ85M5zt3fuwazvnm+37f+WWmnXPujXTbv0ajsUTSekmrJc2X1HX7GH6GAASmjMCQpLOSDkraG0XRiYlXjsZ/aDQaHZK2SdogqWXK0uNCEIBAWgJ1SXskbY2iaCSedEPgm/Lul7QqbSTGQQACpRE4JGltLPG4wLskbSwtHS4MAQi4EtgdRdGm6ObvvEd5bHblx3gIlEogfpxeHgu8XdKWUlPh4hCAQBYCO2KB479qLc4ymzkQgECpBE7GAg/yqqjUJnBxCGQlMBQL3Mg6m3kQgEC5BBC4XP5cHQJeBBDYCx+TIVAuAQQulz9Xh4AXAQT2wsdkCJRLAIHL5c/VIeBFAIG98DEZAuUSQOBy+XN1CHgRQGAvfEyGQLkEELhc/lwdAl4EENgLH5MhUC4BBC6XP1eHgBcBkwLXanVduHRV/w6PqlYb8yqQyRDwIdDW1qr7Ots1d/YMtbXZ+6QpcwLH8p4+O6B6nTMWPguPufkSaGmJtHB+jzmJzQl87q9B/TN4LV/6RINADgTu756ueQ925xApvxDmBP7lzACPzfn1l0g5Eogfpx9f0JNjRP9Q5gQ+9fMF/6qIAIGCCCx6Ym5BkbOFReBs3JhVUQIInNB47sAVNSOQshEYgQNZqqR5NwIInLAu+CMW4lglwB+xUnSG10gpIDGkFAK8RkqBnY0cKSAxZMoJsJHDATlbKR1gMbRQAmylLBQvwSFQbQLm3gNXux1UDwE3AgjsxovREDBFAIFNtYNkIOBGAIHdeDEaAqYIILCpdpAMBNwIILAbL0ZDwBQBBDbVDpKBgBsBBHbjxWgImCKAwKbaQTIQcCOAwG68GA0BUwQQ2FQ7SAYCbgQQ2I0XoyFgigACm2oHyUDAjYBNgWt1aWBQGr4ujdXdKmK0LQKtLVLnNKmnW5qqbzYYPqex4++pcfFrNYbPe/GIOvsUzXlBrUvflTrnecUqYrI9gWN5/7yIuEV0u8yYscgPzSle4uFzqn25Uo2Ry7lWG3XMUttLh81JbE/g/r+loeFc4RPMCIGuTqn3gUKTGfvhTdV//6SQa7Q88rpan/6okNhZg9oT+Ld+7r5Zu2l9XnwXfrS30Cxr+5d5PzZPlmD8ON229lih+bsGtyfwr36/s7gCYPwUE3isr9ALjn5a7DcntL9m65tDELjQ5UTwOwggcK6LAoFzxUmwRAIInIjIZQACu9BirD8BBPZnOCECAueKk2CJBBA4EZHLAAR2ocVYfwII7M/Q9B2Y10i5NthUMF4j5d4Oe3dgNnLk3mQzAdnIkXsr7AnMVsrcm2wiIFspC2mDPYHjMjnMUEizSwnKYYZCsdsUuNCSCQ6B5iGAwM3TSyqpIAEErmDTKbl5CCBw8/SSSipIAIEr2HRKbh4CCNw8vaSSChJA4Ao2nZKbhwACN08vqaSCBBC4gk2n5OYhgMDN00sqqSABBK5g0ym5eQggcPP0kkoqSMCmwBxmqOBSnKTkDIchLg1J+76Sjv0hDVxteLHsmRFp2cPSuhel2V1eoQqZbE9gjhMW0ujgg6Y8jhjL+9bH0uA1P3Fv59U9PdKHb9iT2J7AHOgP3rXCCkjxgQAfHJAOn8pX3vF6Vi6K9PaawqrLFNiewHykTqZGVmJSio/kWbfX/7F5Mpbx4/S+9bZI2xOYb2awtUKsZZPwoXiv7Czm7juO4fPNkSkiCGyqHSSTSACB/4cIgRNXDANMEUBgBDa1IEnGjQACI7DbimG0KQIIjMCmFiTJuBFAYOMC8xrJbUFXaTSvke7otr0/YrGRo0pKutXKRo4ABGYrpduirspotlLetdP27sBxmhxmqIqWyXVymOGejGwKnNxWRkAAApIQmGUAgYAJIHDAzSN1CCAwawACARNA4ICbR+oQQGDWAAQCJoDAATeP1CGAwKwBCARMAIEDbh6pQwCBWQMQCJgAAgfcPFKHAAKzBiAQMAGbAnOYIf2SyrDZP33wMEeeH7mu90//pG+uXFb/yHWvIno7pun5mbP0zsIn1dcxzStWEZPtCcxxwmx9TnncLlvwcGbF8q758VtdGR3NNemZ7e068NRz5iS2JzAH+rMvvBQH3rMHD2Pm5lPH9Vn/+UKSfbW3TzsXLS0kdtag9gTmI3Wy9lJK8ZEz2YOHMfOZ7454PzZPVmn8OP39sytMgbAnMN/M4LdAEj70zS+4/dkLjnxRaJJnVrxcaHzX4AjsSsz6eAQutEMInISXO3ASoXv/PwL78UuYjcBJeBE4iRAC34MAj9B+y8d/NgL7MeQO7MePO7AnPwT2A4jAfvwQ2JMfr5GyA+Q1kniNlH355DOTjRzZObKRQ2zkyL588pnJVspsHNlKeYMbWymzLZ98Z3GYIT1PDjPcwYrDDOmXDyMhAIESCdjbiVUiDC4NgdAIIHBoHSNfCEwggMAsBwgETACBA24eqUMAgVkDEAiYAAIH3DxShwACswYgEDABBA64eaQOAQRmDUAgYAIIHHDzSB0CCMwagEDABGKBByV1BVwDqUOgqgSGYoFPSFpcVQLUDYGACZyMBd4uaUvARZA6BKpKYEcs8BJJRyW1VJUCdUMgQAJ1ScujOPFGo7FL0sYAiyBlCFSVwO4oijaNC9whab+kVVWlQd0QCIjAIUlroygauSHwzbtwLPE2SRt4nA6olaRaJQLxY/MeSVtjeePCbwk8QeT4d+L1klZLms8rpiqtD2o1SGBI0llJByXtjaIofmt0699/a1AJ3Qj25TEAAAAASUVORK5CYII=</t>
-  </si>
-  <si>
-    <t>展示当前迭代我提交的和待我修复的缺陷，以便我能及时处理风险漏洞。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-17</t>
-  </si>
-  <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>todoThings</t>
-  </si>
-  <si>
-    <t>待审核</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAG1UlEQVR4Xu3dQWtVRxjG8Wdur6m1sUJUSjehpUJBIZtuXLsQ/B5uRBfiB1EXihu/h+DCdTfdBBQKlpZspKgBm6u219t7ykgiQQjzTs45M+/J+WcXeM+Z9/xmHnKTO3MT9NlX0zQXJF2VdFnSuqTVz2v4HgEEignMJG1JeizpYQjh6f6Rw943TdOsSLot6ZqkSbH2GAgBBKwCS0kPJN0KIczjRR8DvBveR5IuWe9EHQIIVBN4IulKDPFegO9Jul6tHQZGAIFcgfshhBth93feTV425/pRj0BVgfhyeiMG+I6km1VbYXAEEDiMwN0Y4PhXrfOHuZprEECgqsCzGOAd3iqqOgkMjsBhBWYxwM1hr+Y6BBCoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQSIMCt+LgYgboCBLiuP6Mj0EqAALfi42IE6goQ4Lr+jI5AKwEC3IqPixGoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQScBngxWKpl6/f6t37D1os/mv1gN4unk6/0Imvjuns6a81nfLJRd7mZ2j9uAtwDO8fW9taLo/2GYvJJOiH9TVCPLTEOOvXXYBf/LWjv3f+ccbUTzvfnDyu77492c/NuesoBNwF+Pc/t4/cy+aDVlJ8Of3j92ujWGg8ZD8C7gL82/OX/Typ07v+dO6s085oawgCBLjyLBHgyhMw8OEJcOUJJMCVJ2DgwxPgyhNIgCtPwMCHdxdg/og18BVF+0UF3AWYt5GKzj+DDVzAXYDZyDHwFUX7RQXcBTg+PVspi64BBhuwgMsAD9iT1hEoKkCAi3IzGALdChDgbj25GwJFBQhwUW4GQ6BbAQLcrSd3Q6CoAAEuys1gCHQrQIC79eRuCBQVIMBFuRkMgW4FCHC3ntwNgaICBLgoN4Mh0K0AAe7Wk7shUFSAABflZjAEuhXwGeDlXHq3pWb+Rmo+dPvE3A2BHIFwTGHllHRiXZqs5FxZpNZfgJdzNW82peWiCACDIGASmEwVTm24C7G/AM+eq/n3lcmUIgRKCoQvz0ir50oOmRzLXYCb7V952ZycNgqqCMSX02s/Vxn6oEH9Bfj1L66AaAaB/QLh9EVXIATY1XTQjHcBApyYoYafwN7X8Kj7I8AEeNQBGPrDE2ACPPQ1POr+CTABHnUAhv7wBJgAD30Nj7p/AkyARx2AoT88AU4FmI0cQ1/jR7d/NnIY5patlAYkSmoIsJXSos5hBosSNaUFOMyQIc5xwgwsSnsV4Dhhr7zcHIFRC7jbCz3q2eDhEcgUIMCZYJQj4EmAAHuaDXpBIFOAAGeCUY6AJwEC7Gk26AWBTAECnAlGOQKeBAiwp9mgFwQyBQhwJhjlCHgSIMCeZoNeEMgU8BlgtlJmTiPlvQmwlTKTlsMMmWCUFxHgMIORmeOERijKSgtwnNAgzn9mMCBRUkeAA/1pdz4XOm1ERT0BPlInYU+A6y1ORk4LEGACnF4lVLgVIMAE2O3ipLG0AAEmwOlVQoVbAQJMgN0uThpLCxBgApxeJVS4FSDABNjt4qSxtAABTgWY/8yQXkVU1BFgI4fBna2UBiRKagiwldKizmEGixI1pQU4zJAhznHCDCxKexXgOGGvvNwcgVEL+DzQP+op4eERsAsQYLsVlQi4EyDA7qaEhhCwCxBguxWVCLgTIMDupoSGELALEGC7FZUIuBMgwO6mhIYQsAsQYLsVlQi4EyDA7qaEhhCwC/gMMFsp7TNIZb8CbKXM9OUwQyYY5UUEOMxgZOY4oRGKstICHCc0iPOfGQxIlNQR4EB/2p0Pdk8bUVFPgI/USdgT4HqLk5HTAgSYAKdXCRVuBQgwAXa7OGksLUCACXB6lVDhVoAAE2C3i5PG0gIEmACnVwkVbgUIMAF2uzhpLC1AgFMB5j8zpFcRFXUE2MhhcGcrpQGJkhoCbKW0qHOYwaJETWkBDjNkiHOcMAOL0l4FOE7YKy83R2DUAj4P9I96Snh4BOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAgTYbkUlAu4ECLC7KaEhBOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAjHAO5JW7ZdQiQACTgRmMcBPJZ130hBtIICAXeBZDPAdSTft11CJAAJOBO7GAF+QtClp4qQp2kAAgbTAUtJGiHVN09yTdD19DRUIIOBE4H4I4cZegFckPZJ0yUlztIEAAgcLPJF0JYQw/xjg3Z/CMcS3JV3j5TRrBwGXAvFl8wNJt2J4Y4efArwvyPF34quSLkta5y0mlxNJU+MRmEnakvRY0sMQQnzX6NPX/y6PW84BwAvPAAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>此模块将会显示待我审核的“流水线人工卡点任务”与“代码合并请求”。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-18</t>
-  </si>
-  <si>
-    <t>serviceList</t>
-  </si>
-  <si>
-    <t>应用服务（最近使用）</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJQ0lEQVR4Xu2dT2tcVRiHf3cmmZAmsSMpaSwasFALrbgQqu3ChS5ENwp+hOKmWFBcVXAp2FW1UOlG+hEEu1Fc6MJFq4IL0YIWKkSpaWhw2iQNmWQyckorbUnm33vvPWfOeWbVwn3POb/nPQ89vTNzJ9Mjr3a7fVjS25JelTQnafLRa/g7BCBQGoEVSfOSvpH0eZZlvz04c3b/L+12uybpjKQTkiqlLY+JIACBXglsSTov6f0sy5qu6K7A9+T9StIrvY7EdRCAgDcC30p63Ul8X+Bzkt7xthwmhgAE+iXwWZZlJ7N7/+f9hWNzv/y4HgJeCbjj9HNO4E8kved1KUwOAQgMQuBTJ7C7q3VokGpqIAABrwSuOIGXeavIaxOYHAKDElhxArcHraYOAhDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAggsAkfxRDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAgEKfBCc10f/3lVlxr/3g13rP64Pnj6gGZrYz2FbbW21Gisab3Zkvszr3AIVKsVjdWqqtfH5f7My0YgOIGdvK/9fFmNjY2HktVHR/X180e7SuyEXbixrK0tvqNh2xrFVlcqmWb3TiGxEXNwAr/7+6/6cnFh21hvzszq7MFnO0ZeWlrVnbWH5TcyorwgArvGRzU9PVHQ6GkMG5zAL/zwvRab69vSn6mN6ccXX+rYmev/3ObYPCR71x2h9z3x2JCsNsxlRifwX383wiTNqrYl8NSTdcgYCAQnsPUIjcCG3eChFIFt0IMT2HoTC4FtG6LsagS2EQ9OYBfH8jYSAts2RNnVCGwjHqTAlkgIbKFXfm0ZAjeWt/TFdyv6Y76pWyutjiF3T1b1zFxNb708qfpU+O9TI3D5e5YZHyBQtMBO3o8uLGl1rb8P9EyMV/Th8engJUZgdPJKoGiBL1y8rZ+urA2U8cihcR1/I+y3uRB4oNZSlBeBogU+de5m12PzTlnccfr0yT15RS1kHAQuBCuD9kqgaIFPnL7R61K2ve78qb2m+qKLEbhowozfkQAC2zYIAtv4UW0kgMA2gAhs40e1kQAC2wAisI0f1UYCCGwDiMA2flQbCSCwDSAC2/hRbSSAwDaACGzjR7WRAALbAEYnMF/ot22IMqvL+EI/H+Qos6M5zMUjdXKAWNIQZTxSh49SltTMvKbhoXZ5kSx2nLIeaseXGYrtYyGj81jZQrDmMqiPx8rydcJcWscgEIBA3gSiu4mVNyDGg0DIBBA45O6wNgh0IYDAbBEIDDEBBB7i5rF0CCAwewACQ0wgSIE3N6XFmy2t3tnSZueHCA4x+jSXPlKVJnZVNLOnqpGRNBnkmTo4gZ281+Y31Wrx64J5Njq0sarVTPvnRpDY2JjgBL6+0NKt5f4eAWpkQLknArunKto3W/U0exzTBifw1WsbHJvj2FtdU7jj9IH9o12v44KdCSAwu8MbAQS2ow9OYI7Q9qYOywgcoe2dCk5gbmLZmzoMI3ATK58uBSewi8XbSPk0N8RReBsp364EKXC+ERkNAvESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIIDACTSZiPESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIBCkwAvNdX3851Vdavx7twXH6o/rg6cPaLY21lNL+HnRnjB5ucjHz4t6CVrSpMEJ7OR97efLamxsPISgPjqqr58/2lVifuC7pJ1jnKasH/g2LjP48uAEfvf3X/Xl4sK24N6cmdXZg892hLq0tKo7aw/LH3wXEl3grvFRTU9PJJo+n9jBCfzCD99rsbm+bbqZ2ph+fPGljsmv/3Nb7l9hXuETcMfpfU88Fv5CA15hdAL/9XcjYNws7VECTz1ZB4qBQHACW4/QCGzYDR5KEdgGPTiBrTexENi2IcquLkPgxvKWvvhuRX/MN3VrpfPPXe6erOqZuZreenlS9alK2Tj6ni84gV0Cy9tICNz3HvBaULTATt6PLixpda2/+yIT4xV9eHw6eImDFNiyoxDYQq/82qIFvnDxtn66sjZQsCOHxnX8jbBvsiHwQK2lKC8CRQt86tzNrsfmnbK44/Tpk3vyilrIOAhcCFYG7ZVA0QKfOH2j16Vse935U3tN9UUXI3DRhBm/IwEEtm0QBLbxo9pIAIFtABHYxo9qIwEEtgFEYBs/qo0EENgGEIFt/Kg2EkBgG0AEtvGj2kgAgW0AEdjGj2ojAQS2AURgGz+qjQSKFpgPchgbVHY5H6Usm7htvqIF5qOUtv6UXs0X+ktHPvCEZXyhny8zDNweP4U8UscP90FmLeuROnydcJDueKrhoXaewPc5LQ+16xPYDpdHdxPL5eSxsvlsjiJG4bGy+VKNUuB8ETEaBMIlgMDh9oaVQaArAQTuiogLIBAuAQQOtzesDAJdCSBwV0RcAIFwCSBwuL1hZRDoSiBIgTc3pcWbLa3e2dJm58f4dg3IBWERGKlKE7sqmtlT1chIWGsbxtUEJ7CT99r8plqt9jDyZM09EqhWM+2fG0HiHnntdFlwAl9faOnWcn8P4TYyoNwTgd1TFe2brXqaPY5pgxP46rUNjs1x7K2uKdxx+sD+0a7XccHOBBCY3eGNAALb0QcnMEdoe1OHZQSO0PZOBScwN7HsTR2GEbiJlU+XghPYxeJtpHyaG+IovI2Ub1eCFDjfiIwGgXgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABBE6gyUSMlwACx9tbkiVAAIETaDIR4yWAwPH2lmQJEEDgBJpMxHgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABJ/CypMkEshIRArERWHEC/ybpUGzJyAOBBAhccQJ/Ium9BMISEQKxEfjUCXxY0i+SKrGlIw8EIibgnvz4XOYCttvtc5LeiTgs0SAQG4HPsiw7eV/gmqSvJL0SW0ryQCBCAt9Kej3LsuZdge/9K+wkPiPpBMfpCFtOpBgIuGPzeUnvO3ldoP8FfkBk93/ityW9KmmOt5hi6DsZhpjAiqR5Sd9I+jzLMveu0f+v/wDfTq3dZ9XgHwAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
-    <t>此模块将显示我近7天操作过的应用服务，以便我能从工作台快速进入对应的代码仓库。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-19</t>
-  </si>
-  <si>
-    <t>quickLink</t>
-  </si>
-  <si>
-    <t>快速链接</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAH9klEQVR4Xu2dz2oUSxSHfzUTnfzTxKBR4eIDKPgQLgTfw43oQnwQdaG48T0EFz6EoA8gF9RRcqOZJCZmpi8VongDl67Tf6a6q74GF4FT3X2+U5/d09N1xunUVhTFDUl3Jd2WdE3S6ukY/oYABOZGYCLpg6TXkl465979eWT364+iKM5KeizpnqTB3E6PA0EAAqEEZpJeSHrknDv0g44FPpH3laRboXsiDgIQiEbgjaQ7XuJfAj+TdD/a6XBgCEDASuC5c+6BO/nM+5bbZis/4iEQlYC/nb7pBX4i6WHUU+HgEIBAFQJPvcD+qdb1KqMZAwEIRCXw3gu8w1dFUYvAwSFQlcDEC1xUHc04CEAgLgEEjsufo0OgFgEEroWPwRCISwCB4/Ln6BCoRQCBa+FjMATiEkDguPw5OgRqEUDgWvgYDIG4BBA4Ln+ODoFaBBC4Fj4GQyAuAQSOy5+jQ6AWAQSuhY/BEIhLAIHj8ufoEKhFoFcCz2aFfhwcHf87OprJ/+23wcBpYWGgxdHC8T//d5PbdCp925np4LDQdMqr402y7fq+hkOn0VmntXMDDYfdO9teCOxF3ZkcaG//ZxDB5aUzOrc6akRkL+/nL0c6+b8i6PgEpUfAXxMuX1ronMSdF/jg4Ej/fPvh+3aZZoVzThfWFjUaLZjGnQ7e2p5pb983P2DLncDy0kAb693q99hpgXf3DvV956DWvDl/bqSVZd9ws9r2cTzltrkauuRG+dvpq5vduo/urMD+yru1vd/IJNhYX6p8Jf7741Ej58BO0iDw19V6d3RNU+ikwP4z7/jrrvm2+f/g+NvpzYsrlT4TI3DTU67f+0PggPp9+/4j+IFVwO6OQ/yDrbXzi6Hhv+MQ2Iws6QEIXFJef/X9/MX/mkTz2+VLq+arMAI3X4c+7xGBS6rnvyryV+A2Nn8F9ldiy4bAFlrpxyJwSY39gyv/AKuNzX+l5B9oWTYEttBKPxaBS2rsH15Np+187zocDo4fZlk2BLbQSj8WgUtq/Gk8aezp8+lD+afRVzZtv5aKwOlLackQgRHYMl+I7RgBBOYWumNTktOxEEBgHmJZ5guxHSOAwCUF4Wukjs1YTuc/BBC4ZELwIgfGdJkAAgdUh1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgIdLInliUBYiGQMwEEzrn65N57Agjc+xKSQM4EEDjn6pN77wkgcO9LSAI5E0DgnKtP7r0ngMC9LyEJ5EwAgXOuPrn3ngAC976EJJAzgV4JzKuUOU/VOLnzKmUD3FnM0ABEdlGLAIsZKuJjOWFFcAxrnADLCY1IWdBvBEZ4qwRY0G/AS0sdAyxC50aAljoBqGlqFwCJkCgEEDgAO21lAyAREoUAApdgp7F7lHnJQQMJIHAJKH5aJXAmERaFAAKXYN/a3pd/gNXGNhotaGN9ybRrfh/YhCv5YAQuKfH4666m01krE2E4HGjz4opp3whswpV8MAKXlPjTeKKiKFqZCM45XdlcNe0bgU24kg9GYAROfpKnnCACcwud8vxOPjcE5iFW8pM85QQRmK+RUp7fyeeGwCUl5kWO5B3odYIIHFA+XqUMgERIFAIIHICdxQwBkAiJQgCBA7GznDAQFGFzJYDABtws6DfAIrR1Aizor4CYljoVoDGkFQK01KmIlaZ2FcExrDECNLVrACVtZRuAyC5MBGgra8JFMAQgYCHQq8bulsSIhUAOBBA4hyqTY7IEEDjZ0pJYDgQQOIcqk2OyBBA42dKSWA4EEDiHKpNjsgQQONnSklgOBBA4hyqTY7IEEDjZ0pJYDgR6JTCvUuYwJbuVI69SNlAPFjM0AJFd1CLAYoaK+FhOWBEcwxonwHJCI1IW9BuBEd4qARb0G/DSUscAi9C5EaClTgBqmtoFQCIkCgEEDsBOW9kASIREIYDAJdhp7B5lXnLQQAIIXAJqb/+n/BW4jW3t/KKWl86Yds3Pi5pwJR+MwCUl3trel3+A1cY2Gi1oY33JtGsENuFKPhiBS0o8/rqr6XTWykQYDgfavLhi2jcCm3AlH4zAJSX+NJ6oKIpWJoJzTlc2V037RmATruSDERiBk5/kKSeIwNxCpzy/k88NgXmIlfwkTzlBBOZrpJTnd/K5IXBJiXmRI3kHep0gAgeUj1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgI9KqxuyUxYiGQAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAQTOocrkmCwBBE62tCSWAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAS/wjiRbt/McyJAjBLpPYOIFfifpevfPlTOEAAROEXjvBX4i6SFoIACB3hF46gW+IemtpEHvTp8ThkC+BPwvAN50Pv+iKJ5Jup8vCzKHQO8IPHfOPfgl8FlJryTd6l0anDAE8iPwRtId59zhscAnV2Ev8WNJ97idzm9GkHEvCPjb5heSHnl5/Rn/FvgPkf1n4ruSbku6xldMvSgsJ5kugYmkD5JeS3rpnPPfGv3e/gX5X4nsitfWfwAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
-    <t>此模块将显示我所在项目共享的网址链接，同时支持创建个人的网址链接；以便从工作台快速进入目标地址。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-20</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>文档</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAI20lEQVR4Xu2dQW4UVxRFX9ndwQgnS2ABILEIBkjsgwmCAWIhCQOiTNgHEgMWgQQLYAnBCEO3XdFHOEJEcP/zLbpepU9PDNKtvr/Oe4c2GLeH+OYxjuPNiLgXEXci4npEHH+b4fcQgMDOCJxExNuIeBERz4ZheP1183Dxm3Ecf4mI3yPifkQc7Ox4FEEAAr0EziPir4h4PAzDp3bRZ4G/yPs8Im73PhM5CEBgNgIvI+Juk/hC4KcR8WC241AMAQhkCfw5DMPD4cvfeV/xaXOWH3kIzEqgfTp9qwn8R0Q8mvUolEMAApch8KQJ3P5V68ZlruYaCEBgVgJvmsDv+FLRrEOgHAKXJXDSBB4vezXXQQAC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYsAAlv4uBgC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYtASYHbf88+/XgW2+15e7cQ6wb/bxcPwxCr1UEcXTmM9uspHvD+PsWfwXuKmV08RzmB2zKdvN8grphyW6zja2tbYnj36TQV7762/lQ5gT+cbmOzOeu/gz1OrteHcfVoZRGAdz++KXj3t/Ulywn87uQTr759s/v86vvrcXsz0cs/4N3Pbgre/W19yXIC//3uY9/JSX0m8NuvVywS8M7hc3nn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65Np8sJzA+c1kO7SEzxA6fhvVve/W19yXICfzjdxmZz1nf6PU+t14dx9WhlUYB3P74pePe39SXLCTyOY5y830T7yOP7BNqr7/G1dbSPzgPeffSm4t3X1p8qJ3A7eluq049nsd2eI/I3s2yLtFodxNGVQ1vei6eG94//oJyad7+eOllSYH1sEhCAQCOAwOwBBBZMAIEXPDyODgEEZgcgsGACCLzg4XF0CCAwOwCBBRNA4AUPj6NDAIHZAQgsmAACL3h4HB0CCMwOQGDBBBB4wcPj6BBAYHYAAgsmUFJg/nP99zeKb2bYrW0/g/eUd1BOYL69rW+8U317G7x3y7uvrT9VTmC+wbx/eFN8gzm8d8u7v60vWU5g3uKlb3AtxVvq9LOaIjkF7ynO8fVzlBOYN1nLjdh9kzV475Z3rk2nEVgzKp1A4N2Ox+U99WkReGqiO34+d6F4Bc4NzOWda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nS4nMD/gWw/tIjHFD5yG925597f1JcsJ/OF0G5vNWd/p9zy1Xh/G1aOVRQHe/fim4N3f1pcsJ/A4jnHyfhPtI4/vE2ivvsfX1tE+Og9499GbindfW3+qnMDt6G2pTj+exXZ7jsjfzLIt0mp1EEdXDm15L54a3j/+g3Jq3v166mRJgfWxSUAAAo0AArMHEFgwAQRe8PA4OgQQmB2AwIIJIPCCh8fRIYDA7AAEFkwAgRc8PI4OAQRmByCwYAIIvODhcXQIIDA7AIEFE0DgBQ+Po0MAgdkBCCyYQBP4XUQcL/geODoE9pXASRP4dUTc2FcC3DcEFkzgTRP4j4h4tOCb4OgQ2FcCT5rANyPiVUQc7CsF7hsCCyRwHhG3Pr+dwziOTyPiwQJvgiNDYF8J/DkMw8MLgX+JiOcRcXtfaXDfEFgQgZcRcXcYhk//vqHSOI5N4t8j4j6fTi9olBx1nwi0T5v/iojHTd524/95R7Qvfye+FxF3IuI6X2Lap/3gXgsSOImItxHxIiKeDcPQvmr07+MffSSx3RPnCD8AAAAASUVORK5CYII=</t>
-  </si>
-  <si>
-    <t>此模块将显示我所在项目更新的知识库文档动态，同时支持筛选出我操作过的文档。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-21</t>
-  </si>
-  <si>
-    <t>envList</t>
-  </si>
-  <si>
-    <t>环境（最近使用）</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJMElEQVR4Xu2dT29UVRiHf3emM4UW7GBNrQRIJCEmYly4UFmwcWFwxZdgQzTRuOMTsFNMNGz8Eq4kLNyw8M+CBVETQ4IJEKwNlSn9A53pzDUHKaE4YXp5z73n9NxnVm1y3/Oe93nPk57eyT030zOfPM+PSzoj6UNJRyTte/YafocABCojsCrppqTLkr7Nsuy3pzNnW7/ked6W9IWks5IalU2PRBCAwE4JDCVdlPR5lmU9F/RI4Mfyfi/pg52OxHUQgEAwAj9I+shJvCXw15I+DjYdEkMAAkUJfJNl2SfZ4/95r7FtLsqP6yEQlIDbTr/tBP5S0mdBp0JyCEDgRQhccAK7u1pvvkg0MRCAQFACvzuBV/iqKGgTSA6BFyWw6gTOXzSaOAhAICwBBA7Ln+wQMBFAYBM+giEQlgACh+VPdgiYCCCwCR/BEAhLAIHD8ic7BEwEENiEj2AIhCWAwGH5kx0CJgIIbMJHMATCEkDgsPzJDgETAQQ24SMYAmEJIHBY/mSHgIlAlAIv9DZ0/s/r+rF771FxJzoHdO71Y5pvT+6o2MFgqG73gTZ6A7mf+cRDoNlsaLLdVKezV+7nMj7DYa619Z76/aE7bcaUIssytVoNTU+11Wg8OYHKNKbP4OgEdvKeuvqTuv3+tjo7rZYuvfP+WImdsAt/r8g1kU+8BJwM86/u9y6x63t3+aFZ3GfJOZE7M3uikzg6gT/941d9t7gwcuWdnpvXV2+89dxVubS0pvUH2+WPdxnXe2ZTe1uanZ32CmFldUO93sDrmFuDtdtN7d+3s11gKRMYMWh0Ar/78xUt9jZG1j/XntQv7518Lps7f91n21zV6jHmcVvog6+9ZBxle/g/9x54/+u7lcH9FX75wF6v87UOlpzAt253rUyIr5DA4UMdr9mW/ln3Ot6zg82+PFXq+EUHj05g6xYagYsugbDXI7CNf3QCW29iIbBtQVQdjcA24tEJ7MqxfI2EwLYFUXU0AtuIRymwpSQEttCrPhaBbcwR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBtABLbxI9pIAIFtABHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbwOQE5oF+24KoMrqMB/p5HrjKDpaQiyN1SoBa0pBlHKmDwCU1q6phOdSuKtK2PGUdaofAtr5EEc2xslG0YeQkyj5WFoHj7T0zg8BYAgg8FhEXQCBeAggcb2+YGQTGEkDgsYi4AALxEkDgeHvDzCAwlgACj0XEBRCIlwACR9CbzU1p8e5Aa+tDbZbzmpsIqqznFCaa0vRUQ3OvNDUx4Z8BAvtnWmhEJ++Nm5saDHi7YCFwu+ziZjPT0SMT3iVG4MAL4c7CQMsrvNM3cBsqST+zv6GD802vuRDYK87ig12/0WfbXBzbroxw2+ljR1te547AXnEWHwyBizPbrRFlCMzrRQOvBrbQgRtQYfoyttC84LvCBo5KxU2swA2oKH1ZN7GGw1zd5YfeX/LtXu7dmdkj9xRVTJ8oH+jna6SYlojfuZT9NZKbrZN4bb2nfn9oFtmJ22o1ND3Vjk5eV2uUAvtdMowGgXQJIHC6vaWyGhBA4Bo0mRLTJYDA6faWympAAIFr0GRKTJcAAqfbWyqrAQEErkGTKTFdAgicbm+prAYEELgGTabEdAkgcLq9pbIaEEDgGjSZEtMlgMDp9pbKakAAgWvQZEpMlwACp9tbKqsBAQSuQZMpMV0CCJxub6msBgSiFHiht6Hzf17Xj917j1pwonNA514/pvn25I5awutFd4QpyEVlv17UFcUD/UFa+19SJ++pqz+p2+9vm0Wn1dKld94fKzEv+A7YvAKpy3rBN0fqFGhCGZd++sev+m5xYeTQp+fm9dUbbz037dLSmtYfbJe/jHkypp3A1N6WZmen7QM9NQKH2nnFWXywd3++osXexsjAufakfnnv5HMHvfPXfbm/wnziJ+C20wdfe8nrRDlW1ivO4oNZBb51u1s8KRHBCBw+1PGam4PdveIsPph1C43AxZmHjEBgG/3o7kJbb2IhsG1BVB2NwDbi0QnsyrF8jYTAtgVRdTQC24hHKbClJAS20Ks+FoFtzBHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbQAS28SPaSACBbQAR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBvA5ATmgX7bgqgyuowH+nkeuMoOlpCLI3VKgFrSkGUcqYPAJTWrqmE51K4q0rY8ZR1qh8C2vkQRzbGyUbRh5CTKPlYWgePtPTODwFgCCDwWERdAIF4CCBxvb5gZBMYSQOCxiLgAAvESQOB4e8PMIDCWAAKPRcQFEIiXAAJH0JvNTWnx7kBr60NtDiKYEFPwRmCiKU1PNTT3SlMTE96GfTIQAvtnWmhEJ++Nm5saDPJCcVy8uwg0m5mOHpnwLjECB14HdxYGWl7h5WSB21BJ+pn9DR2cb3rNhcBecRYf7PqNPtvm4th2ZYTbTh872vI6dwT2irP4YAhcnNlujShDYF4vGng1sIUO3IAK05exheYF3xU2cFQqbmIFbkBF6cu6iTUc5uouP1Se+70JmmWZOjN75J6iiukT5QP9fI0U0xLxO5eyv0Zys3USr6331O8PzSI7cVuthqan2tHJ62qNUmC/S4bRIJAuAQROt7dUVgMCCFyDJlNiugQQON3eUlkNCCBwDZpMiekSQOB0e0tlNSCAwDVoMiWmSwCB0+0tldWAAALXoMmUmC4BBE63t1RWAwIIXIMmU2K6BBA43d5SWQ0IOIFXJO2rQa2UCIHUCKw6gX+T9GZqlVEPBGpA4Hcn8JeSPqtBsZQIgdQIXHACH5d0TVIjteqoBwIJE3AnP7796HiBPM+/lvRxwsVSGgRSI/BNlmWfbAnclvS9pA9Sq5J6IJAggR8kfZRlWe/JAT95njuJv5B0lu10gi2npBQIuG3zRUmfO3ldQf87oevx/8RnJH0o6QhfMaXQd2rYxQRWJd2UdFnSt1mWuW+Nnnz+BSgzMezwUYl+AAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>此模块将显示我近7天使用过的环境，以便我能从工作台快速进入对应的环境管理资源。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-22</t>
-  </si>
-  <si>
-    <t>selfCode</t>
-  </si>
-  <si>
-    <t>代码提交记录</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHZpZXdCb3g9IjAgMCAxMjAgNjYiPgogIDxnIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICA8cmVjdCB3aWR0aD0iMTIwIiBoZWlnaHQ9IjY2IiBmaWxsPSIjRkZGIiByeD0iNCIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTggMTApIj4KICAgICAgPHJlY3Qgd2lkdGg9IjU0IiBoZWlnaHQ9IjEwIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgcng9IjIiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iMTQiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cGF0aCBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgZD0iTTIsMjggTDUyLDI4IEM1My4xMDQ1Njk1LDI4IDU0LDI4Ljg5NTQzMDUgNTQsMzAgTDU0LDM2IEM1NCwzNy4xMDQ1Njk1IDUzLjEwNDU2OTUsMzggNTIsMzggTDI2LDM4IEwyNiwzOCBMMiwzOCBDMC44OTU0MzA1LDM4IDEuMzUyNzA3NWUtMTYsMzcuMTA0NTY5NSAwLDM2IEwwLDMwIEMtMS4zNTI3MDc1ZS0xNiwyOC44OTU0MzA1IDAuODk1NDMwNSwyOCAyLDI4IFoiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iNDIiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iMTQiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iNDIiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgPC9nPgogIDwvZz4KPC9zdmc+Cg==</t>
-  </si>
-  <si>
-    <t>用于展示我近7天的代码提交记录</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-23</t>
-  </si>
-  <si>
-    <t>myReport</t>
-  </si>
-  <si>
-    <t>我报告的</t>
-  </si>
-  <si>
-    <t>展示当前迭代中报告人是我的问题项。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-24</t>
-  </si>
-  <si>
-    <t>resourceManagement</t>
-  </si>
-  <si>
-    <t>resourceOverview</t>
-  </si>
-  <si>
-    <t>资源概览</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMTAwLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0ZGRkZGRiIgeD0iMCIgeT0iMCIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMUZDMkJCIiB4PSIxOSIgeT0iMTEiIHdpZHRoPSIyNCIgaGVpZ2h0PSIyMCIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMzdCMUVDIiB4PSI0OC41IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9Ijc4IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9IjE5IiB5PSIzNiIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiNGRDcyOUMiIHg9IjQ4LjUiIHk9IjM2IiB3aWR0aD0iMjQiIGhlaWdodD0iMjAiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-  </si>
-  <si>
-    <t>此模块将显示主机、集群、环境的数量概览</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-25</t>
-  </si>
-  <si>
-    <t>resourceMonitoring</t>
-  </si>
-  <si>
-    <t>资源池监控</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMjAzLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTAiIHdpZHRoPSI4MyIgaGVpZ2h0PSIxMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjI3IiB3aWR0aD0iODMiIGhlaWdodD0iMTIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSI0NCIgd2lkdGg9IjgzIiBoZWlnaHQ9IjEyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
-  </si>
-  <si>
-    <t>此模块将显示主机、集群的运行情况</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-26</t>
-  </si>
-  <si>
-    <t>notice</t>
-  </si>
-  <si>
-    <t>公告</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtNTEyLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0MTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjIxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSIzMSIgd2lkdGg9Ijg0IiBoZWlnaHQ9IjUiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iNDEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjUxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-27</t>
-  </si>
-  <si>
-    <t>myExecution</t>
-  </si>
-  <si>
-    <t>我执行的用例</t>
   </si>
   <si>
     <t>此模块展示当前进行的的测试计划中指派给我的用例。</t>
@@ -2306,10 +2291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2357,12 +2342,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2380,26 +2359,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2409,33 +2372,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2448,56 +2393,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2517,6 +2416,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2524,8 +2479,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2607,7 +2592,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2619,13 +2724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2643,19 +2748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,127 +2766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2804,28 +2789,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2850,12 +2819,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2864,13 +2842,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2885,6 +2861,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2894,17 +2879,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2924,6 +2909,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2939,26 +2942,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2973,180 +2976,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3158,112 +3143,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3598,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3606,7 +3591,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.3541666666667" style="8" customWidth="1"/>
@@ -3631,130 +3616,130 @@
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" ht="17" spans="3:7">
-      <c r="C4" s="12" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" ht="51" spans="3:6">
-      <c r="C9" s="17" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="68" spans="3:5">
-      <c r="C11" s="15" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="3:5">
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" ht="34" spans="3:5">
-      <c r="C15" s="20" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3763,39 +3748,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="17" spans="3:5">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="17" spans="3:4">
-      <c r="C20" s="23" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="17" spans="3:4">
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="3:4">
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="3:4">
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -3803,25 +3788,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" ht="51" spans="3:3">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3842,15 +3827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="19.9097222222222" customWidth="1"/>
     <col min="4" max="4" width="14.4652777777778" customWidth="1"/>
@@ -3878,18 +3863,18 @@
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>44389</v>
       </c>
       <c r="B7" t="s">
@@ -3901,16 +3886,16 @@
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3943,7 +3928,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>44389</v>
       </c>
       <c r="B11" t="s">
@@ -3955,13 +3940,13 @@
       <c r="D11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H11" t="s">
@@ -4143,42 +4128,42 @@
         <v>78</v>
       </c>
       <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
         <v>103</v>
       </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="5:17">
       <c r="E17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -4187,7 +4172,7 @@
         <v>108</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -4196,7 +4181,7 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P17" t="s">
         <v>109</v>
@@ -4213,71 +4198,71 @@
         <v>78</v>
       </c>
       <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
         <v>112</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>113</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
         <v>114</v>
       </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>115</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="5:17">
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
         <v>118</v>
       </c>
-      <c r="I19" t="s">
-        <v>119</v>
-      </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" t="s">
         <v>120</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="5:17">
       <c r="E20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
         <v>78</v>
@@ -4286,80 +4271,80 @@
         <v>79</v>
       </c>
       <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s">
         <v>123</v>
       </c>
-      <c r="I20" t="s">
-        <v>124</v>
-      </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" t="s">
         <v>125</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="5:17">
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
         <v>78</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" t="s">
         <v>128</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
         <v>129</v>
       </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>130</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="5:17">
       <c r="E22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
         <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
         <v>133</v>
-      </c>
-      <c r="I22" t="s">
-        <v>134</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4374,79 +4359,79 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" t="s">
         <v>135</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="5:17">
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
         <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
         <v>138</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" t="s">
         <v>139</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="P23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="5:17">
       <c r="E24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
         <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="P24" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4458,106 +4443,106 @@
         <v>78</v>
       </c>
       <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="J25">
         <v>7</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>7</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="5:17">
       <c r="E26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="G26" t="s">
-        <v>147</v>
+      <c r="G26" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J26">
-        <v>7</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="P26" s="6" t="s">
+      <c r="Q26" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="5:17">
       <c r="E27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="J27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27">
         <v>4</v>
       </c>
       <c r="P27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="5:17">
       <c r="E28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
@@ -4566,13 +4551,13 @@
         <v>90</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="J28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -4584,163 +4569,153 @@
         <v>4</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="5">
+        <v>44389</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="5:17">
-      <c r="E29" t="s">
+      <c r="D30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q29" s="6" t="s">
+      <c r="G30" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2">
-        <v>44389</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="H30" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="L30" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="4" t="s">
+    </row>
+    <row r="31" spans="5:12">
+      <c r="E31" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" t="s">
-        <v>176</v>
-      </c>
-      <c r="L31" t="s">
-        <v>177</v>
+      <c r="G31" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H31" t="str">
+        <f>E12</f>
+        <v>fd_dashboard_card-11</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="5:12">
       <c r="E32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G32" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H32" t="str">
-        <f>E12</f>
-        <v>fd_dashboard_card-11</v>
+        <f>E14</f>
+        <v>fd_dashboard_card-13</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G33" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H33" t="str">
-        <f>E14</f>
-        <v>fd_dashboard_card-13</v>
+        <f>E15</f>
+        <v>fd_dashboard_card-14</v>
       </c>
       <c r="I33">
         <v>5</v>
       </c>
       <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
         <v>4</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="5:12">
       <c r="E34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H34" t="str">
-        <f>E15</f>
-        <v>fd_dashboard_card-14</v>
+        <f>E18</f>
+        <v>fd_dashboard_card-18</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
         <v>4</v>
-      </c>
-      <c r="L34">
-        <v>6</v>
       </c>
     </row>
     <row r="35" spans="5:12">
       <c r="E35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
@@ -4748,7 +4723,7 @@
       </c>
       <c r="H35" t="str">
         <f>E19</f>
-        <v>fd_dashboard_card-18</v>
+        <v>fd_dashboard_card-19</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -4760,137 +4735,137 @@
         <v>9</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:12">
       <c r="E36" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H36" t="str">
-        <f>E20</f>
-        <v>fd_dashboard_card-19</v>
+        <f t="shared" ref="H36:H41" si="0">E21</f>
+        <v>fd_dashboard_card-21</v>
       </c>
       <c r="I36">
         <v>3</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K36">
         <v>9</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="5:12">
       <c r="E37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G37" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ref="H37:H42" si="0">E22</f>
-        <v>fd_dashboard_card-21</v>
+        <f>E20</f>
+        <v>fd_dashboard_card-20</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="5:12">
       <c r="E38" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G38" t="str">
-        <f>E8</f>
+        <f t="shared" ref="G38:G40" si="1">E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H38" t="str">
-        <f>E21</f>
-        <v>fd_dashboard_card-20</v>
+        <f>E17</f>
+        <v>fd_dashboard_card-17</v>
       </c>
       <c r="I38">
         <v>4</v>
       </c>
       <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
         <v>5</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="5:12">
       <c r="E39" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" ref="G39:G41" si="1">E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H39" t="str">
-        <f>E18</f>
-        <v>fd_dashboard_card-17</v>
-      </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39">
-        <v>4</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12">
-      <c r="E40" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" t="str">
         <f t="shared" si="1"/>
         <v>fd_dashboard-9</v>
       </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>fd_dashboard_card-24</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="5:12">
+      <c r="E40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" t="str">
+        <f>E9</f>
+        <v>fd_dashboard-9</v>
+      </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>fd_dashboard_card-24</v>
+        <v>fd_dashboard_card-25</v>
       </c>
       <c r="I40">
         <v>7</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="5:12">
       <c r="E41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G41" t="str">
         <f>E9</f>
@@ -4898,43 +4873,18 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>fd_dashboard_card-25</v>
+        <v>fd_dashboard_card-26</v>
       </c>
       <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
         <v>7</v>
       </c>
-      <c r="J41">
-        <v>7</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="5:12">
-      <c r="E42" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" t="str">
-        <f>E9</f>
-        <v>fd_dashboard-9</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>fd_dashboard_card-26</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>7</v>
-      </c>
-      <c r="L42">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144C887-40B4-274B-8CE4-9B67A7BCF5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19360" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21731" windowHeight="10020" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,30 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="198">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -55,7 +37,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -65,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -78,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +67,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -98,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -108,7 +85,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -118,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -128,7 +103,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -138,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -170,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -180,7 +152,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -190,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -200,7 +170,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -210,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -220,7 +188,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -233,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -244,7 +210,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -255,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -266,7 +230,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -277,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -289,7 +251,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -299,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -311,7 +271,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -321,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -333,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -343,7 +300,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -353,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -365,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -375,7 +329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -385,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -395,7 +347,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -405,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -415,7 +365,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -425,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -435,7 +383,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -445,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -455,7 +401,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -485,7 +430,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -495,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -505,7 +448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -515,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -525,7 +466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -535,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -545,7 +484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -555,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -567,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -577,7 +513,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -587,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -597,7 +531,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -607,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -617,7 +549,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -628,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -638,7 +568,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -648,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -658,7 +586,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -669,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -679,7 +605,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -689,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -701,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -711,7 +634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -721,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -731,7 +652,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -741,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -756,7 +675,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -766,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -776,7 +693,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -786,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -796,7 +711,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -806,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -816,7 +729,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -826,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -836,7 +747,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -846,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -858,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -868,7 +776,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -878,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -889,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -900,7 +805,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -911,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -922,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -932,7 +834,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -942,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -952,7 +852,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -962,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -977,7 +875,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -987,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -997,7 +893,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1007,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -1017,7 +911,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1028,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1038,7 +930,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1049,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1059,7 +949,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1070,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1080,7 +968,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1092,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1102,7 +988,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1113,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1123,7 +1007,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1140,7 +1023,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1150,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1162,7 +1043,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1172,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1184,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1194,7 +1072,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1204,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1214,7 +1090,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1226,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1236,7 +1110,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1246,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1259,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1269,7 +1140,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1279,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1289,7 +1158,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1299,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1309,7 +1176,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1319,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1334,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1344,7 +1208,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1354,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1364,7 +1226,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1374,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1384,7 +1244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1394,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1404,7 +1262,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1414,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1430,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1440,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1450,7 +1304,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1460,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1476,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1486,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1496,7 +1346,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1506,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1521,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1531,7 +1378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1541,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1551,7 +1396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1561,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1571,7 +1414,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1582,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1592,7 +1433,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1607,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1617,7 +1456,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1627,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1637,7 +1474,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1647,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1657,7 +1492,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1668,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1678,7 +1511,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1690,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1701,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1711,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1723,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1733,7 +1561,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1743,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1753,7 +1579,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1763,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1773,7 +1597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1783,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1794,7 +1616,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1804,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1814,7 +1634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1824,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1834,7 +1652,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1844,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1854,7 +1670,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1865,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1875,7 +1689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1885,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1895,7 +1707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1905,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1915,7 +1725,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1925,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1935,7 +1743,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1946,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1958,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1969,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1979,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1991,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -2001,7 +1803,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2011,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -2023,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -2033,7 +1832,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -2043,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -2053,7 +1850,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -2064,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2104,21 +1899,120 @@
     <t>#dashboard_type</t>
   </si>
   <si>
+    <t>dashboard_name:zh_CN</t>
+  </si>
+  <si>
+    <t>dashboard_name:en_US</t>
+  </si>
+  <si>
     <t>default_flag</t>
   </si>
   <si>
+    <t>#dashboard_code</t>
+  </si>
+  <si>
     <t>fd_dashboard-8</t>
   </si>
   <si>
     <t>INTERNAL</t>
   </si>
   <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>roject</t>
+    </r>
+  </si>
+  <si>
     <t>fd_dashboard-9</t>
   </si>
   <si>
     <t>资源管理</t>
   </si>
   <si>
+    <t>Resource management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>esource</t>
+    </r>
+  </si>
+  <si>
+    <t>fd_dashboard-10</t>
+  </si>
+  <si>
+    <t>甘特图</t>
+  </si>
+  <si>
+    <t>Gantt</t>
+  </si>
+  <si>
+    <t>gantt</t>
+  </si>
+  <si>
+    <t>fd_dashboard-11</t>
+  </si>
+  <si>
+    <t>工时</t>
+  </si>
+  <si>
+    <t>Time Tracking</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+  </si>
+  <si>
     <t>卡片</t>
   </si>
   <si>
@@ -2212,6 +2106,9 @@
     <t>待办事项</t>
   </si>
   <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIiB3aWR0aD0iMTI4IiBoZWlnaHQ9Ijc0IiB2aWV3Qm94PSIwIDAgMTI4IDc0Ij4KICA8ZGVmcz4KICAgIDxyZWN0IGlkPSLku6Plip7kuovpobktYiIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgeD0iMCIgeT0iMCIgcng9IjQiLz4KICAgIDxmaWx0ZXIgaWQ9IuS7o+WKnuS6i+mhuS1hIiB3aWR0aD0iMTEwLjglIiBoZWlnaHQ9IjExOS43JSIgeD0iLTUuNCUiIHk9Ii04LjMlIiBmaWx0ZXJVbml0cz0ib2JqZWN0Qm91bmRpbmdCb3giPgogICAgICA8ZmVPZmZzZXQgZHk9IjEiIGluPSJTb3VyY2VBbHBoYSIgcmVzdWx0PSJzaGFkb3dPZmZzZXRPdXRlcjEiLz4KICAgICAgPGZlR2F1c3NpYW5CbHVyIGluPSJzaGFkb3dPZmZzZXRPdXRlcjEiIHJlc3VsdD0ic2hhZG93Qmx1ck91dGVyMSIgc3RkRGV2aWF0aW9uPSIyIi8+CiAgICAgIDxmZUNvbG9yTWF0cml4IGluPSJzaGFkb3dCbHVyT3V0ZXIxIiB2YWx1ZXM9IjAgMCAwIDAgMC4wNTQ5MDE5NjA4ICAgMCAwIDAgMCAwLjExMzcyNTQ5ICAgMCAwIDAgMCAwLjUwMTk2MDc4NCAgMCAwIDAgMC4xNiAwIi8+CiAgICA8L2ZpbHRlcj4KICA8L2RlZnM+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg0IDMpIj4KICAgIDx1c2UgZmlsbD0iI0ZGRiIgeGxpbms6aHJlZj0iI+S7o+WKnuS6i+mhuS1iIi8+CiAgICA8cmVjdCB3aWR0aD0iODQiIGhlaWdodD0iNiIgeD0iMTgiIHk9IjEwIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xNiIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSI2MCIgaGVpZ2h0PSI3IiB4PSIxOCIgeT0iMjMiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA2IiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjY4IiBoZWlnaHQ9IjciIHg9IjE4IiB5PSIzNiIgZmlsbD0iIzBFMUQ4MCIgZmlsbC1vcGFjaXR5PSIuMDYiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iNDAiIGhlaWdodD0iNyIgeD0iMTgiIHk9IjQ5IiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4wNiIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSIxMiIgaGVpZ2h0PSI3IiB4PSI5MCIgeT0iMjMiIGZpbGw9IiNGQUFEMTQiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iMTIiIGhlaWdodD0iNyIgeD0iOTAiIHk9IjM2IiBmaWxsPSIjNEQ5MEZFIiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjEyIiBoZWlnaHQ9IjciIHg9IjkwIiB5PSI0OSIgZmlsbD0iIzFGQzJCQiIgcng9IjIiLz4KICA8L2c+Cjwvc3ZnPgo=</t>
+  </si>
+  <si>
     <t>展示当前迭代我待办的问题项，以便高效完成工作计划。</t>
   </si>
   <si>
@@ -2230,201 +2127,186 @@
     <t>展示我关注的特性、问题项、需求，以便我能快速了解关注的工作内容和进展情况。</t>
   </si>
   <si>
-    <t>fd_dashboard_card-15</t>
-  </si>
-  <si>
-    <t>backlog</t>
-  </si>
-  <si>
-    <t>backlogApprove</t>
-  </si>
-  <si>
-    <t>需求待审核</t>
+    <t>fd_dashboard_card-16</t>
+  </si>
+  <si>
+    <t>myDefect</t>
+  </si>
+  <si>
+    <t>我的缺陷</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAIUUlEQVR4Xu2dS2wVVRjH/9MXVFqFArVERfAREl4LE19RQoKGwEYTXbphwUICEYIrV8aVK3kYCC5YsHGpiW4gREkIGl+JC14J8QGiBixQ0BYL7e29ZgglFSgzZ85M5zt3fuwazvnm+37f+WWmnXPujXTbv0ajsUTSekmrJc2X1HX7GH6GAASmjMCQpLOSDkraG0XRiYlXjsZ/aDQaHZK2SdogqWXK0uNCEIBAWgJ1SXskbY2iaCSedEPgm/Lul7QqbSTGQQACpRE4JGltLPG4wLskbSwtHS4MAQi4EtgdRdGm6ObvvEd5bHblx3gIlEogfpxeHgu8XdKWUlPh4hCAQBYCO2KB479qLc4ymzkQgECpBE7GAg/yqqjUJnBxCGQlMBQL3Mg6m3kQgEC5BBC4XP5cHQJeBBDYCx+TIVAuAQQulz9Xh4AXAQT2wsdkCJRLAIHL5c/VIeBFAIG98DEZAuUSQOBy+XN1CHgRQGAvfEyGQLkEELhc/lwdAl4EENgLH5MhUC4BBC6XP1eHgBcBkwLXanVduHRV/w6PqlYb8yqQyRDwIdDW1qr7Ots1d/YMtbXZ+6QpcwLH8p4+O6B6nTMWPguPufkSaGmJtHB+jzmJzQl87q9B/TN4LV/6RINADgTu756ueQ925xApvxDmBP7lzACPzfn1l0g5Eogfpx9f0JNjRP9Q5gQ+9fMF/6qIAIGCCCx6Ym5BkbOFReBs3JhVUQIInNB47sAVNSOQshEYgQNZqqR5NwIInLAu+CMW4lglwB+xUnSG10gpIDGkFAK8RkqBnY0cKSAxZMoJsJHDATlbKR1gMbRQAmylLBQvwSFQbQLm3gNXux1UDwE3AgjsxovREDBFAIFNtYNkIOBGAIHdeDEaAqYIILCpdpAMBNwIILAbL0ZDwBQBBDbVDpKBgBsBBHbjxWgImCKAwKbaQTIQcCOAwG68GA0BUwQQ2FQ7SAYCbgQQ2I0XoyFgigACm2oHyUDAjYBNgWt1aWBQGr4ujdXdKmK0LQKtLVLnNKmnW5qqbzYYPqex4++pcfFrNYbPe/GIOvsUzXlBrUvflTrnecUqYrI9gWN5/7yIuEV0u8yYscgPzSle4uFzqn25Uo2Ry7lWG3XMUttLh81JbE/g/r+loeFc4RPMCIGuTqn3gUKTGfvhTdV//6SQa7Q88rpan/6okNhZg9oT+Ld+7r5Zu2l9XnwXfrS30Cxr+5d5PzZPlmD8ON229lih+bsGtyfwr36/s7gCYPwUE3isr9ALjn5a7DcntL9m65tDELjQ5UTwOwggcK6LAoFzxUmwRAIInIjIZQACu9BirD8BBPZnOCECAueKk2CJBBA4EZHLAAR2ocVYfwII7M/Q9B2Y10i5NthUMF4j5d4Oe3dgNnLk3mQzAdnIkXsr7AnMVsrcm2wiIFspC2mDPYHjMjnMUEizSwnKYYZCsdsUuNCSCQ6B5iGAwM3TSyqpIAEErmDTKbl5CCBw8/SSSipIAIEr2HRKbh4CCNw8vaSSChJA4Ao2nZKbhwACN08vqaSCBBC4gk2n5OYhgMDN00sqqSABBK5g0ym5eQggcPP0kkoqSMCmwBxmqOBSnKTkDIchLg1J+76Sjv0hDVxteLHsmRFp2cPSuhel2V1eoQqZbE9gjhMW0ujgg6Y8jhjL+9bH0uA1P3Fv59U9PdKHb9iT2J7AHOgP3rXCCkjxgQAfHJAOn8pX3vF6Vi6K9PaawqrLFNiewHykTqZGVmJSio/kWbfX/7F5Mpbx4/S+9bZI2xOYb2awtUKsZZPwoXiv7Czm7juO4fPNkSkiCGyqHSSTSACB/4cIgRNXDANMEUBgBDa1IEnGjQACI7DbimG0KQIIjMCmFiTJuBFAYOMC8xrJbUFXaTSvke7otr0/YrGRo0pKutXKRo4ABGYrpduirspotlLetdP27sBxmhxmqIqWyXVymOGejGwKnNxWRkAAApIQmGUAgYAJIHDAzSN1CCAwawACARNA4ICbR+oQQGDWAAQCJoDAATeP1CGAwKwBCARMAIEDbh6pQwCBWQMQCJgAAgfcPFKHAAKzBiAQMAGbAnOYIf2SyrDZP33wMEeeH7mu90//pG+uXFb/yHWvIno7pun5mbP0zsIn1dcxzStWEZPtCcxxwmx9TnncLlvwcGbF8q758VtdGR3NNemZ7e068NRz5iS2JzAH+rMvvBQH3rMHD2Pm5lPH9Vn/+UKSfbW3TzsXLS0kdtag9gTmI3Wy9lJK8ZEz2YOHMfOZ7454PzZPVmn8OP39sytMgbAnMN/M4LdAEj70zS+4/dkLjnxRaJJnVrxcaHzX4AjsSsz6eAQutEMInISXO3ASoXv/PwL78UuYjcBJeBE4iRAC34MAj9B+y8d/NgL7MeQO7MePO7AnPwT2A4jAfvwQ2JMfr5GyA+Q1kniNlH355DOTjRzZObKRQ2zkyL588pnJVspsHNlKeYMbWymzLZ98Z3GYIT1PDjPcwYrDDOmXDyMhAIESCdjbiVUiDC4NgdAIIHBoHSNfCEwggMAsBwgETACBA24eqUMAgVkDEAiYAAIH3DxShwACswYgEDABBA64eaQOAQRmDUAgYAIIHHDzSB0CCMwagEDABGKBByV1BVwDqUOgqgSGYoFPSFpcVQLUDYGACZyMBd4uaUvARZA6BKpKYEcs8BJJRyW1VJUCdUMgQAJ1ScujOPFGo7FL0sYAiyBlCFSVwO4oijaNC9whab+kVVWlQd0QCIjAIUlroygauSHwzbtwLPE2SRt4nA6olaRaJQLxY/MeSVtjeePCbwk8QeT4d+L1klZLms8rpiqtD2o1SGBI0llJByXtjaIofmt0699/a1AJ3Qj25TEAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>展示当前迭代我提交的和待我修复的缺陷，以便我能及时处理风险漏洞。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-17</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>todoThings</t>
+  </si>
+  <si>
+    <t>待审核</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAG1UlEQVR4Xu3dQWtVRxjG8Wdur6m1sUJUSjehpUJBIZtuXLsQ/B5uRBfiB1EXihu/h+DCdTfdBBQKlpZspKgBm6u219t7ykgiQQjzTs45M+/J+WcXeM+Z9/xmHnKTO3MT9NlX0zQXJF2VdFnSuqTVz2v4HgEEignMJG1JeizpYQjh6f6Rw943TdOsSLot6ZqkSbH2GAgBBKwCS0kPJN0KIczjRR8DvBveR5IuWe9EHQIIVBN4IulKDPFegO9Jul6tHQZGAIFcgfshhBth93feTV425/pRj0BVgfhyeiMG+I6km1VbYXAEEDiMwN0Y4PhXrfOHuZprEECgqsCzGOAd3iqqOgkMjsBhBWYxwM1hr+Y6BBCoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQSIMCt+LgYgboCBLiuP6Mj0EqAALfi42IE6goQ4Lr+jI5AKwEC3IqPixGoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQScBngxWKpl6/f6t37D1os/mv1gN4unk6/0Imvjuns6a81nfLJRd7mZ2j9uAtwDO8fW9taLo/2GYvJJOiH9TVCPLTEOOvXXYBf/LWjv3f+ccbUTzvfnDyu77492c/NuesoBNwF+Pc/t4/cy+aDVlJ8Of3j92ujWGg8ZD8C7gL82/OX/Typ07v+dO6s085oawgCBLjyLBHgyhMw8OEJcOUJJMCVJ2DgwxPgyhNIgCtPwMCHdxdg/og18BVF+0UF3AWYt5GKzj+DDVzAXYDZyDHwFUX7RQXcBTg+PVspi64BBhuwgMsAD9iT1hEoKkCAi3IzGALdChDgbj25GwJFBQhwUW4GQ6BbAQLcrSd3Q6CoAAEuys1gCHQrQIC79eRuCBQVIMBFuRkMgW4FCHC3ntwNgaICBLgoN4Mh0K0AAe7Wk7shUFSAABflZjAEuhXwGeDlXHq3pWb+Rmo+dPvE3A2BHIFwTGHllHRiXZqs5FxZpNZfgJdzNW82peWiCACDIGASmEwVTm24C7G/AM+eq/n3lcmUIgRKCoQvz0ir50oOmRzLXYCb7V952ZycNgqqCMSX02s/Vxn6oEH9Bfj1L66AaAaB/QLh9EVXIATY1XTQjHcBApyYoYafwN7X8Kj7I8AEeNQBGPrDE2ACPPQ1POr+CTABHnUAhv7wBJgAD30Nj7p/AkyARx2AoT88AU4FmI0cQ1/jR7d/NnIY5patlAYkSmoIsJXSos5hBosSNaUFOMyQIc5xwgwsSnsV4Dhhr7zcHIFRC7jbCz3q2eDhEcgUIMCZYJQj4EmAAHuaDXpBIFOAAGeCUY6AJwEC7Gk26AWBTAECnAlGOQKeBAiwp9mgFwQyBQhwJhjlCHgSIMCeZoNeEMgU8BlgtlJmTiPlvQmwlTKTlsMMmWCUFxHgMIORmeOERijKSgtwnNAgzn9mMCBRUkeAA/1pdz4XOm1ERT0BPlInYU+A6y1ORk4LEGACnF4lVLgVIMAE2O3ipLG0AAEmwOlVQoVbAQJMgN0uThpLCxBgApxeJVS4FSDABNjt4qSxtAABTgWY/8yQXkVU1BFgI4fBna2UBiRKagiwldKizmEGixI1pQU4zJAhznHCDCxKexXgOGGvvNwcgVEL+DzQP+op4eERsAsQYLsVlQi4EyDA7qaEhhCwCxBguxWVCLgTIMDupoSGELALEGC7FZUIuBMgwO6mhIYQsAsQYLsVlQi4EyDA7qaEhhCwC/gMMFsp7TNIZb8CbKXM9OUwQyYY5UUEOMxgZOY4oRGKstICHCc0iPOfGQxIlNQR4EB/2p0Pdk8bUVFPgI/USdgT4HqLk5HTAgSYAKdXCRVuBQgwAXa7OGksLUCACXB6lVDhVoAAE2C3i5PG0gIEmACnVwkVbgUIMAF2uzhpLC1AgFMB5j8zpFcRFXUE2MhhcGcrpQGJkhoCbKW0qHOYwaJETWkBDjNkiHOcMAOL0l4FOE7YKy83R2DUAj4P9I96Snh4BOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAgTYbkUlAu4ECLC7KaEhBOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAjHAO5JW7ZdQiQACTgRmMcBPJZ130hBtIICAXeBZDPAdSTft11CJAAJOBO7GAF+QtClp4qQp2kAAgbTAUtJGiHVN09yTdD19DRUIIOBE4H4I4cZegFckPZJ0yUlztIEAAgcLPJF0JYQw/xjg3Z/CMcS3JV3j5TRrBwGXAvFl8wNJt2J4Y4efArwvyPF34quSLkta5y0mlxNJU+MRmEnakvRY0sMQQnzX6NPX/y6PW84BwAvPAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>此模块将会显示待我审核的“流水线人工卡点任务”与“代码合并请求”。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-18</t>
+  </si>
+  <si>
+    <t>serviceList</t>
+  </si>
+  <si>
+    <t>应用服务（最近使用）</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJQ0lEQVR4Xu2dT2tcVRiHf3cmmZAmsSMpaSwasFALrbgQqu3ChS5ENwp+hOKmWFBcVXAp2FW1UOlG+hEEu1Fc6MJFq4IL0YIWKkSpaWhw2iQNmWQyckorbUnm33vvPWfOeWbVwn3POb/nPQ89vTNzJ9Mjr3a7fVjS25JelTQnafLRa/g7BCBQGoEVSfOSvpH0eZZlvz04c3b/L+12uybpjKQTkiqlLY+JIACBXglsSTov6f0sy5qu6K7A9+T9StIrvY7EdRCAgDcC30p63Ul8X+Bzkt7xthwmhgAE+iXwWZZlJ7N7/+f9hWNzv/y4HgJeCbjj9HNO4E8kved1KUwOAQgMQuBTJ7C7q3VokGpqIAABrwSuOIGXeavIaxOYHAKDElhxArcHraYOAhDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAggsAkfxRDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAgEKfBCc10f/3lVlxr/3g13rP64Pnj6gGZrYz2FbbW21Gisab3Zkvszr3AIVKsVjdWqqtfH5f7My0YgOIGdvK/9fFmNjY2HktVHR/X180e7SuyEXbixrK0tvqNh2xrFVlcqmWb3TiGxEXNwAr/7+6/6cnFh21hvzszq7MFnO0ZeWlrVnbWH5TcyorwgArvGRzU9PVHQ6GkMG5zAL/zwvRab69vSn6mN6ccXX+rYmev/3ObYPCR71x2h9z3x2JCsNsxlRifwX383wiTNqrYl8NSTdcgYCAQnsPUIjcCG3eChFIFt0IMT2HoTC4FtG6LsagS2EQ9OYBfH8jYSAts2RNnVCGwjHqTAlkgIbKFXfm0ZAjeWt/TFdyv6Y76pWyutjiF3T1b1zFxNb708qfpU+O9TI3D5e5YZHyBQtMBO3o8uLGl1rb8P9EyMV/Th8engJUZgdPJKoGiBL1y8rZ+urA2U8cihcR1/I+y3uRB4oNZSlBeBogU+de5m12PzTlnccfr0yT15RS1kHAQuBCuD9kqgaIFPnL7R61K2ve78qb2m+qKLEbhowozfkQAC2zYIAtv4UW0kgMA2gAhs40e1kQAC2wAisI0f1UYCCGwDiMA2flQbCSCwDSAC2/hRbSSAwDaACGzjR7WRAALbAEYnMF/ot22IMqvL+EI/H+Qos6M5zMUjdXKAWNIQZTxSh49SltTMvKbhoXZ5kSx2nLIeaseXGYrtYyGj81jZQrDmMqiPx8rydcJcWscgEIBA3gSiu4mVNyDGg0DIBBA45O6wNgh0IYDAbBEIDDEBBB7i5rF0CCAwewACQ0wgSIE3N6XFmy2t3tnSZueHCA4x+jSXPlKVJnZVNLOnqpGRNBnkmTo4gZ281+Y31Wrx64J5Njq0sarVTPvnRpDY2JjgBL6+0NKt5f4eAWpkQLknArunKto3W/U0exzTBifw1WsbHJvj2FtdU7jj9IH9o12v44KdCSAwu8MbAQS2ow9OYI7Q9qYOywgcoe2dCk5gbmLZmzoMI3ATK58uBSewi8XbSPk0N8RReBsp364EKXC+ERkNAvESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIIDACTSZiPESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIBCkwAvNdX3851Vdavx7twXH6o/rg6cPaLY21lNL+HnRnjB5ucjHz4t6CVrSpMEJ7OR97efLamxsPISgPjqqr58/2lVifuC7pJ1jnKasH/g2LjP48uAEfvf3X/Xl4sK24N6cmdXZg892hLq0tKo7aw/LH3wXEl3grvFRTU9PJJo+n9jBCfzCD99rsbm+bbqZ2ph+fPGljsmv/3Nb7l9hXuETcMfpfU88Fv5CA15hdAL/9XcjYNws7VECTz1ZB4qBQHACW4/QCGzYDR5KEdgGPTiBrTexENi2IcquLkPgxvKWvvhuRX/MN3VrpfPPXe6erOqZuZreenlS9alK2Tj6ni84gV0Cy9tICNz3HvBaULTATt6PLixpda2/+yIT4xV9eHw6eImDFNiyoxDYQq/82qIFvnDxtn66sjZQsCOHxnX8jbBvsiHwQK2lKC8CRQt86tzNrsfmnbK44/Tpk3vyilrIOAhcCFYG7ZVA0QKfOH2j16Vse935U3tN9UUXI3DRhBm/IwEEtm0QBLbxo9pIAIFtABHYxo9qIwEEtgFEYBs/qo0EENgGEIFt/Kg2EkBgG0AEtvGj2kgAgW0AEdjGj2ojAQS2AURgGz+qjQSKFpgPchgbVHY5H6Usm7htvqIF5qOUtv6UXs0X+ktHPvCEZXyhny8zDNweP4U8UscP90FmLeuROnydcJDueKrhoXaewPc5LQ+16xPYDpdHdxPL5eSxsvlsjiJG4bGy+VKNUuB8ETEaBMIlgMDh9oaVQaArAQTuiogLIBAuAQQOtzesDAJdCSBwV0RcAIFwCSBwuL1hZRDoSiBIgTc3pcWbLa3e2dJm58f4dg3IBWERGKlKE7sqmtlT1chIWGsbxtUEJ7CT99r8plqt9jDyZM09EqhWM+2fG0HiHnntdFlwAl9faOnWcn8P4TYyoNwTgd1TFe2brXqaPY5pgxP46rUNjs1x7K2uKdxx+sD+0a7XccHOBBCY3eGNAALb0QcnMEdoe1OHZQSO0PZOBScwN7HsTR2GEbiJlU+XghPYxeJtpHyaG+IovI2Ub1eCFDjfiIwGgXgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABBE6gyUSMlwACx9tbkiVAAIETaDIR4yWAwPH2lmQJEEDgBJpMxHgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABJ/CypMkEshIRArERWHEC/ybpUGzJyAOBBAhccQJ/Ium9BMISEQKxEfjUCXxY0i+SKrGlIw8EIibgnvz4XOYCttvtc5LeiTgs0SAQG4HPsiw7eV/gmqSvJL0SW0ryQCBCAt9Kej3LsuZdge/9K+wkPiPpBMfpCFtOpBgIuGPzeUnvO3ldoP8FfkBk93/ityW9KmmOt5hi6DsZhpjAiqR5Sd9I+jzLMveu0f+v/wDfTq3dZ9XgHwAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>此模块将显示我近7天操作过的应用服务，以便我能从工作台快速进入对应的代码仓库。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-19</t>
+  </si>
+  <si>
+    <t>quickLink</t>
+  </si>
+  <si>
+    <t>快速链接</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAH9klEQVR4Xu2dz2oUSxSHfzUTnfzTxKBR4eIDKPgQLgTfw43oQnwQdaG48T0EFz6EoA8gF9RRcqOZJCZmpi8VongDl67Tf6a6q74GF4FT3X2+U5/d09N1xunUVhTFDUl3Jd2WdE3S6ukY/oYABOZGYCLpg6TXkl465979eWT364+iKM5KeizpnqTB3E6PA0EAAqEEZpJeSHrknDv0g44FPpH3laRboXsiDgIQiEbgjaQ7XuJfAj+TdD/a6XBgCEDASuC5c+6BO/nM+5bbZis/4iEQlYC/nb7pBX4i6WHUU+HgEIBAFQJPvcD+qdb1KqMZAwEIRCXw3gu8w1dFUYvAwSFQlcDEC1xUHc04CEAgLgEEjsufo0OgFgEEroWPwRCISwCB4/Ln6BCoRQCBa+FjMATiEkDguPw5OgRqEUDgWvgYDIG4BBA4Ln+ODoFaBBC4Fj4GQyAuAQSOy5+jQ6AWAQSuhY/BEIhLAIHj8ufoEKhFoFcCz2aFfhwcHf87OprJ/+23wcBpYWGgxdHC8T//d5PbdCp925np4LDQdMqr402y7fq+hkOn0VmntXMDDYfdO9teCOxF3ZkcaG//ZxDB5aUzOrc6akRkL+/nL0c6+b8i6PgEpUfAXxMuX1ronMSdF/jg4Ej/fPvh+3aZZoVzThfWFjUaLZjGnQ7e2p5pb983P2DLncDy0kAb693q99hpgXf3DvV956DWvDl/bqSVZd9ws9r2cTzltrkauuRG+dvpq5vduo/urMD+yru1vd/IJNhYX6p8Jf7741Ej58BO0iDw19V6d3RNU+ikwP4z7/jrrvm2+f/g+NvpzYsrlT4TI3DTU67f+0PggPp9+/4j+IFVwO6OQ/yDrbXzi6Hhv+MQ2Iws6QEIXFJef/X9/MX/mkTz2+VLq+arMAI3X4c+7xGBS6rnvyryV+A2Nn8F9ldiy4bAFlrpxyJwSY39gyv/AKuNzX+l5B9oWTYEttBKPxaBS2rsH15Np+187zocDo4fZlk2BLbQSj8WgUtq/Gk8aezp8+lD+afRVzZtv5aKwOlLackQgRHYMl+I7RgBBOYWumNTktOxEEBgHmJZ5guxHSOAwCUF4Wukjs1YTuc/BBC4ZELwIgfGdJkAAgdUh1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgIdLInliUBYiGQMwEEzrn65N57Agjc+xKSQM4EEDjn6pN77wkgcO9LSAI5E0DgnKtP7r0ngMC9LyEJ5EwAgXOuPrn3ngAC976EJJAzgV4JzKuUOU/VOLnzKmUD3FnM0ABEdlGLAIsZKuJjOWFFcAxrnADLCY1IWdBvBEZ4qwRY0G/AS0sdAyxC50aAljoBqGlqFwCJkCgEEDgAO21lAyAREoUAApdgp7F7lHnJQQMJIHAJKH5aJXAmERaFAAKXYN/a3pd/gNXGNhotaGN9ybRrfh/YhCv5YAQuKfH4666m01krE2E4HGjz4opp3whswpV8MAKXlPjTeKKiKFqZCM45XdlcNe0bgU24kg9GYAROfpKnnCACcwud8vxOPjcE5iFW8pM85QQRmK+RUp7fyeeGwCUl5kWO5B3odYIIHFA+XqUMgERIFAIIHICdxQwBkAiJQgCBA7GznDAQFGFzJYDABtws6DfAIrR1Aizor4CYljoVoDGkFQK01KmIlaZ2FcExrDECNLVrACVtZRuAyC5MBGgra8JFMAQgYCHQq8bulsSIhUAOBBA4hyqTY7IEEDjZ0pJYDgQQOIcqk2OyBBA42dKSWA4EEDiHKpNjsgQQONnSklgOBBA4hyqTY7IEEDjZ0pJYDgR6JTCvUuYwJbuVI69SNlAPFjM0AJFd1CLAYoaK+FhOWBEcwxonwHJCI1IW9BuBEd4qARb0G/DSUscAi9C5EaClTgBqmtoFQCIkCgEEDsBOW9kASIREIYDAJdhp7B5lXnLQQAIIXAJqb/+n/BW4jW3t/KKWl86Yds3Pi5pwJR+MwCUl3trel3+A1cY2Gi1oY33JtGsENuFKPhiBS0o8/rqr6XTWykQYDgfavLhi2jcCm3AlH4zAJSX+NJ6oKIpWJoJzTlc2V037RmATruSDERiBk5/kKSeIwNxCpzy/k88NgXmIlfwkTzlBBOZrpJTnd/K5IXBJiXmRI3kHep0gAgeUj1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgI9KqxuyUxYiGQAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAQTOocrkmCwBBE62tCSWAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAS/wjiRbt/McyJAjBLpPYOIFfifpevfPlTOEAAROEXjvBX4i6SFoIACB3hF46gW+IemtpEHvTp8ThkC+BPwvAN50Pv+iKJ5Jup8vCzKHQO8IPHfOPfgl8FlJryTd6l0anDAE8iPwRtId59zhscAnV2Ev8WNJ97idzm9GkHEvCPjb5heSHnl5/Rn/FvgPkf1n4ruSbku6xldMvSgsJ5kugYmkD5JeS3rpnPPfGv3e/gX5X4nsitfWfwAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>此模块将显示我所在项目共享的网址链接，同时支持创建个人的网址链接；以便从工作台快速进入目标地址。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-20</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAI20lEQVR4Xu2dQW4UVxRFX9ndwQgnS2ABILEIBkjsgwmCAWIhCQOiTNgHEgMWgQQLYAnBCEO3XdFHOEJEcP/zLbpepU9PDNKtvr/Oe4c2GLeH+OYxjuPNiLgXEXci4npEHH+b4fcQgMDOCJxExNuIeBERz4ZheP1183Dxm3Ecf4mI3yPifkQc7Ox4FEEAAr0EziPir4h4PAzDp3bRZ4G/yPs8Im73PhM5CEBgNgIvI+Juk/hC4KcR8WC241AMAQhkCfw5DMPD4cvfeV/xaXOWH3kIzEqgfTp9qwn8R0Q8mvUolEMAApch8KQJ3P5V68ZlruYaCEBgVgJvmsDv+FLRrEOgHAKXJXDSBB4vezXXQQAC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYsAAlv4uBgC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYtASYHbf88+/XgW2+15e7cQ6wb/bxcPwxCr1UEcXTmM9uspHvD+PsWfwXuKmV08RzmB2zKdvN8grphyW6zja2tbYnj36TQV7762/lQ5gT+cbmOzOeu/gz1OrteHcfVoZRGAdz++KXj3t/Ulywn87uQTr759s/v86vvrcXsz0cs/4N3Pbgre/W19yXIC//3uY9/JSX0m8NuvVywS8M7hc3nn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65Np8sJzA+c1kO7SEzxA6fhvVve/W19yXICfzjdxmZz1nf6PU+t14dx9WhlUYB3P74pePe39SXLCTyOY5y830T7yOP7BNqr7/G1dbSPzgPeffSm4t3X1p8qJ3A7eluq049nsd2eI/I3s2yLtFodxNGVQ1vei6eG94//oJyad7+eOllSYH1sEhCAQCOAwOwBBBZMAIEXPDyODgEEZgcgsGACCLzg4XF0CCAwOwCBBRNA4AUPj6NDAIHZAQgsmAACL3h4HB0CCMwOQGDBBBB4wcPj6BBAYHYAAgsmUFJg/nP99zeKb2bYrW0/g/eUd1BOYL69rW+8U317G7x3y7uvrT9VTmC+wbx/eFN8gzm8d8u7v60vWU5g3uKlb3AtxVvq9LOaIjkF7ynO8fVzlBOYN1nLjdh9kzV475Z3rk2nEVgzKp1A4N2Ox+U99WkReGqiO34+d6F4Bc4NzOWda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nS4nMD/gWw/tIjHFD5yG925597f1JcsJ/OF0G5vNWd/p9zy1Xh/G1aOVRQHe/fim4N3f1pcsJ/A4jnHyfhPtI4/vE2ivvsfX1tE+Og9499GbindfW3+qnMDt6G2pTj+exXZ7jsjfzLIt0mp1EEdXDm15L54a3j/+g3Jq3v166mRJgfWxSUAAAo0AArMHEFgwAQRe8PA4OgQQmB2AwIIJIPCCh8fRIYDA7AAEFkwAgRc8PI4OAQRmByCwYAIIvODhcXQIIDA7AIEFE0DgBQ+Po0MAgdkBCCyYQBP4XUQcL/geODoE9pXASRP4dUTc2FcC3DcEFkzgTRP4j4h4tOCb4OgQ2FcCT5rANyPiVUQc7CsF7hsCCyRwHhG3Pr+dwziOTyPiwQJvgiNDYF8J/DkMw8MLgX+JiOcRcXtfaXDfEFgQgZcRcXcYhk//vqHSOI5N4t8j4j6fTi9olBx1nwi0T5v/iojHTd524/95R7Qvfye+FxF3IuI6X2Lap/3gXgsSOImItxHxIiKeDcPQvmr07+MffSSx3RPnCD8AAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>此模块将显示我所在项目更新的知识库文档动态，同时支持筛选出我操作过的文档。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-21</t>
+  </si>
+  <si>
+    <t>envList</t>
+  </si>
+  <si>
+    <t>环境（最近使用）</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJMElEQVR4Xu2dT29UVRiHf3emM4UW7GBNrQRIJCEmYly4UFmwcWFwxZdgQzTRuOMTsFNMNGz8Eq4kLNyw8M+CBVETQ4IJEKwNlSn9A53pzDUHKaE4YXp5z73n9NxnVm1y3/Oe93nPk57eyT030zOfPM+PSzoj6UNJRyTte/YafocABCojsCrppqTLkr7Nsuy3pzNnW7/ked6W9IWks5IalU2PRBCAwE4JDCVdlPR5lmU9F/RI4Mfyfi/pg52OxHUQgEAwAj9I+shJvCXw15I+DjYdEkMAAkUJfJNl2SfZ4/95r7FtLsqP6yEQlIDbTr/tBP5S0mdBp0JyCEDgRQhccAK7u1pvvkg0MRCAQFACvzuBV/iqKGgTSA6BFyWw6gTOXzSaOAhAICwBBA7Ln+wQMBFAYBM+giEQlgACh+VPdgiYCCCwCR/BEAhLAIHD8ic7BEwEENiEj2AIhCWAwGH5kx0CJgIIbMJHMATCEkDgsPzJDgETAQQ24SMYAmEJIHBY/mSHgIlAlAIv9DZ0/s/r+rF771FxJzoHdO71Y5pvT+6o2MFgqG73gTZ6A7mf+cRDoNlsaLLdVKezV+7nMj7DYa619Z76/aE7bcaUIssytVoNTU+11Wg8OYHKNKbP4OgEdvKeuvqTuv3+tjo7rZYuvfP+WImdsAt/r8g1kU+8BJwM86/u9y6x63t3+aFZ3GfJOZE7M3uikzg6gT/941d9t7gwcuWdnpvXV2+89dxVubS0pvUH2+WPdxnXe2ZTe1uanZ32CmFldUO93sDrmFuDtdtN7d+3s11gKRMYMWh0Ar/78xUt9jZG1j/XntQv7518Lps7f91n21zV6jHmcVvog6+9ZBxle/g/9x54/+u7lcH9FX75wF6v87UOlpzAt253rUyIr5DA4UMdr9mW/ln3Ot6zg82+PFXq+EUHj05g6xYagYsugbDXI7CNf3QCW29iIbBtQVQdjcA24tEJ7MqxfI2EwLYFUXU0AtuIRymwpSQEttCrPhaBbcwR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBtABLbxI9pIAIFtABHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbwOQE5oF+24KoMrqMB/p5HrjKDpaQiyN1SoBa0pBlHKmDwCU1q6phOdSuKtK2PGUdaofAtr5EEc2xslG0YeQkyj5WFoHj7T0zg8BYAgg8FhEXQCBeAggcb2+YGQTGEkDgsYi4AALxEkDgeHvDzCAwlgACj0XEBRCIlwACR9CbzU1p8e5Aa+tDbZbzmpsIqqznFCaa0vRUQ3OvNDUx4Z8BAvtnWmhEJ++Nm5saDHi7YCFwu+ziZjPT0SMT3iVG4MAL4c7CQMsrvNM3cBsqST+zv6GD802vuRDYK87ig12/0WfbXBzbroxw2+ljR1te547AXnEWHwyBizPbrRFlCMzrRQOvBrbQgRtQYfoyttC84LvCBo5KxU2swA2oKH1ZN7GGw1zd5YfeX/LtXu7dmdkj9xRVTJ8oH+jna6SYlojfuZT9NZKbrZN4bb2nfn9oFtmJ22o1ND3Vjk5eV2uUAvtdMowGgXQJIHC6vaWyGhBA4Bo0mRLTJYDA6faWympAAIFr0GRKTJcAAqfbWyqrAQEErkGTKTFdAgicbm+prAYEELgGTabEdAkgcLq9pbIaEEDgGjSZEtMlgMDp9pbKakAAgWvQZEpMlwACp9tbKqsBAQSuQZMpMV0CCJxub6msBgSiFHiht6Hzf17Xj917j1pwonNA514/pvn25I5awutFd4QpyEVlv17UFcUD/UFa+19SJ++pqz+p2+9vm0Wn1dKld94fKzEv+A7YvAKpy3rBN0fqFGhCGZd++sev+m5xYeTQp+fm9dUbbz037dLSmtYfbJe/jHkypp3A1N6WZmen7QM9NQKH2nnFWXywd3++osXexsjAufakfnnv5HMHvfPXfbm/wnziJ+C20wdfe8nrRDlW1ivO4oNZBb51u1s8KRHBCBw+1PGam4PdveIsPph1C43AxZmHjEBgG/3o7kJbb2IhsG1BVB2NwDbi0QnsyrF8jYTAtgVRdTQC24hHKbClJAS20Ks+FoFtzBHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbQAS28SPaSACBbQAR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBvA5ATmgX7bgqgyuowH+nkeuMoOlpCLI3VKgFrSkGUcqYPAJTWrqmE51K4q0rY8ZR1qh8C2vkQRzbGyUbRh5CTKPlYWgePtPTODwFgCCDwWERdAIF4CCBxvb5gZBMYSQOCxiLgAAvESQOB4e8PMIDCWAAKPRcQFEIiXAAJH0JvNTWnx7kBr60NtDiKYEFPwRmCiKU1PNTT3SlMTE96GfTIQAvtnWmhEJ++Nm5saDPJCcVy8uwg0m5mOHpnwLjECB14HdxYGWl7h5WSB21BJ+pn9DR2cb3rNhcBecRYf7PqNPtvm4th2ZYTbTh872vI6dwT2irP4YAhcnNlujShDYF4vGng1sIUO3IAK05exheYF3xU2cFQqbmIFbkBF6cu6iTUc5uouP1Se+70JmmWZOjN75J6iiukT5QP9fI0U0xLxO5eyv0Zys3USr6331O8PzSI7cVuthqan2tHJ62qNUmC/S4bRIJAuAQROt7dUVgMCCFyDJlNiugQQON3eUlkNCCBwDZpMiekSQOB0e0tlNSCAwDVoMiWmSwCB0+0tldWAAALXoMmUmC4BBE63t1RWAwIIXIMmU2K6BBA43d5SWQ0IOIFXJO2rQa2UCIHUCKw6gX+T9GZqlVEPBGpA4Hcn8JeSPqtBsZQIgdQIXHACH5d0TVIjteqoBwIJE3AnP7796HiBPM+/lvRxwsVSGgRSI/BNlmWfbAnclvS9pA9Sq5J6IJAggR8kfZRlWe/JAT95njuJv5B0lu10gi2npBQIuG3zRUmfO3ldQf87oevx/8RnJH0o6QhfMaXQd2rYxQRWJd2UdFnSt1mWuW+Nnnz+BSgzMezwUYl+AAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>此模块将显示我近7天使用过的环境，以便我能从工作台快速进入对应的环境管理资源。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-22</t>
+  </si>
+  <si>
+    <t>selfCode</t>
+  </si>
+  <si>
+    <t>代码提交记录</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHZpZXdCb3g9IjAgMCAxMjAgNjYiPgogIDxnIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICA8cmVjdCB3aWR0aD0iMTIwIiBoZWlnaHQ9IjY2IiBmaWxsPSIjRkZGIiByeD0iNCIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTggMTApIj4KICAgICAgPHJlY3Qgd2lkdGg9IjU0IiBoZWlnaHQ9IjEwIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgcng9IjIiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iMTQiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cGF0aCBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgZD0iTTIsMjggTDUyLDI4IEM1My4xMDQ1Njk1LDI4IDU0LDI4Ljg5NTQzMDUgNTQsMzAgTDU0LDM2IEM1NCwzNy4xMDQ1Njk1IDUzLjEwNDU2OTUsMzggNTIsMzggTDI2LDM4IEwyNiwzOCBMMiwzOCBDMC44OTU0MzA1LDM4IDEuMzUyNzA3NWUtMTYsMzcuMTA0NTY5NSAwLDM2IEwwLDMwIEMtMS4zNTI3MDc1ZS0xNiwyOC44OTU0MzA1IDAuODk1NDMwNSwyOCAyLDI4IFoiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iNDIiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iMTQiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iNDIiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgPC9nPgogIDwvZz4KPC9zdmc+Cg==</t>
+  </si>
+  <si>
+    <t>用于展示我近7天的代码提交记录</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-23</t>
+  </si>
+  <si>
+    <t>myReport</t>
+  </si>
+  <si>
+    <t>我报告的</t>
+  </si>
+  <si>
+    <t>展示当前迭代中报告人是我的问题项。</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-24</t>
+  </si>
+  <si>
+    <t>resourceManagement</t>
+  </si>
+  <si>
+    <t>resourceOverview</t>
+  </si>
+  <si>
+    <t>资源概览</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMTAwLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0ZGRkZGRiIgeD0iMCIgeT0iMCIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMUZDMkJCIiB4PSIxOSIgeT0iMTEiIHdpZHRoPSIyNCIgaGVpZ2h0PSIyMCIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMzdCMUVDIiB4PSI0OC41IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9Ijc4IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9IjE5IiB5PSIzNiIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiNGRDcyOUMiIHg9IjQ4LjUiIHk9IjM2IiB3aWR0aD0iMjQiIGhlaWdodD0iMjAiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>此模块将显示主机、集群、环境的数量概览</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-25</t>
+  </si>
+  <si>
+    <t>resourceMonitoring</t>
+  </si>
+  <si>
+    <t>资源池监控</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMjAzLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTAiIHdpZHRoPSI4MyIgaGVpZ2h0PSIxMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjI3IiB3aWR0aD0iODMiIGhlaWdodD0iMTIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSI0NCIgd2lkdGg9IjgzIiBoZWlnaHQ9IjEyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
+  </si>
+  <si>
+    <t>此模块将显示主机、集群的运行情况</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-26</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtNTEyLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0MTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjIxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSIzMSIgd2lkdGg9Ijg0IiBoZWlnaHQ9IjUiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iNDEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjUxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+  </si>
+  <si>
+    <t>fd_dashboard_card-27</t>
+  </si>
+  <si>
+    <t>myExecution</t>
+  </si>
+  <si>
+    <t>我执行的用例</t>
   </si>
   <si>
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAIX0lEQVR4Xu2dS2gVVxjH/xPvzUNvjLFo04Wi2CBqScFFHws3UkQ37a677tyIltpCKaUbN6WUglqquHHXXXftRpHixkUfC6GhKpKKooumSo1JruZxY245vuorZs6cmTvf3PlllcA533zn930/ZpI55ybSU1/NZnOLpN2SdkhaK6n29Bh+hgAEWkagLumqpFOSjkdRdO7xK0cPf2g2m52SDkraI6mjZelxIQhAIC6BeUnHJH0SRdGsm3RP4AfynpC0PW4kxkEAArkROC1pl5P4ocBHJO3NLR0uDAEI+BI4GkXRvujB77zDPDb78mM8BHIl4B6nh5zAhyTtzzUVLg4BCCQhcNgJ7P6qtTnJbOZAAAK5EjjvBJ7kVVGuReDiEEhKoO4EbiadzTwIQCBfAgicL3+uDoEgAggchI/JEMiXAALny5+rQyCIAAIH4WMyBPIlgMD58ufqEAgigMBB+JgMgXwJIHC+/Lk6BIIIIHAQPiZDIF8CCJwvf64OgSACCByEj8kQyJcAAufLn6tDIIiASYHn5uZ149/bujPV0Nzc3aAFMhkCIQQqlSVa2lPVqpeWqVKx90lT5gR28l6+elPz85yxCGk85qZLoKMj0vq1K81JbE7gv/+Z1MTkdLr0iQaBFAgs7+3WKy/3phApvRDmBL505SaPzenVl0gpEnCP0xvWrUwxYngocwJf/OtG+KqIAIGMCGx8dVVGkZOFReBk3JhVUgIIvEjhuQOX1IyCLBuBEbggrUqazyOAwIv0BX/EQhyrBPgjVozK8BopBiSG5EKA10gxsLORIwYkhrScABs5PJCzldIDFkMzJcBWykzxEhwC5SZg7j1wucvB6iHgRwCB/XgxGgKmCCCwqXKQDAT8CCCwHy9GQ8AUAQQ2VQ6SgYAfAQT248VoCJgigMCmykEyEPAjgMB+vBgNAVMEENhUOUgGAn4EENiPF6MhYIoAApsqB8lAwI8AAvvxYjQETBFAYFPlIBkI+BEwKXCzKU1P3/+vDHzAu19BrY1252jdkbzu7qqiqDXZNRoNjY6Oql6vy30f8lWtVlWr1TQwMCD3vbUvcwI7eev1acS11imB+TiRa7XuzCV2wo6MjGhubi4w4yenVyoVDQ4OmpPYnMBTUw3NzqYLP9VKEiwxgc7Oinp6sr2LXbt2TWNjY4lzfNHE/v5+rVmzJpPYSYOaE3hykrtv0mJan+fuwr293ZmmeeHCheDH5oUSdI/QmzZtyjR/3+DmBB4fn/JdA+MLRKCvryfTbIeHhzONPzQ0lGl83+AI7EuM8UEEEDgI3zOTEThdnkRbhAACp9siCJwuT6IhcEt7AIFbipuLcQdOtwcQOF2eROMO3NIeMCcwr5FaWv+WXozXSOnjNicwGznSL7KViGzkSL8S5gRmK2X6RbYQka2U2VTBnMBumRxmyKbYeUTlMEO21E0KnO2SiQ6B9iGAwO1TS1ZSQgIIXMKis+T2IYDA7VNLVlJCAghcwqKz5PYhgMDtU0tWUkICCFzCorPk9iGAwO1TS1ZSQgIIXMKis+T2IYDA7VNLVlJCAghcwqKz5PYhgMDtU0tWUkICJgXmMEMJO3GBJSc6DDExrsbJnzR/+ZKaE+NBMKPlfepYv0HVne9Ky/uCYmUx2ZzAHCfMoszFjxn7OOLEuGa++0bNO7dTXXS0dJm6PvzUnMTmBOZAf6p911bB4nwgQOOH73X3j7OZrHvJ61tVff+DTGInDWpOYD5SJ2kp239enI/kmfn6QPBj80Ik3eN012cHTIE2JzD/mcFUf5hLZrFPtZz+4uNMc+7+8lCm8X2DI7AvMcbnSgCBn8SPwLm2Ixf3JYDACOzbM4w3RACBEdhQO5KKLwEERmDfnmG8IQIIbFxgXiMZssVYKrxGerYg5v6IxUYOY9YYSoeNHAUQmK2UhowxlApbKZ9fDHN3YJcmhxkMmZNzKhxmeHEBTAqcc89weQgUhgACF6ZUJAqBAvwOTJEgAIH4BLgDx2fFSAiYI4DA5kpCQhCITwCB47NiJATMEUBgcyUhIQjEJ4DA8VkxEgLmCCCwuZKQEATiE0Dg+KwYCQFzBBDYXElICALxCSBwfFaMhIA5AiYF5jBD/D5JtNk/fvhCjhydndFXl0f0y60xXZ+dCVrD6s4uvb2iX5+vH9RAZ1dQrCwmmxOY44TJyhz7uF2y8IWZ5eTdefZX3Wo0Us15RbWqk1vfMiexOYE50J+87+IceE8evRgzP7r4p368PppJsu+tHtC3G1/LJHbSoOYE5iN1kpZSivORM8mjF2PmG7+dCX5sXmil7nH69ze3mQJhTmD+M0NYfyz2oW9h0e3PXnfm50yTvLLtnUzj+wZHYF9ixscjMALn2qLcgcPwIzACh3VQ4GwEDgOIwAgc1kGBsxE4DCACI3BYBwXORuAwgAiMwGEdFDib10jJAfIaSeI1UvL+SWUmGzmSY2Qjh8RGjuT9k8pMtlImw8hWyvvc2EqZrH9SncVhhvg4OczwLCsOM8TvH0ZCAAI5EjC3EytHFlwaAoUjgMCFKxkJQ+B/AghMN0CgwAQQuMDFI3UIIDA9AIECE0DgAheP1CGAwPQABApMAIELXDxShwAC0wMQKDABBC5w8UgdAghMD0CgwAScwJOSagVeA6lDoKwE6k7gc5I2l5UA64ZAgQmcdwIfkrS/wIsgdQiUlcBhJ/AWScOSOspKgXVDoIAE5iUNRS7xZrN5RNLeAi6ClCFQVgJHoyja91DgTkknJG0vKw3WDYECETgtaVcURbP3BH5wF3YSH5S0h8fpApWSVMtEwD02H5P0iZPXLfyRwI+J7H4n3i1ph6S1vGIqU3+wVoME6pKuSjol6XgURe6t0aOv/wDzt1/d8ks7gQAAAABJRU5ErkJggg==</t>
   </si>
   <si>
-    <t>此模块显示该组织下待您审核的需求列表。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-16</t>
-  </si>
-  <si>
-    <t>myDefect</t>
-  </si>
-  <si>
-    <t>我的缺陷</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAIUUlEQVR4Xu2dS2wVVRjH/9MXVFqFArVERfAREl4LE19RQoKGwEYTXbphwUICEYIrV8aVK3kYCC5YsHGpiW4gREkIGl+JC14J8QGiBixQ0BYL7e29ZgglFSgzZ85M5zt3fuwazvnm+37f+WWmnXPujXTbv0ajsUTSekmrJc2X1HX7GH6GAASmjMCQpLOSDkraG0XRiYlXjsZ/aDQaHZK2SdogqWXK0uNCEIBAWgJ1SXskbY2iaCSedEPgm/Lul7QqbSTGQQACpRE4JGltLPG4wLskbSwtHS4MAQi4EtgdRdGm6ObvvEd5bHblx3gIlEogfpxeHgu8XdKWUlPh4hCAQBYCO2KB479qLc4ymzkQgECpBE7GAg/yqqjUJnBxCGQlMBQL3Mg6m3kQgEC5BBC4XP5cHQJeBBDYCx+TIVAuAQQulz9Xh4AXAQT2wsdkCJRLAIHL5c/VIeBFAIG98DEZAuUSQOBy+XN1CHgRQGAvfEyGQLkEELhc/lwdAl4EENgLH5MhUC4BBC6XP1eHgBcBkwLXanVduHRV/w6PqlYb8yqQyRDwIdDW1qr7Ots1d/YMtbXZ+6QpcwLH8p4+O6B6nTMWPguPufkSaGmJtHB+jzmJzQl87q9B/TN4LV/6RINADgTu756ueQ925xApvxDmBP7lzACPzfn1l0g5Eogfpx9f0JNjRP9Q5gQ+9fMF/6qIAIGCCCx6Ym5BkbOFReBs3JhVUQIInNB47sAVNSOQshEYgQNZqqR5NwIInLAu+CMW4lglwB+xUnSG10gpIDGkFAK8RkqBnY0cKSAxZMoJsJHDATlbKR1gMbRQAmylLBQvwSFQbQLm3gNXux1UDwE3AgjsxovREDBFAIFNtYNkIOBGAIHdeDEaAqYIILCpdpAMBNwIILAbL0ZDwBQBBDbVDpKBgBsBBHbjxWgImCKAwKbaQTIQcCOAwG68GA0BUwQQ2FQ7SAYCbgQQ2I0XoyFgigACm2oHyUDAjYBNgWt1aWBQGr4ujdXdKmK0LQKtLVLnNKmnW5qqbzYYPqex4++pcfFrNYbPe/GIOvsUzXlBrUvflTrnecUqYrI9gWN5/7yIuEV0u8yYscgPzSle4uFzqn25Uo2Ry7lWG3XMUttLh81JbE/g/r+loeFc4RPMCIGuTqn3gUKTGfvhTdV//6SQa7Q88rpan/6okNhZg9oT+Ld+7r5Zu2l9XnwXfrS30Cxr+5d5PzZPlmD8ON229lih+bsGtyfwr36/s7gCYPwUE3isr9ALjn5a7DcntL9m65tDELjQ5UTwOwggcK6LAoFzxUmwRAIInIjIZQACu9BirD8BBPZnOCECAueKk2CJBBA4EZHLAAR2ocVYfwII7M/Q9B2Y10i5NthUMF4j5d4Oe3dgNnLk3mQzAdnIkXsr7AnMVsrcm2wiIFspC2mDPYHjMjnMUEizSwnKYYZCsdsUuNCSCQ6B5iGAwM3TSyqpIAEErmDTKbl5CCBw8/SSSipIAIEr2HRKbh4CCNw8vaSSChJA4Ao2nZKbhwACN08vqaSCBBC4gk2n5OYhgMDN00sqqSABBK5g0ym5eQggcPP0kkoqSMCmwBxmqOBSnKTkDIchLg1J+76Sjv0hDVxteLHsmRFp2cPSuhel2V1eoQqZbE9gjhMW0ujgg6Y8jhjL+9bH0uA1P3Fv59U9PdKHb9iT2J7AHOgP3rXCCkjxgQAfHJAOn8pX3vF6Vi6K9PaawqrLFNiewHykTqZGVmJSio/kWbfX/7F5Mpbx4/S+9bZI2xOYb2awtUKsZZPwoXiv7Czm7juO4fPNkSkiCGyqHSSTSACB/4cIgRNXDANMEUBgBDa1IEnGjQACI7DbimG0KQIIjMCmFiTJuBFAYOMC8xrJbUFXaTSvke7otr0/YrGRo0pKutXKRo4ABGYrpduirspotlLetdP27sBxmhxmqIqWyXVymOGejGwKnNxWRkAAApIQmGUAgYAJIHDAzSN1CCAwawACARNA4ICbR+oQQGDWAAQCJoDAATeP1CGAwKwBCARMAIEDbh6pQwCBWQMQCJgAAgfcPFKHAAKzBiAQMAGbAnOYIf2SyrDZP33wMEeeH7mu90//pG+uXFb/yHWvIno7pun5mbP0zsIn1dcxzStWEZPtCcxxwmx9TnncLlvwcGbF8q758VtdGR3NNemZ7e068NRz5iS2JzAH+rMvvBQH3rMHD2Pm5lPH9Vn/+UKSfbW3TzsXLS0kdtag9gTmI3Wy9lJK8ZEz2YOHMfOZ7454PzZPVmn8OP39sytMgbAnMN/M4LdAEj70zS+4/dkLjnxRaJJnVrxcaHzX4AjsSsz6eAQutEMInISXO3ASoXv/PwL78UuYjcBJeBE4iRAC34MAj9B+y8d/NgL7MeQO7MePO7AnPwT2A4jAfvwQ2JMfr5GyA+Q1kniNlH355DOTjRzZObKRQ2zkyL588pnJVspsHNlKeYMbWymzLZ98Z3GYIT1PDjPcwYrDDOmXDyMhAIESCdjbiVUiDC4NgdAIIHBoHSNfCEwggMAsBwgETACBA24eqUMAgVkDEAiYAAIH3DxShwACswYgEDABBA64eaQOAQRmDUAgYAIIHHDzSB0CCMwagEDABGKBByV1BVwDqUOgqgSGYoFPSFpcVQLUDYGACZyMBd4uaUvARZA6BKpKYEcs8BJJRyW1VJUCdUMgQAJ1ScujOPFGo7FL0sYAiyBlCFSVwO4oijaNC9whab+kVVWlQd0QCIjAIUlroygauSHwzbtwLPE2SRt4nA6olaRaJQLxY/MeSVtjeePCbwk8QeT4d+L1klZLms8rpiqtD2o1SGBI0llJByXtjaIofmt0699/a1AJ3Qj25TEAAAAASUVORK5CYII=</t>
-  </si>
-  <si>
-    <t>展示当前迭代我提交的和待我修复的缺陷，以便我能及时处理风险漏洞。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-17</t>
-  </si>
-  <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>todoThings</t>
-  </si>
-  <si>
-    <t>待审核</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAG1UlEQVR4Xu3dQWtVRxjG8Wdur6m1sUJUSjehpUJBIZtuXLsQ/B5uRBfiB1EXihu/h+DCdTfdBBQKlpZspKgBm6u219t7ykgiQQjzTs45M+/J+WcXeM+Z9/xmHnKTO3MT9NlX0zQXJF2VdFnSuqTVz2v4HgEEignMJG1JeizpYQjh6f6Rw943TdOsSLot6ZqkSbH2GAgBBKwCS0kPJN0KIczjRR8DvBveR5IuWe9EHQIIVBN4IulKDPFegO9Jul6tHQZGAIFcgfshhBth93feTV425/pRj0BVgfhyeiMG+I6km1VbYXAEEDiMwN0Y4PhXrfOHuZprEECgqsCzGOAd3iqqOgkMjsBhBWYxwM1hr+Y6BBCoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQSIMCt+LgYgboCBLiuP6Mj0EqAALfi42IE6goQ4Lr+jI5AKwEC3IqPixGoK0CA6/ozOgKtBAhwKz4uRqCuAAGu68/oCLQScBngxWKpl6/f6t37D1os/mv1gN4unk6/0Imvjuns6a81nfLJRd7mZ2j9uAtwDO8fW9taLo/2GYvJJOiH9TVCPLTEOOvXXYBf/LWjv3f+ccbUTzvfnDyu77492c/NuesoBNwF+Pc/t4/cy+aDVlJ8Of3j92ujWGg8ZD8C7gL82/OX/Typ07v+dO6s085oawgCBLjyLBHgyhMw8OEJcOUJJMCVJ2DgwxPgyhNIgCtPwMCHdxdg/og18BVF+0UF3AWYt5GKzj+DDVzAXYDZyDHwFUX7RQXcBTg+PVspi64BBhuwgMsAD9iT1hEoKkCAi3IzGALdChDgbj25GwJFBQhwUW4GQ6BbAQLcrSd3Q6CoAAEuys1gCHQrQIC79eRuCBQVIMBFuRkMgW4FCHC3ntwNgaICBLgoN4Mh0K0AAe7Wk7shUFSAABflZjAEuhXwGeDlXHq3pWb+Rmo+dPvE3A2BHIFwTGHllHRiXZqs5FxZpNZfgJdzNW82peWiCACDIGASmEwVTm24C7G/AM+eq/n3lcmUIgRKCoQvz0ir50oOmRzLXYCb7V952ZycNgqqCMSX02s/Vxn6oEH9Bfj1L66AaAaB/QLh9EVXIATY1XTQjHcBApyYoYafwN7X8Kj7I8AEeNQBGPrDE2ACPPQ1POr+CTABHnUAhv7wBJgAD30Nj7p/AkyARx2AoT88AU4FmI0cQ1/jR7d/NnIY5patlAYkSmoIsJXSos5hBosSNaUFOMyQIc5xwgwsSnsV4Dhhr7zcHIFRC7jbCz3q2eDhEcgUIMCZYJQj4EmAAHuaDXpBIFOAAGeCUY6AJwEC7Gk26AWBTAECnAlGOQKeBAiwp9mgFwQyBQhwJhjlCHgSIMCeZoNeEMgU8BlgtlJmTiPlvQmwlTKTlsMMmWCUFxHgMIORmeOERijKSgtwnNAgzn9mMCBRUkeAA/1pdz4XOm1ERT0BPlInYU+A6y1ORk4LEGACnF4lVLgVIMAE2O3ipLG0AAEmwOlVQoVbAQJMgN0uThpLCxBgApxeJVS4FSDABNjt4qSxtAABTgWY/8yQXkVU1BFgI4fBna2UBiRKagiwldKizmEGixI1pQU4zJAhznHCDCxKexXgOGGvvNwcgVEL+DzQP+op4eERsAsQYLsVlQi4EyDA7qaEhhCwCxBguxWVCLgTIMDupoSGELALEGC7FZUIuBMgwO6mhIYQsAsQYLsVlQi4EyDA7qaEhhCwC/gMMFsp7TNIZb8CbKXM9OUwQyYY5UUEOMxgZOY4oRGKstICHCc0iPOfGQxIlNQR4EB/2p0Pdk8bUVFPgI/USdgT4HqLk5HTAgSYAKdXCRVuBQgwAXa7OGksLUCACXB6lVDhVoAAE2C3i5PG0gIEmACnVwkVbgUIMAF2uzhpLC1AgFMB5j8zpFcRFXUE2MhhcGcrpQGJkhoCbKW0qHOYwaJETWkBDjNkiHOcMAOL0l4FOE7YKy83R2DUAj4P9I96Snh4BOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAgTYbkUlAu4ECLC7KaEhBOwCBNhuRSUC7gQIsLspoSEE7AIE2G5FJQLuBAiwuymhIQTsAjHAO5JW7ZdQiQACTgRmMcBPJZ130hBtIICAXeBZDPAdSTft11CJAAJOBO7GAF+QtClp4qQp2kAAgbTAUtJGiHVN09yTdD19DRUIIOBE4H4I4cZegFckPZJ0yUlztIEAAgcLPJF0JYQw/xjg3Z/CMcS3JV3j5TRrBwGXAvFl8wNJt2J4Y4efArwvyPF34quSLkta5y0mlxNJU+MRmEnakvRY0sMQQnzX6NPX/y6PW84BwAvPAAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>此模块将会显示待我审核的“流水线人工卡点任务”与“代码合并请求”。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-18</t>
-  </si>
-  <si>
-    <t>serviceList</t>
-  </si>
-  <si>
-    <t>应用服务（最近使用）</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJQ0lEQVR4Xu2dT2tcVRiHf3cmmZAmsSMpaSwasFALrbgQqu3ChS5ENwp+hOKmWFBcVXAp2FW1UOlG+hEEu1Fc6MJFq4IL0YIWKkSpaWhw2iQNmWQyckorbUnm33vvPWfOeWbVwn3POb/nPQ89vTNzJ9Mjr3a7fVjS25JelTQnafLRa/g7BCBQGoEVSfOSvpH0eZZlvz04c3b/L+12uybpjKQTkiqlLY+JIACBXglsSTov6f0sy5qu6K7A9+T9StIrvY7EdRCAgDcC30p63Ul8X+Bzkt7xthwmhgAE+iXwWZZlJ7N7/+f9hWNzv/y4HgJeCbjj9HNO4E8kved1KUwOAQgMQuBTJ7C7q3VokGpqIAABrwSuOIGXeavIaxOYHAKDElhxArcHraYOAhDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAggsAkfxRDwSwCB/fJndgiYCCCwCR/FEPBLAIH98md2CJgIILAJH8UQ8EsAgf3yZ3YImAgEKfBCc10f/3lVlxr/3g13rP64Pnj6gGZrYz2FbbW21Gisab3Zkvszr3AIVKsVjdWqqtfH5f7My0YgOIGdvK/9fFmNjY2HktVHR/X180e7SuyEXbixrK0tvqNh2xrFVlcqmWb3TiGxEXNwAr/7+6/6cnFh21hvzszq7MFnO0ZeWlrVnbWH5TcyorwgArvGRzU9PVHQ6GkMG5zAL/zwvRab69vSn6mN6ccXX+rYmev/3ObYPCR71x2h9z3x2JCsNsxlRifwX383wiTNqrYl8NSTdcgYCAQnsPUIjcCG3eChFIFt0IMT2HoTC4FtG6LsagS2EQ9OYBfH8jYSAts2RNnVCGwjHqTAlkgIbKFXfm0ZAjeWt/TFdyv6Y76pWyutjiF3T1b1zFxNb708qfpU+O9TI3D5e5YZHyBQtMBO3o8uLGl1rb8P9EyMV/Th8engJUZgdPJKoGiBL1y8rZ+urA2U8cihcR1/I+y3uRB4oNZSlBeBogU+de5m12PzTlnccfr0yT15RS1kHAQuBCuD9kqgaIFPnL7R61K2ve78qb2m+qKLEbhowozfkQAC2zYIAtv4UW0kgMA2gAhs40e1kQAC2wAisI0f1UYCCGwDiMA2flQbCSCwDSAC2/hRbSSAwDaACGzjR7WRAALbAEYnMF/ot22IMqvL+EI/H+Qos6M5zMUjdXKAWNIQZTxSh49SltTMvKbhoXZ5kSx2nLIeaseXGYrtYyGj81jZQrDmMqiPx8rydcJcWscgEIBA3gSiu4mVNyDGg0DIBBA45O6wNgh0IYDAbBEIDDEBBB7i5rF0CCAwewACQ0wgSIE3N6XFmy2t3tnSZueHCA4x+jSXPlKVJnZVNLOnqpGRNBnkmTo4gZ281+Y31Wrx64J5Njq0sarVTPvnRpDY2JjgBL6+0NKt5f4eAWpkQLknArunKto3W/U0exzTBifw1WsbHJvj2FtdU7jj9IH9o12v44KdCSAwu8MbAQS2ow9OYI7Q9qYOywgcoe2dCk5gbmLZmzoMI3ATK58uBSewi8XbSPk0N8RReBsp364EKXC+ERkNAvESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIIDACTSZiPESQOB4e0uyBAggcAJNJmK8BBA43t6SLAECCJxAk4kYLwEEjre3JEuAAAIn0GQixksAgePtLckSIBCkwAvNdX3851Vdavx7twXH6o/rg6cPaLY21lNL+HnRnjB5ucjHz4t6CVrSpMEJ7OR97efLamxsPISgPjqqr58/2lVifuC7pJ1jnKasH/g2LjP48uAEfvf3X/Xl4sK24N6cmdXZg892hLq0tKo7aw/LH3wXEl3grvFRTU9PJJo+n9jBCfzCD99rsbm+bbqZ2ph+fPGljsmv/3Nb7l9hXuETcMfpfU88Fv5CA15hdAL/9XcjYNws7VECTz1ZB4qBQHACW4/QCGzYDR5KEdgGPTiBrTexENi2IcquLkPgxvKWvvhuRX/MN3VrpfPPXe6erOqZuZreenlS9alK2Tj6ni84gV0Cy9tICNz3HvBaULTATt6PLixpda2/+yIT4xV9eHw6eImDFNiyoxDYQq/82qIFvnDxtn66sjZQsCOHxnX8jbBvsiHwQK2lKC8CRQt86tzNrsfmnbK44/Tpk3vyilrIOAhcCFYG7ZVA0QKfOH2j16Vse935U3tN9UUXI3DRhBm/IwEEtm0QBLbxo9pIAIFtABHYxo9qIwEEtgFEYBs/qo0EENgGEIFt/Kg2EkBgG0AEtvGj2kgAgW0AEdjGj2ojAQS2AURgGz+qjQSKFpgPchgbVHY5H6Usm7htvqIF5qOUtv6UXs0X+ktHPvCEZXyhny8zDNweP4U8UscP90FmLeuROnydcJDueKrhoXaewPc5LQ+16xPYDpdHdxPL5eSxsvlsjiJG4bGy+VKNUuB8ETEaBMIlgMDh9oaVQaArAQTuiogLIBAuAQQOtzesDAJdCSBwV0RcAIFwCSBwuL1hZRDoSiBIgTc3pcWbLa3e2dJm58f4dg3IBWERGKlKE7sqmtlT1chIWGsbxtUEJ7CT99r8plqt9jDyZM09EqhWM+2fG0HiHnntdFlwAl9faOnWcn8P4TYyoNwTgd1TFe2brXqaPY5pgxP46rUNjs1x7K2uKdxx+sD+0a7XccHOBBCY3eGNAALb0QcnMEdoe1OHZQSO0PZOBScwN7HsTR2GEbiJlU+XghPYxeJtpHyaG+IovI2Ub1eCFDjfiIwGgXgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABBE6gyUSMlwACx9tbkiVAAIETaDIR4yWAwPH2lmQJEEDgBJpMxHgJIHC8vSVZAgQQOIEmEzFeAggcb29JlgABJ/CypMkEshIRArERWHEC/ybpUGzJyAOBBAhccQJ/Ium9BMISEQKxEfjUCXxY0i+SKrGlIw8EIibgnvz4XOYCttvtc5LeiTgs0SAQG4HPsiw7eV/gmqSvJL0SW0ryQCBCAt9Kej3LsuZdge/9K+wkPiPpBMfpCFtOpBgIuGPzeUnvO3ldoP8FfkBk93/ityW9KmmOt5hi6DsZhpjAiqR5Sd9I+jzLMveu0f+v/wDfTq3dZ9XgHwAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
-    <t>此模块将显示我近7天操作过的应用服务，以便我能从工作台快速进入对应的代码仓库。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-19</t>
-  </si>
-  <si>
-    <t>quickLink</t>
-  </si>
-  <si>
-    <t>快速链接</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAH9klEQVR4Xu2dz2oUSxSHfzUTnfzTxKBR4eIDKPgQLgTfw43oQnwQdaG48T0EFz6EoA8gF9RRcqOZJCZmpi8VongDl67Tf6a6q74GF4FT3X2+U5/d09N1xunUVhTFDUl3Jd2WdE3S6ukY/oYABOZGYCLpg6TXkl465979eWT364+iKM5KeizpnqTB3E6PA0EAAqEEZpJeSHrknDv0g44FPpH3laRboXsiDgIQiEbgjaQ7XuJfAj+TdD/a6XBgCEDASuC5c+6BO/nM+5bbZis/4iEQlYC/nb7pBX4i6WHUU+HgEIBAFQJPvcD+qdb1KqMZAwEIRCXw3gu8w1dFUYvAwSFQlcDEC1xUHc04CEAgLgEEjsufo0OgFgEEroWPwRCISwCB4/Ln6BCoRQCBa+FjMATiEkDguPw5OgRqEUDgWvgYDIG4BBA4Ln+ODoFaBBC4Fj4GQyAuAQSOy5+jQ6AWAQSuhY/BEIhLAIHj8ufoEKhFoFcCz2aFfhwcHf87OprJ/+23wcBpYWGgxdHC8T//d5PbdCp925np4LDQdMqr402y7fq+hkOn0VmntXMDDYfdO9teCOxF3ZkcaG//ZxDB5aUzOrc6akRkL+/nL0c6+b8i6PgEpUfAXxMuX1ronMSdF/jg4Ej/fPvh+3aZZoVzThfWFjUaLZjGnQ7e2p5pb983P2DLncDy0kAb693q99hpgXf3DvV956DWvDl/bqSVZd9ws9r2cTzltrkauuRG+dvpq5vduo/urMD+yru1vd/IJNhYX6p8Jf7741Ej58BO0iDw19V6d3RNU+ikwP4z7/jrrvm2+f/g+NvpzYsrlT4TI3DTU67f+0PggPp9+/4j+IFVwO6OQ/yDrbXzi6Hhv+MQ2Iws6QEIXFJef/X9/MX/mkTz2+VLq+arMAI3X4c+7xGBS6rnvyryV+A2Nn8F9ldiy4bAFlrpxyJwSY39gyv/AKuNzX+l5B9oWTYEttBKPxaBS2rsH15Np+187zocDo4fZlk2BLbQSj8WgUtq/Gk8aezp8+lD+afRVzZtv5aKwOlLackQgRHYMl+I7RgBBOYWumNTktOxEEBgHmJZ5guxHSOAwCUF4Wukjs1YTuc/BBC4ZELwIgfGdJkAAgdUh1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgIdLInliUBYiGQMwEEzrn65N57Agjc+xKSQM4EEDjn6pN77wkgcO9LSAI5E0DgnKtP7r0ngMC9LyEJ5EwAgXOuPrn3ngAC976EJJAzgV4JzKuUOU/VOLnzKmUD3FnM0ABEdlGLAIsZKuJjOWFFcAxrnADLCY1IWdBvBEZ4qwRY0G/AS0sdAyxC50aAljoBqGlqFwCJkCgEEDgAO21lAyAREoUAApdgp7F7lHnJQQMJIHAJKH5aJXAmERaFAAKXYN/a3pd/gNXGNhotaGN9ybRrfh/YhCv5YAQuKfH4666m01krE2E4HGjz4opp3whswpV8MAKXlPjTeKKiKFqZCM45XdlcNe0bgU24kg9GYAROfpKnnCACcwud8vxOPjcE5iFW8pM85QQRmK+RUp7fyeeGwCUl5kWO5B3odYIIHFA+XqUMgERIFAIIHICdxQwBkAiJQgCBA7GznDAQFGFzJYDABtws6DfAIrR1Aizor4CYljoVoDGkFQK01KmIlaZ2FcExrDECNLVrACVtZRuAyC5MBGgra8JFMAQgYCHQq8bulsSIhUAOBBA4hyqTY7IEEDjZ0pJYDgQQOIcqk2OyBBA42dKSWA4EEDiHKpNjsgQQONnSklgOBBA4hyqTY7IEEDjZ0pJYDgR6JTCvUuYwJbuVI69SNlAPFjM0AJFd1CLAYoaK+FhOWBEcwxonwHJCI1IW9BuBEd4qARb0G/DSUscAi9C5EaClTgBqmtoFQCIkCgEEDsBOW9kASIREIYDAJdhp7B5lXnLQQAIIXAJqb/+n/BW4jW3t/KKWl86Yds3Pi5pwJR+MwCUl3trel3+A1cY2Gi1oY33JtGsENuFKPhiBS0o8/rqr6XTWykQYDgfavLhi2jcCm3AlH4zAJSX+NJ6oKIpWJoJzTlc2V037RmATruSDERiBk5/kKSeIwNxCpzy/k88NgXmIlfwkTzlBBOZrpJTnd/K5IXBJiXmRI3kHep0gAgeUj1cpAyAREoUAAgdgZzFDACRCohBA4EDsLCcMBEXYXAkgsAE3C/oNsAhtnQAL+isgpqVOBWgMaYUALXUqYqWpXUVwDGuMAE3tGkBJW9kGILILEwHayppwEQwBCFgI9KqxuyUxYiGQAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAQTOocrkmCwBBE62tCSWAwEEzqHK5JgsAQROtrQklgMBBM6hyuSYLAEETra0JJYDAS/wjiRbt/McyJAjBLpPYOIFfifpevfPlTOEAAROEXjvBX4i6SFoIACB3hF46gW+IemtpEHvTp8ThkC+BPwvAN50Pv+iKJ5Jup8vCzKHQO8IPHfOPfgl8FlJryTd6l0anDAE8iPwRtId59zhscAnV2Ev8WNJ97idzm9GkHEvCPjb5heSHnl5/Rn/FvgPkf1n4ruSbku6xldMvSgsJ5kugYmkD5JeS3rpnPPfGv3e/gX5X4nsitfWfwAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
-    <t>此模块将显示我所在项目共享的网址链接，同时支持创建个人的网址链接；以便从工作台快速进入目标地址。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-20</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>文档</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAI20lEQVR4Xu2dQW4UVxRFX9ndwQgnS2ABILEIBkjsgwmCAWIhCQOiTNgHEgMWgQQLYAnBCEO3XdFHOEJEcP/zLbpepU9PDNKtvr/Oe4c2GLeH+OYxjuPNiLgXEXci4npEHH+b4fcQgMDOCJxExNuIeBERz4ZheP1183Dxm3Ecf4mI3yPifkQc7Ox4FEEAAr0EziPir4h4PAzDp3bRZ4G/yPs8Im73PhM5CEBgNgIvI+Juk/hC4KcR8WC241AMAQhkCfw5DMPD4cvfeV/xaXOWH3kIzEqgfTp9qwn8R0Q8mvUolEMAApch8KQJ3P5V68ZlruYaCEBgVgJvmsDv+FLRrEOgHAKXJXDSBB4vezXXQQAC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYsAAlv4uBgC8xJA4Hn50w4BiwACW/i4GALzEkDgefnTDgGLAAJb+LgYAvMSQOB5+dMOAYtASYHbf88+/XgW2+15e7cQ6wb/bxcPwxCr1UEcXTmM9uspHvD+PsWfwXuKmV08RzmB2zKdvN8grphyW6zja2tbYnj36TQV7762/lQ5gT+cbmOzOeu/gz1OrteHcfVoZRGAdz++KXj3t/Ulywn87uQTr759s/v86vvrcXsz0cs/4N3Pbgre/W19yXIC//3uY9/JSX0m8NuvVywS8M7hc3nn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65NpxFYMyqdcBcKgXPjdXnn2nQagTWj0gl3oRA4N16Xd65Np8sJzA+c1kO7SEzxA6fhvVve/W19yXICfzjdxmZz1nf6PU+t14dx9WhlUYB3P74pePe39SXLCTyOY5y830T7yOP7BNqr7/G1dbSPzgPeffSm4t3X1p8qJ3A7eluq049nsd2eI/I3s2yLtFodxNGVQ1vei6eG94//oJyad7+eOllSYH1sEhCAQCOAwOwBBBZMAIEXPDyODgEEZgcgsGACCLzg4XF0CCAwOwCBBRNA4AUPj6NDAIHZAQgsmAACL3h4HB0CCMwOQGDBBBB4wcPj6BBAYHYAAgsmUFJg/nP99zeKb2bYrW0/g/eUd1BOYL69rW+8U317G7x3y7uvrT9VTmC+wbx/eFN8gzm8d8u7v60vWU5g3uKlb3AtxVvq9LOaIjkF7ynO8fVzlBOYN1nLjdh9kzV475Z3rk2nEVgzKp1A4N2Ox+U99WkReGqiO34+d6F4Bc4NzOWda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nUZgzah0wl0oBM6N1+Wda9NpBNaMSifchULg3Hhd3rk2nS4nMD/gWw/tIjHFD5yG925597f1JcsJ/OF0G5vNWd/p9zy1Xh/G1aOVRQHe/fim4N3f1pcsJ/A4jnHyfhPtI4/vE2ivvsfX1tE+Og9499GbindfW3+qnMDt6G2pTj+exXZ7jsjfzLIt0mp1EEdXDm15L54a3j/+g3Jq3v166mRJgfWxSUAAAo0AArMHEFgwAQRe8PA4OgQQmB2AwIIJIPCCh8fRIYDA7AAEFkwAgRc8PI4OAQRmByCwYAIIvODhcXQIIDA7AIEFE0DgBQ+Po0MAgdkBCCyYQBP4XUQcL/geODoE9pXASRP4dUTc2FcC3DcEFkzgTRP4j4h4tOCb4OgQ2FcCT5rANyPiVUQc7CsF7hsCCyRwHhG3Pr+dwziOTyPiwQJvgiNDYF8J/DkMw8MLgX+JiOcRcXtfaXDfEFgQgZcRcXcYhk//vqHSOI5N4t8j4j6fTi9olBx1nwi0T5v/iojHTd524/95R7Qvfye+FxF3IuI6X2Lap/3gXgsSOImItxHxIiKeDcPQvmr07+MffSSx3RPnCD8AAAAASUVORK5CYII=</t>
-  </si>
-  <si>
-    <t>此模块将显示我所在项目更新的知识库文档动态，同时支持筛选出我操作过的文档。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-21</t>
-  </si>
-  <si>
-    <t>envList</t>
-  </si>
-  <si>
-    <t>环境（最近使用）</t>
-  </si>
-  <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAPAAAACECAYAAACu5qZFAAAJMElEQVR4Xu2dT29UVRiHf3emM4UW7GBNrQRIJCEmYly4UFmwcWFwxZdgQzTRuOMTsFNMNGz8Eq4kLNyw8M+CBVETQ4IJEKwNlSn9A53pzDUHKaE4YXp5z73n9NxnVm1y3/Oe93nPk57eyT030zOfPM+PSzoj6UNJRyTte/YafocABCojsCrppqTLkr7Nsuy3pzNnW7/ked6W9IWks5IalU2PRBCAwE4JDCVdlPR5lmU9F/RI4Mfyfi/pg52OxHUQgEAwAj9I+shJvCXw15I+DjYdEkMAAkUJfJNl2SfZ4/95r7FtLsqP6yEQlIDbTr/tBP5S0mdBp0JyCEDgRQhccAK7u1pvvkg0MRCAQFACvzuBV/iqKGgTSA6BFyWw6gTOXzSaOAhAICwBBA7Ln+wQMBFAYBM+giEQlgACh+VPdgiYCCCwCR/BEAhLAIHD8ic7BEwEENiEj2AIhCWAwGH5kx0CJgIIbMJHMATCEkDgsPzJDgETAQQ24SMYAmEJIHBY/mSHgIlAlAIv9DZ0/s/r+rF771FxJzoHdO71Y5pvT+6o2MFgqG73gTZ6A7mf+cRDoNlsaLLdVKezV+7nMj7DYa619Z76/aE7bcaUIssytVoNTU+11Wg8OYHKNKbP4OgEdvKeuvqTuv3+tjo7rZYuvfP+WImdsAt/r8g1kU+8BJwM86/u9y6x63t3+aFZ3GfJOZE7M3uikzg6gT/941d9t7gwcuWdnpvXV2+89dxVubS0pvUH2+WPdxnXe2ZTe1uanZ32CmFldUO93sDrmFuDtdtN7d+3s11gKRMYMWh0Ar/78xUt9jZG1j/XntQv7518Lps7f91n21zV6jHmcVvog6+9ZBxle/g/9x54/+u7lcH9FX75wF6v87UOlpzAt253rUyIr5DA4UMdr9mW/ln3Ot6zg82+PFXq+EUHj05g6xYagYsugbDXI7CNf3QCW29iIbBtQVQdjcA24tEJ7MqxfI2EwLYFUXU0AtuIRymwpSQEttCrPhaBbcwR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBtABLbxI9pIAIFtABHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbwOQE5oF+24KoMrqMB/p5HrjKDpaQiyN1SoBa0pBlHKmDwCU1q6phOdSuKtK2PGUdaofAtr5EEc2xslG0YeQkyj5WFoHj7T0zg8BYAgg8FhEXQCBeAggcb2+YGQTGEkDgsYi4AALxEkDgeHvDzCAwlgACj0XEBRCIlwACR9CbzU1p8e5Aa+tDbZbzmpsIqqznFCaa0vRUQ3OvNDUx4Z8BAvtnWmhEJ++Nm5saDHi7YCFwu+ziZjPT0SMT3iVG4MAL4c7CQMsrvNM3cBsqST+zv6GD802vuRDYK87ig12/0WfbXBzbroxw2+ljR1te547AXnEWHwyBizPbrRFlCMzrRQOvBrbQgRtQYfoyttC84LvCBo5KxU2swA2oKH1ZN7GGw1zd5YfeX/LtXu7dmdkj9xRVTJ8oH+jna6SYlojfuZT9NZKbrZN4bb2nfn9oFtmJ22o1ND3Vjk5eV2uUAvtdMowGgXQJIHC6vaWyGhBA4Bo0mRLTJYDA6faWympAAIFr0GRKTJcAAqfbWyqrAQEErkGTKTFdAgicbm+prAYEELgGTabEdAkgcLq9pbIaEEDgGjSZEtMlgMDp9pbKakAAgWvQZEpMlwACp9tbKqsBAQSuQZMpMV0CCJxub6msBgSiFHiht6Hzf17Xj917j1pwonNA514/pvn25I5awutFd4QpyEVlv17UFcUD/UFa+19SJ++pqz+p2+9vm0Wn1dKld94fKzEv+A7YvAKpy3rBN0fqFGhCGZd++sev+m5xYeTQp+fm9dUbbz037dLSmtYfbJe/jHkypp3A1N6WZmen7QM9NQKH2nnFWXywd3++osXexsjAufakfnnv5HMHvfPXfbm/wnziJ+C20wdfe8nrRDlW1ivO4oNZBb51u1s8KRHBCBw+1PGam4PdveIsPph1C43AxZmHjEBgG/3o7kJbb2IhsG1BVB2NwDbi0QnsyrF8jYTAtgVRdTQC24hHKbClJAS20Ks+FoFtzBHYxo9oIwEEtgFEYBs/oo0EENgGEIFt/Ig2EkBgG0AEtvEj2kgAgW0AEdjGj2gjAQS2AURgGz+ijQQQ2AYQgW38iDYSQGAbQAS28SPaSACBbQAR2MaPaCMBBLYBRGAbP6KNBBDYBhCBbfyINhJAYBvA5ATmgX7bgqgyuowH+nkeuMoOlpCLI3VKgFrSkGUcqYPAJTWrqmE51K4q0rY8ZR1qh8C2vkQRzbGyUbRh5CTKPlYWgePtPTODwFgCCDwWERdAIF4CCBxvb5gZBMYSQOCxiLgAAvESQOB4e8PMIDCWAAKPRcQFEIiXAAJH0JvNTWnx7kBr60NtDiKYEFPwRmCiKU1PNTT3SlMTE96GfTIQAvtnWmhEJ++Nm5saDPJCcVy8uwg0m5mOHpnwLjECB14HdxYGWl7h5WSB21BJ+pn9DR2cb3rNhcBecRYf7PqNPtvm4th2ZYTbTh872vI6dwT2irP4YAhcnNlujShDYF4vGng1sIUO3IAK05exheYF3xU2cFQqbmIFbkBF6cu6iTUc5uouP1Se+70JmmWZOjN75J6iiukT5QP9fI0U0xLxO5eyv0Zys3USr6331O8PzSI7cVuthqan2tHJ62qNUmC/S4bRIJAuAQROt7dUVgMCCFyDJlNiugQQON3eUlkNCCBwDZpMiekSQOB0e0tlNSCAwDVoMiWmSwCB0+0tldWAAALXoMmUmC4BBE63t1RWAwIIXIMmU2K6BBA43d5SWQ0IOIFXJO2rQa2UCIHUCKw6gX+T9GZqlVEPBGpA4Hcn8JeSPqtBsZQIgdQIXHACH5d0TVIjteqoBwIJE3AnP7796HiBPM+/lvRxwsVSGgRSI/BNlmWfbAnclvS9pA9Sq5J6IJAggR8kfZRlWe/JAT95njuJv5B0lu10gi2npBQIuG3zRUmfO3ldQf87oevx/8RnJH0o6QhfMaXQd2rYxQRWJd2UdFnSt1mWuW+Nnnz+BSgzMezwUYl+AAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>此模块将显示我近7天使用过的环境，以便我能从工作台快速进入对应的环境管理资源。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-22</t>
-  </si>
-  <si>
-    <t>selfCode</t>
-  </si>
-  <si>
-    <t>代码提交记录</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHZpZXdCb3g9IjAgMCAxMjAgNjYiPgogIDxnIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICA8cmVjdCB3aWR0aD0iMTIwIiBoZWlnaHQ9IjY2IiBmaWxsPSIjRkZGIiByeD0iNCIvPgogICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTggMTApIj4KICAgICAgPHJlY3Qgd2lkdGg9IjU0IiBoZWlnaHQ9IjEwIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgcng9IjIiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iMTQiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cGF0aCBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xMiIgZD0iTTIsMjggTDUyLDI4IEM1My4xMDQ1Njk1LDI4IDU0LDI4Ljg5NTQzMDUgNTQsMzAgTDU0LDM2IEM1NCwzNy4xMDQ1Njk1IDUzLjEwNDU2OTUsMzggNTIsMzggTDI2LDM4IEwyNiwzOCBMMiwzOCBDMC44OTU0MzA1LDM4IDEuMzUyNzA3NWUtMTYsMzcuMTA0NTY5NSAwLDM2IEwwLDMwIEMtMS4zNTI3MDc1ZS0xNiwyOC44OTU0MzA1IDAuODk1NDMwNSwyOCAyLDI4IFoiLz4KICAgICAgPHJlY3Qgd2lkdGg9IjQiIGhlaWdodD0iNCIgeT0iNDIiIGZpbGw9IiM1MzY1RUEiIGZpbGwtb3BhY2l0eT0iLjY1IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iMTQiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgICA8cmVjdCB3aWR0aD0iNzgiIGhlaWdodD0iNCIgeD0iNiIgeT0iNDIiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA4IiByeD0iMiIvPgogICAgPC9nPgogIDwvZz4KPC9zdmc+Cg==</t>
-  </si>
-  <si>
-    <t>用于展示我近7天的代码提交记录</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-23</t>
-  </si>
-  <si>
-    <t>myReport</t>
-  </si>
-  <si>
-    <t>我报告的</t>
-  </si>
-  <si>
-    <t>展示当前迭代中报告人是我的问题项。</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-24</t>
-  </si>
-  <si>
-    <t>resourceManagement</t>
-  </si>
-  <si>
-    <t>resourceOverview</t>
-  </si>
-  <si>
-    <t>资源概览</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMTAwLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0ZGRkZGRiIgeD0iMCIgeT0iMCIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMUZDMkJCIiB4PSIxOSIgeT0iMTEiIHdpZHRoPSIyNCIgaGVpZ2h0PSIyMCIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbC1vcGFjaXR5PSIwLjE2IiBmaWxsPSIjMzdCMUVDIiB4PSI0OC41IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9Ijc4IiB5PSIxMSIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiM2ODg3RTgiIHg9IjE5IiB5PSIzNiIgd2lkdGg9IjI0IiBoZWlnaHQ9IjIwIiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsLW9wYWNpdHk9IjAuMTYiIGZpbGw9IiNGRDcyOUMiIHg9IjQ4LjUiIHk9IjM2IiB3aWR0aD0iMjQiIGhlaWdodD0iMjAiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-  </si>
-  <si>
-    <t>此模块将显示主机、集群、环境的数量概览</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-25</t>
-  </si>
-  <si>
-    <t>resourceMonitoring</t>
-  </si>
-  <si>
-    <t>资源池监控</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtMjAzLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMDMuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTAiIHdpZHRoPSI4MyIgaGVpZ2h0PSIxMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjI3IiB3aWR0aD0iODMiIGhlaWdodD0iMTIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSI0NCIgd2lkdGg9IjgzIiBoZWlnaHQ9IjEyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
-  </si>
-  <si>
-    <t>此模块将显示主机、集群的运行情况</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-26</t>
-  </si>
-  <si>
-    <t>notice</t>
-  </si>
-  <si>
-    <t>公告</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTIwcHgiIGhlaWdodD0iNjZweCIgdmlld0JveD0iMCAwIDEyMCA2NiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDx0aXRsZT7nvJbnu4QgMzQ8L3RpdGxlPgogICAgPGcgaWQ9Iumhtemdoi0xIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Liq5Lq65bel5L2c5Y+wLei1hOa6kOeuoeeQhi1ub3JtYWwiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC04NzguMDAwMDAwLCAtNTEyLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0i57yW57uELTM3IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg2OTguMDAwMDAwLCAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9Iue8lue7hC0zMyIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTcwLjAwMDAwMCwgMTAwLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA0MTIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLnvJbnu4QtMzQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEwLjAwMDAwMCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGRkZGRkYiIHg9IjAiIHk9IjAiIHdpZHRoPSIxMjAiIGhlaWdodD0iNjYiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iMTEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjIxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSLnn6nlvaIiIGZpbGw9IiNGNUY2RkEiIHg9IjE4IiB5PSIzMSIgd2lkdGg9Ijg0IiBoZWlnaHQ9IjUiIHJ4PSIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0i55+p5b2iIiBmaWxsPSIjRjVGNkZBIiB4PSIxOCIgeT0iNDEiIHdpZHRoPSI4NCIgaGVpZ2h0PSI1IiByeD0iMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IuefqeW9oiIgZmlsbD0iI0Y1RjZGQSIgeD0iMTgiIHk9IjUxIiB3aWR0aD0iODQiIGhlaWdodD0iNSIgcng9IjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>fd_dashboard_card-27</t>
-  </si>
-  <si>
-    <t>myExecution</t>
-  </si>
-  <si>
-    <t>我执行的用例</t>
-  </si>
-  <si>
     <t>此模块展示当前进行的的测试计划中指派给我的用例。</t>
   </si>
   <si>
@@ -2495,115 +2377,19 @@
   </si>
   <si>
     <t>fd_dashboard_layout-36</t>
-  </si>
-  <si>
-    <t>fd_dashboard-10</t>
-  </si>
-  <si>
-    <t>fd_dashboard-11</t>
-  </si>
-  <si>
-    <t>甘特图</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashboard_name:zh_CN</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashboard_name:en_US</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project Management</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time Tracking</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource management</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>#dashboard_code</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>roject</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>esource</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gantt</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>gantt</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIiB3aWR0aD0iMTI4IiBoZWlnaHQ9Ijc0IiB2aWV3Qm94PSIwIDAgMTI4IDc0Ij4KICA8ZGVmcz4KICAgIDxyZWN0IGlkPSLku6Plip7kuovpobktYiIgd2lkdGg9IjEyMCIgaGVpZ2h0PSI2NiIgeD0iMCIgeT0iMCIgcng9IjQiLz4KICAgIDxmaWx0ZXIgaWQ9IuS7o+WKnuS6i+mhuS1hIiB3aWR0aD0iMTEwLjglIiBoZWlnaHQ9IjExOS43JSIgeD0iLTUuNCUiIHk9Ii04LjMlIiBmaWx0ZXJVbml0cz0ib2JqZWN0Qm91bmRpbmdCb3giPgogICAgICA8ZmVPZmZzZXQgZHk9IjEiIGluPSJTb3VyY2VBbHBoYSIgcmVzdWx0PSJzaGFkb3dPZmZzZXRPdXRlcjEiLz4KICAgICAgPGZlR2F1c3NpYW5CbHVyIGluPSJzaGFkb3dPZmZzZXRPdXRlcjEiIHJlc3VsdD0ic2hhZG93Qmx1ck91dGVyMSIgc3RkRGV2aWF0aW9uPSIyIi8+CiAgICAgIDxmZUNvbG9yTWF0cml4IGluPSJzaGFkb3dCbHVyT3V0ZXIxIiB2YWx1ZXM9IjAgMCAwIDAgMC4wNTQ5MDE5NjA4ICAgMCAwIDAgMCAwLjExMzcyNTQ5ICAgMCAwIDAgMCAwLjUwMTk2MDc4NCAgMCAwIDAgMC4xNiAwIi8+CiAgICA8L2ZpbHRlcj4KICA8L2RlZnM+CiAgPGcgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg0IDMpIj4KICAgIDx1c2UgZmlsbD0iI0ZGRiIgeGxpbms6aHJlZj0iI+S7o+WKnuS6i+mhuS1iIi8+CiAgICA8cmVjdCB3aWR0aD0iODQiIGhlaWdodD0iNiIgeD0iMTgiIHk9IjEwIiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4xNiIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSI2MCIgaGVpZ2h0PSI3IiB4PSIxOCIgeT0iMjMiIGZpbGw9IiMwRTFEODAiIGZpbGwtb3BhY2l0eT0iLjA2IiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjY4IiBoZWlnaHQ9IjciIHg9IjE4IiB5PSIzNiIgZmlsbD0iIzBFMUQ4MCIgZmlsbC1vcGFjaXR5PSIuMDYiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iNDAiIGhlaWdodD0iNyIgeD0iMTgiIHk9IjQ5IiBmaWxsPSIjMEUxRDgwIiBmaWxsLW9wYWNpdHk9Ii4wNiIgcng9IjIiLz4KICAgIDxyZWN0IHdpZHRoPSIxMiIgaGVpZ2h0PSI3IiB4PSI5MCIgeT0iMjMiIGZpbGw9IiNGQUFEMTQiIHJ4PSIyIi8+CiAgICA8cmVjdCB3aWR0aD0iMTIiIGhlaWdodD0iNyIgeD0iOTAiIHk9IjM2IiBmaWxsPSIjNEQ5MEZFIiByeD0iMiIvPgogICAgPHJlY3Qgd2lkdGg9IjEyIiBoZWlnaHQ9IjciIHg9IjkwIiB5PSI0OSIgZmlsbD0iIzFGQzJCQiIgcng9IjIiLz4KICA8L2c+Cjwvc3ZnPgo=</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2614,31 +2400,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2646,42 +2437,187 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2701,52 +2637,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2777,8 +2689,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2790,28 +2888,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2836,12 +2918,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2850,13 +2941,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2871,6 +2960,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2879,18 +2977,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2899,71 +3240,116 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3036,9 +3422,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3296,273 +3679,276 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="C1" s="35" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="57">
-      <c r="C9" s="14" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
-      <c r="C10" s="16" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
-      <c r="C11" s="12" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
-      <c r="C12" s="12" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" ht="38">
-      <c r="C15" s="17" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="19" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="19" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="21" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="13" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
-      <c r="C27" s="22" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="C18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="38.7109375" customWidth="1"/>
-    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.8541666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.4236111111111" customWidth="1"/>
+    <col min="5" max="5" width="30.2847222222222" customWidth="1"/>
+    <col min="6" max="6" width="14.2847222222222" customWidth="1"/>
+    <col min="7" max="8" width="37.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.5694444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.7083333333333" customWidth="1"/>
+    <col min="16" max="16" width="38.7083333333333" customWidth="1"/>
+    <col min="17" max="17" width="37.4236111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3576,19 +3962,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
         <v>44389</v>
       </c>
       <c r="B7" t="s">
@@ -3600,173 +3986,173 @@
       <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="H7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
       <c r="E8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>193</v>
+        <v>60</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="J8" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
       <c r="E9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>195</v>
+        <v>65</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="J9" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
       <c r="E10" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>199</v>
+        <v>60</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="J10" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
       <c r="E11" t="s">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>194</v>
+        <v>60</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>201</v>
+      <c r="J11" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>44389</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="5:17">
       <c r="E14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -3781,27 +4167,27 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="5:17">
       <c r="E15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -3816,27 +4202,27 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="Q15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="5:17">
       <c r="E16" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3850,28 +4236,28 @@
       <c r="M16">
         <v>3</v>
       </c>
-      <c r="P16" s="33" t="s">
-        <v>202</v>
+      <c r="P16" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="Q16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="5:17" ht="15" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="5:17">
       <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3886,65 +4272,65 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="Q17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17" ht="15" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="5:17">
       <c r="E18" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="Q18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17" ht="15" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="5:17">
       <c r="E19" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -3953,170 +4339,170 @@
         <v>4</v>
       </c>
       <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="5:17">
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="5:17">
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21">
         <v>4</v>
       </c>
-      <c r="P19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" ht="15" customHeight="1">
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20">
+      <c r="K21">
         <v>4</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="P20" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="5:17" ht="15" customHeight="1">
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="Q21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="5:17">
       <c r="E22" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>4</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="5:17">
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23">
         <v>3</v>
       </c>
-      <c r="M22">
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="P22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="5:17" ht="15" customHeight="1">
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
       <c r="M23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="Q23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="5:17" ht="15" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="5:17">
       <c r="E24" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4131,205 +4517,205 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="Q24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="5:17" ht="15" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="5:17">
       <c r="E25" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="P25" t="s">
-        <v>137</v>
+        <v>4</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="Q25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17" ht="15" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="5:17">
       <c r="E26" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="P26" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="5:17" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="5:17">
       <c r="E27" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <v>7</v>
       </c>
       <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="5:17" ht="15" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="5:17">
       <c r="E28" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>151</v>
+        <v>92</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
         <v>5</v>
       </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
       <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="5:17" ht="15" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="5:17">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>156</v>
+        <v>92</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
-      <c r="P29" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="5:17" ht="15" customHeight="1">
+      <c r="P29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="5:17">
       <c r="E30" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>161</v>
+        <v>92</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -4341,163 +4727,153 @@
         <v>4</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="5:17" ht="15" customHeight="1">
-      <c r="E31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2">
+        <v>107</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="5">
         <v>44389</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H33" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" t="s">
-        <v>173</v>
-      </c>
-      <c r="L33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" t="s">
+        <v>185</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="str">
+        <f>E8</f>
+        <v>fd_dashboard-8</v>
+      </c>
+      <c r="H33" t="str">
+        <f>E14</f>
+        <v>fd_dashboard_card-11</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12">
       <c r="E34" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G34" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H34" t="str">
-        <f>E14</f>
-        <v>fd_dashboard_card-11</v>
+        <f>E16</f>
+        <v>fd_dashboard_card-13</v>
       </c>
       <c r="I34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
       <c r="E35" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G35" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H35" t="str">
-        <f>E16</f>
-        <v>fd_dashboard_card-13</v>
+        <f>E17</f>
+        <v>fd_dashboard_card-14</v>
       </c>
       <c r="I35">
         <v>5</v>
       </c>
       <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
         <v>4</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12">
       <c r="E36" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G36" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H36" t="str">
-        <f>E17</f>
-        <v>fd_dashboard_card-14</v>
+        <f>E20</f>
+        <v>fd_dashboard_card-18</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
         <v>4</v>
       </c>
-      <c r="L36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="5:12">
       <c r="E37" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G37" t="str">
         <f>E8</f>
@@ -4505,7 +4881,7 @@
       </c>
       <c r="H37" t="str">
         <f>E21</f>
-        <v>fd_dashboard_card-18</v>
+        <v>fd_dashboard_card-19</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -4517,137 +4893,137 @@
         <v>9</v>
       </c>
       <c r="L37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12">
       <c r="E38" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G38" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H38" t="str">
-        <f>E22</f>
-        <v>fd_dashboard_card-19</v>
+        <f t="shared" ref="H38:H43" si="0">E23</f>
+        <v>fd_dashboard_card-21</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>9</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12">
       <c r="E39" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G39" t="str">
         <f>E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" ref="H39:H44" si="0">E24</f>
-        <v>fd_dashboard_card-21</v>
+        <f>E22</f>
+        <v>fd_dashboard_card-20</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12">
       <c r="E40" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G40" t="str">
-        <f>E8</f>
+        <f t="shared" ref="G40:G41" si="1">E8</f>
         <v>fd_dashboard-8</v>
       </c>
       <c r="H40" t="str">
-        <f>E23</f>
-        <v>fd_dashboard_card-20</v>
+        <f>E19</f>
+        <v>fd_dashboard_card-17</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
       <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
         <v>5</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12">
       <c r="E41" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" ref="G41:G42" si="1">E8</f>
-        <v>fd_dashboard-8</v>
-      </c>
-      <c r="H41" t="str">
-        <f>E20</f>
-        <v>fd_dashboard_card-17</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>4</v>
-      </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="E42" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" t="str">
         <f t="shared" si="1"/>
         <v>fd_dashboard-9</v>
       </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>fd_dashboard_card-24</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12">
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" t="str">
+        <f>E9</f>
+        <v>fd_dashboard-9</v>
+      </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>fd_dashboard_card-24</v>
+        <v>fd_dashboard_card-25</v>
       </c>
       <c r="I42">
         <v>7</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12">
       <c r="E43" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G43" t="str">
         <f>E9</f>
@@ -4655,49 +5031,24 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>fd_dashboard_card-25</v>
+        <v>fd_dashboard_card-26</v>
       </c>
       <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
         <v>7</v>
       </c>
-      <c r="J43">
-        <v>7</v>
-      </c>
-      <c r="K43">
+      <c r="L43">
         <v>0</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="E44" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" t="str">
-        <f>E9</f>
-        <v>fd_dashboard-9</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>fd_dashboard_card-26</v>
-      </c>
-      <c r="I44">
-        <v>5</v>
-      </c>
-      <c r="J44">
-        <v>4</v>
-      </c>
-      <c r="K44">
-        <v>7</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>